--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9895440833892893</v>
+        <v>0.989544083389289</v>
       </c>
       <c r="D2">
         <v>1.009534268493551</v>
       </c>
       <c r="E2">
-        <v>0.9996930904627641</v>
+        <v>0.9996930904627639</v>
       </c>
       <c r="F2">
         <v>1.003555320645786</v>
@@ -439,7 +439,7 @@
         <v>1.041525920388466</v>
       </c>
       <c r="J2">
-        <v>1.012042090954568</v>
+        <v>1.012042090954567</v>
       </c>
       <c r="K2">
         <v>1.020862354825982</v>
@@ -448,7 +448,7 @@
         <v>1.011156702679125</v>
       </c>
       <c r="M2">
-        <v>1.014965345434216</v>
+        <v>1.014965345434215</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9982672737833075</v>
+        <v>0.9982672737833085</v>
       </c>
       <c r="D3">
-        <v>1.016033293628404</v>
+        <v>1.016033293628405</v>
       </c>
       <c r="E3">
-        <v>1.007932327219612</v>
+        <v>1.007932327219613</v>
       </c>
       <c r="F3">
-        <v>1.01220194907462</v>
+        <v>1.012201949074622</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04458527662322</v>
       </c>
       <c r="J3">
-        <v>1.018805286375601</v>
+        <v>1.018805286375602</v>
       </c>
       <c r="K3">
         <v>1.026465054688088</v>
       </c>
       <c r="L3">
-        <v>1.018464708643566</v>
+        <v>1.018464708643567</v>
       </c>
       <c r="M3">
-        <v>1.022681048432642</v>
+        <v>1.022681048432643</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003711029089901</v>
+        <v>1.003711029089902</v>
       </c>
       <c r="D4">
-        <v>1.02009087208936</v>
+        <v>1.020090872089361</v>
       </c>
       <c r="E4">
-        <v>1.013080249052623</v>
+        <v>1.013080249052624</v>
       </c>
       <c r="F4">
         <v>1.01760508484603</v>
@@ -515,16 +515,16 @@
         <v>1.046478016913188</v>
       </c>
       <c r="J4">
-        <v>1.023020280393432</v>
+        <v>1.023020280393433</v>
       </c>
       <c r="K4">
-        <v>1.029952717394636</v>
+        <v>1.029952717394637</v>
       </c>
       <c r="L4">
-        <v>1.023023329229034</v>
+        <v>1.023023329229036</v>
       </c>
       <c r="M4">
-        <v>1.027495575714597</v>
+        <v>1.027495575714598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005954720108168</v>
+        <v>1.005954720108169</v>
       </c>
       <c r="D5">
-        <v>1.021763521124768</v>
+        <v>1.02176352112477</v>
       </c>
       <c r="E5">
-        <v>1.015203404726578</v>
+        <v>1.015203404726579</v>
       </c>
       <c r="F5">
-        <v>1.019833676401083</v>
+        <v>1.019833676401084</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.04725409438929</v>
       </c>
       <c r="J5">
-        <v>1.024756101979367</v>
+        <v>1.024756101979368</v>
       </c>
       <c r="K5">
-        <v>1.031387989780596</v>
+        <v>1.031387989780598</v>
       </c>
       <c r="L5">
-        <v>1.024901648310487</v>
+        <v>1.024901648310488</v>
       </c>
       <c r="M5">
         <v>1.029479726724807</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006328901587535</v>
+        <v>1.006328901587538</v>
       </c>
       <c r="D6">
-        <v>1.02204248200809</v>
+        <v>1.022042482008092</v>
       </c>
       <c r="E6">
-        <v>1.015557564128045</v>
+        <v>1.015557564128048</v>
       </c>
       <c r="F6">
-        <v>1.020205434283783</v>
+        <v>1.020205434283785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047383281766414</v>
+        <v>1.047383281766415</v>
       </c>
       <c r="J6">
-        <v>1.025045499859654</v>
+        <v>1.025045499859657</v>
       </c>
       <c r="K6">
-        <v>1.03162721871964</v>
+        <v>1.031627218719642</v>
       </c>
       <c r="L6">
-        <v>1.025214861601019</v>
+        <v>1.025214861601023</v>
       </c>
       <c r="M6">
-        <v>1.02981061077508</v>
+        <v>1.029810610775082</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003741181707964</v>
+        <v>1.003741181707968</v>
       </c>
       <c r="D7">
-        <v>1.020113349637337</v>
+        <v>1.020113349637341</v>
       </c>
       <c r="E7">
-        <v>1.013108776397053</v>
+        <v>1.013108776397058</v>
       </c>
       <c r="F7">
-        <v>1.017635028131633</v>
+        <v>1.017635028131638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046488462579604</v>
+        <v>1.046488462579606</v>
       </c>
       <c r="J7">
-        <v>1.023043613576523</v>
+        <v>1.023043613576528</v>
       </c>
       <c r="K7">
-        <v>1.029972014640032</v>
+        <v>1.029972014640036</v>
       </c>
       <c r="L7">
-        <v>1.023048573974851</v>
+        <v>1.023048573974856</v>
       </c>
       <c r="M7">
-        <v>1.027522241298543</v>
+        <v>1.027522241298548</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925357200610352</v>
+        <v>0.9925357200610335</v>
       </c>
       <c r="D8">
-        <v>1.011762635631011</v>
+        <v>1.011762635631009</v>
       </c>
       <c r="E8">
-        <v>1.002517387171201</v>
+        <v>1.002517387171199</v>
       </c>
       <c r="F8">
-        <v>1.006519133713641</v>
+        <v>1.006519133713639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04257857179864</v>
+        <v>1.042578571798639</v>
       </c>
       <c r="J8">
-        <v>1.014362683340698</v>
+        <v>1.014362683340695</v>
       </c>
       <c r="K8">
-        <v>1.022785597420208</v>
+        <v>1.022785597420207</v>
       </c>
       <c r="L8">
-        <v>1.013663366485568</v>
+        <v>1.013663366485566</v>
       </c>
       <c r="M8">
-        <v>1.01761151740103</v>
+        <v>1.017611517401028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710890996988776</v>
+        <v>0.9710890996988774</v>
       </c>
       <c r="D9">
-        <v>0.9958032024828466</v>
+        <v>0.9958032024828467</v>
       </c>
       <c r="E9">
-        <v>0.9823017402284793</v>
+        <v>0.9823017402284792</v>
       </c>
       <c r="F9">
-        <v>0.9853070129281308</v>
+        <v>0.9853070129281305</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1.034963846725478</v>
       </c>
       <c r="J9">
-        <v>0.9977057728507437</v>
+        <v>0.9977057728507436</v>
       </c>
       <c r="K9">
         <v>1.008964738768556</v>
@@ -714,7 +714,7 @@
         <v>0.9956886377521535</v>
       </c>
       <c r="M9">
-        <v>0.9986430583497998</v>
+        <v>0.9986430583497995</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553791652701409</v>
+        <v>0.955379165270143</v>
       </c>
       <c r="D10">
-        <v>0.9841424059898546</v>
+        <v>0.9841424059898559</v>
       </c>
       <c r="E10">
-        <v>0.9675396910666764</v>
+        <v>0.9675396910666785</v>
       </c>
       <c r="F10">
-        <v>0.9698190324381347</v>
+        <v>0.9698190324381367</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029302382462603</v>
+        <v>1.029302382462604</v>
       </c>
       <c r="J10">
-        <v>0.9854822438529213</v>
+        <v>0.9854822438529232</v>
       </c>
       <c r="K10">
-        <v>0.9988040010020441</v>
+        <v>0.9988040010020456</v>
       </c>
       <c r="L10">
-        <v>0.9825208478788461</v>
+        <v>0.9825208478788482</v>
       </c>
       <c r="M10">
-        <v>0.9847554673124327</v>
+        <v>0.9847554673124347</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9481670102433666</v>
+        <v>0.9481670102433662</v>
       </c>
       <c r="D11">
-        <v>0.9787999050419709</v>
+        <v>0.9787999050419707</v>
       </c>
       <c r="E11">
-        <v>0.9607758718592092</v>
+        <v>0.9607758718592093</v>
       </c>
       <c r="F11">
-        <v>0.9627226105403708</v>
+        <v>0.962722610540371</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026685157588749</v>
       </c>
       <c r="J11">
-        <v>0.9798672147059646</v>
+        <v>0.9798672147059645</v>
       </c>
       <c r="K11">
-        <v>0.9941330131315266</v>
+        <v>0.9941330131315262</v>
       </c>
       <c r="L11">
-        <v>0.9764774488411319</v>
+        <v>0.976477448841132</v>
       </c>
       <c r="M11">
-        <v>0.9783835115656684</v>
+        <v>0.9783835115656686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454187754541982</v>
+        <v>0.9454187754542002</v>
       </c>
       <c r="D12">
-        <v>0.976766103436655</v>
+        <v>0.9767661034366566</v>
       </c>
       <c r="E12">
-        <v>0.9582006806351725</v>
+        <v>0.9582006806351745</v>
       </c>
       <c r="F12">
-        <v>0.9600207486597289</v>
+        <v>0.9600207486597307</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02568529654011</v>
       </c>
       <c r="J12">
-        <v>0.9777272477692194</v>
+        <v>0.9777272477692212</v>
       </c>
       <c r="K12">
-        <v>0.9923523884635487</v>
+        <v>0.9923523884635501</v>
       </c>
       <c r="L12">
-        <v>0.9741750303813481</v>
+        <v>0.97417503038135</v>
       </c>
       <c r="M12">
-        <v>0.9759561749467581</v>
+        <v>0.9759561749467599</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460115584563431</v>
+        <v>0.9460115584563412</v>
       </c>
       <c r="D13">
-        <v>0.9772046898081994</v>
+        <v>0.9772046898081981</v>
       </c>
       <c r="E13">
-        <v>0.9587560356037608</v>
+        <v>0.9587560356037589</v>
       </c>
       <c r="F13">
-        <v>0.9606034233556294</v>
+        <v>0.9606034233556277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025901074446024</v>
+        <v>1.025901074446023</v>
       </c>
       <c r="J13">
-        <v>0.9781888412705183</v>
+        <v>0.9781888412705164</v>
       </c>
       <c r="K13">
-        <v>0.9927364899791801</v>
+        <v>0.9927364899791787</v>
       </c>
       <c r="L13">
-        <v>0.9746716285787682</v>
+        <v>0.9746716285787662</v>
       </c>
       <c r="M13">
-        <v>0.9764797049064258</v>
+        <v>0.976479704906424</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9479413044421108</v>
       </c>
       <c r="D14">
-        <v>0.9786328312829778</v>
+        <v>0.9786328312829777</v>
       </c>
       <c r="E14">
-        <v>0.9605643317395274</v>
+        <v>0.9605643317395278</v>
       </c>
       <c r="F14">
-        <v>0.9625006660471161</v>
+        <v>0.9625006660471164</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026603091981128</v>
       </c>
       <c r="J14">
-        <v>0.9796914698776246</v>
+        <v>0.9796914698776247</v>
       </c>
       <c r="K14">
         <v>0.9939867877725832</v>
       </c>
       <c r="L14">
-        <v>0.976288346384751</v>
+        <v>0.9762883463847516</v>
       </c>
       <c r="M14">
-        <v>0.9781841442378109</v>
+        <v>0.9781841442378112</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491208424570515</v>
+        <v>0.9491208424570517</v>
       </c>
       <c r="D15">
-        <v>0.9795060413910074</v>
+        <v>0.9795060413910078</v>
       </c>
       <c r="E15">
-        <v>0.9616699306039233</v>
+        <v>0.9616699306039239</v>
       </c>
       <c r="F15">
-        <v>0.9636606407780554</v>
+        <v>0.9636606407780564</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.027031864347938</v>
       </c>
       <c r="J15">
-        <v>0.9806098999169154</v>
+        <v>0.9806098999169158</v>
       </c>
       <c r="K15">
-        <v>0.9947509336448003</v>
+        <v>0.9947509336448007</v>
       </c>
       <c r="L15">
-        <v>0.9772766150984022</v>
+        <v>0.9772766150984027</v>
       </c>
       <c r="M15">
-        <v>0.9792260684844687</v>
+        <v>0.9792260684844695</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558485491315084</v>
+        <v>0.955848549131512</v>
       </c>
       <c r="D16">
-        <v>0.9844903597041368</v>
+        <v>0.9844903597041397</v>
       </c>
       <c r="E16">
-        <v>0.9679801850338469</v>
+        <v>0.9679801850338505</v>
       </c>
       <c r="F16">
-        <v>0.9702811841670845</v>
+        <v>0.9702811841670876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029472358324649</v>
+        <v>1.029472358324651</v>
       </c>
       <c r="J16">
-        <v>0.9858476276536181</v>
+        <v>0.9858476276536211</v>
       </c>
       <c r="K16">
-        <v>0.9991078879816945</v>
+        <v>0.9991078879816973</v>
       </c>
       <c r="L16">
-        <v>0.982914217298433</v>
+        <v>0.9829142172984364</v>
       </c>
       <c r="M16">
-        <v>0.9851702585576516</v>
+        <v>0.9851702585576546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599539197974509</v>
+        <v>0.9599539197974483</v>
       </c>
       <c r="D17">
-        <v>0.9875349099428038</v>
+        <v>0.9875349099428017</v>
       </c>
       <c r="E17">
-        <v>0.9718343741555968</v>
+        <v>0.971834374155594</v>
       </c>
       <c r="F17">
-        <v>0.9743248693063287</v>
+        <v>0.9743248693063261</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030957004449818</v>
+        <v>1.030957004449817</v>
       </c>
       <c r="J17">
-        <v>0.9890430190403219</v>
+        <v>0.9890430190403192</v>
       </c>
       <c r="K17">
-        <v>1.001765085259713</v>
+        <v>1.001765085259711</v>
       </c>
       <c r="L17">
-        <v>0.9863549539692289</v>
+        <v>0.9863549539692262</v>
       </c>
       <c r="M17">
-        <v>0.9887985681814119</v>
+        <v>0.9887985681814093</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623095800494929</v>
+        <v>0.9623095800494944</v>
       </c>
       <c r="D18">
-        <v>0.9892828479210993</v>
+        <v>0.9892828479211005</v>
       </c>
       <c r="E18">
-        <v>0.9740471178873185</v>
+        <v>0.9740471178873201</v>
       </c>
       <c r="F18">
-        <v>0.9766464093134755</v>
+        <v>0.9766464093134769</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031807191687129</v>
       </c>
       <c r="J18">
-        <v>0.990876201476476</v>
+        <v>0.9908762014764778</v>
       </c>
       <c r="K18">
-        <v>1.003289173681816</v>
+        <v>1.003289173681817</v>
       </c>
       <c r="L18">
-        <v>0.9883293917563091</v>
+        <v>0.9883293917563105</v>
       </c>
       <c r="M18">
-        <v>0.9908808116572164</v>
+        <v>0.9908808116572181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631064096573538</v>
+        <v>0.9631064096573561</v>
       </c>
       <c r="D19">
-        <v>0.9898742639116249</v>
+        <v>0.9898742639116264</v>
       </c>
       <c r="E19">
-        <v>0.9747958038293102</v>
+        <v>0.9747958038293121</v>
       </c>
       <c r="F19">
-        <v>0.977431908437308</v>
+        <v>0.9774319084373099</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032094484000607</v>
       </c>
       <c r="J19">
-        <v>0.9914962355100496</v>
+        <v>0.9914962355100514</v>
       </c>
       <c r="K19">
-        <v>1.003804604384246</v>
+        <v>1.003804604384247</v>
       </c>
       <c r="L19">
-        <v>0.9889972875516835</v>
+        <v>0.9889972875516854</v>
       </c>
       <c r="M19">
-        <v>0.9915852040155988</v>
+        <v>0.9915852040156007</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.959517531170294</v>
+        <v>0.9595175311702913</v>
       </c>
       <c r="D20">
-        <v>0.9872111793151016</v>
+        <v>0.9872111793150996</v>
       </c>
       <c r="E20">
-        <v>0.9714245578372229</v>
+        <v>0.9714245578372199</v>
       </c>
       <c r="F20">
-        <v>0.9738949037085872</v>
+        <v>0.9738949037085846</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030799367037478</v>
       </c>
       <c r="J20">
-        <v>0.9887033918267839</v>
+        <v>0.9887033918267815</v>
       </c>
       <c r="K20">
-        <v>1.001482695101721</v>
+        <v>1.001482695101718</v>
       </c>
       <c r="L20">
-        <v>0.9859891976323831</v>
+        <v>0.9859891976323806</v>
       </c>
       <c r="M20">
-        <v>0.9884128550660406</v>
+        <v>0.988412855066038</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,7 +1146,7 @@
         <v>0.94737502548925</v>
       </c>
       <c r="D21">
-        <v>0.9782136890477624</v>
+        <v>0.9782136890477626</v>
       </c>
       <c r="E21">
         <v>0.9600336295931476</v>
@@ -1158,19 +1158,19 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02639715519579</v>
+        <v>1.026397155195791</v>
       </c>
       <c r="J21">
         <v>0.9792505347146757</v>
       </c>
       <c r="K21">
-        <v>0.9936199086751552</v>
+        <v>0.9936199086751554</v>
       </c>
       <c r="L21">
-        <v>0.9758139105182361</v>
+        <v>0.975813910518236</v>
       </c>
       <c r="M21">
-        <v>0.9776839590636802</v>
+        <v>0.97768395906368</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393345209075863</v>
+        <v>0.9393345209075845</v>
       </c>
       <c r="D22">
-        <v>0.9722676674779762</v>
+        <v>0.9722676674779748</v>
       </c>
       <c r="E22">
-        <v>0.9525038803383177</v>
+        <v>0.9525038803383153</v>
       </c>
       <c r="F22">
-        <v>0.9540436068065546</v>
+        <v>0.9540436068065525</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023467222320379</v>
+        <v>1.023467222320377</v>
       </c>
       <c r="J22">
-        <v>0.9729892563107815</v>
+        <v>0.9729892563107797</v>
       </c>
       <c r="K22">
-        <v>0.9884092797254129</v>
+        <v>0.9884092797254115</v>
       </c>
       <c r="L22">
-        <v>0.9690788520033365</v>
+        <v>0.9690788520033343</v>
       </c>
       <c r="M22">
-        <v>0.9705839574061771</v>
+        <v>0.970583957406175</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436384210621013</v>
+        <v>0.9436384210621008</v>
       </c>
       <c r="D23">
-        <v>0.9754491844439699</v>
+        <v>0.9754491844439696</v>
       </c>
       <c r="E23">
-        <v>0.9565330791222705</v>
+        <v>0.9565330791222706</v>
       </c>
       <c r="F23">
-        <v>0.9582711032064177</v>
+        <v>0.9582711032064174</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025036873644896</v>
       </c>
       <c r="J23">
-        <v>0.9763408740461865</v>
+        <v>0.9763408740461862</v>
       </c>
       <c r="K23">
-        <v>0.9911987001119864</v>
+        <v>0.9911987001119861</v>
       </c>
       <c r="L23">
         <v>0.9726836397210159</v>
       </c>
       <c r="M23">
-        <v>0.974383938681273</v>
+        <v>0.9743839386812726</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597148361516148</v>
+        <v>0.9597148361516156</v>
       </c>
       <c r="D24">
-        <v>0.9873575450716657</v>
+        <v>0.9873575450716673</v>
       </c>
       <c r="E24">
-        <v>0.9716098448910587</v>
+        <v>0.9716098448910593</v>
       </c>
       <c r="F24">
-        <v>0.9740893006836432</v>
+        <v>0.9740893006836441</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030870645163275</v>
+        <v>1.030870645163277</v>
       </c>
       <c r="J24">
-        <v>0.9888569489854665</v>
+        <v>0.9888569489854676</v>
       </c>
       <c r="K24">
-        <v>1.001610374463037</v>
+        <v>1.001610374463038</v>
       </c>
       <c r="L24">
-        <v>0.9861545671057163</v>
+        <v>0.9861545671057168</v>
       </c>
       <c r="M24">
-        <v>0.98858724707554</v>
+        <v>0.9885872470755409</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768603582933871</v>
+        <v>0.9768603582933869</v>
       </c>
       <c r="D25">
-        <v>1.000093922149534</v>
+        <v>1.000093922149533</v>
       </c>
       <c r="E25">
-        <v>0.9877345947328233</v>
+        <v>0.9877345947328231</v>
       </c>
       <c r="F25">
-        <v>0.9910072613437393</v>
+        <v>0.9910072613437391</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.002192370889835</v>
       </c>
       <c r="K25">
-        <v>1.012690780272531</v>
+        <v>1.01269078027253</v>
       </c>
       <c r="L25">
         <v>1.00052634696695</v>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.989544083389289</v>
+        <v>0.9895440833892893</v>
       </c>
       <c r="D2">
         <v>1.009534268493551</v>
       </c>
       <c r="E2">
-        <v>0.9996930904627639</v>
+        <v>0.9996930904627641</v>
       </c>
       <c r="F2">
         <v>1.003555320645786</v>
@@ -439,7 +439,7 @@
         <v>1.041525920388466</v>
       </c>
       <c r="J2">
-        <v>1.012042090954567</v>
+        <v>1.012042090954568</v>
       </c>
       <c r="K2">
         <v>1.020862354825982</v>
@@ -448,7 +448,7 @@
         <v>1.011156702679125</v>
       </c>
       <c r="M2">
-        <v>1.014965345434215</v>
+        <v>1.014965345434216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9982672737833085</v>
+        <v>0.9982672737833075</v>
       </c>
       <c r="D3">
-        <v>1.016033293628405</v>
+        <v>1.016033293628404</v>
       </c>
       <c r="E3">
-        <v>1.007932327219613</v>
+        <v>1.007932327219612</v>
       </c>
       <c r="F3">
-        <v>1.012201949074622</v>
+        <v>1.01220194907462</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04458527662322</v>
       </c>
       <c r="J3">
-        <v>1.018805286375602</v>
+        <v>1.018805286375601</v>
       </c>
       <c r="K3">
         <v>1.026465054688088</v>
       </c>
       <c r="L3">
-        <v>1.018464708643567</v>
+        <v>1.018464708643566</v>
       </c>
       <c r="M3">
-        <v>1.022681048432643</v>
+        <v>1.022681048432642</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003711029089902</v>
+        <v>1.003711029089901</v>
       </c>
       <c r="D4">
-        <v>1.020090872089361</v>
+        <v>1.02009087208936</v>
       </c>
       <c r="E4">
-        <v>1.013080249052624</v>
+        <v>1.013080249052623</v>
       </c>
       <c r="F4">
         <v>1.01760508484603</v>
@@ -515,16 +515,16 @@
         <v>1.046478016913188</v>
       </c>
       <c r="J4">
-        <v>1.023020280393433</v>
+        <v>1.023020280393432</v>
       </c>
       <c r="K4">
-        <v>1.029952717394637</v>
+        <v>1.029952717394636</v>
       </c>
       <c r="L4">
-        <v>1.023023329229036</v>
+        <v>1.023023329229034</v>
       </c>
       <c r="M4">
-        <v>1.027495575714598</v>
+        <v>1.027495575714597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005954720108169</v>
+        <v>1.005954720108168</v>
       </c>
       <c r="D5">
-        <v>1.02176352112477</v>
+        <v>1.021763521124768</v>
       </c>
       <c r="E5">
-        <v>1.015203404726579</v>
+        <v>1.015203404726578</v>
       </c>
       <c r="F5">
-        <v>1.019833676401084</v>
+        <v>1.019833676401083</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.04725409438929</v>
       </c>
       <c r="J5">
-        <v>1.024756101979368</v>
+        <v>1.024756101979367</v>
       </c>
       <c r="K5">
-        <v>1.031387989780598</v>
+        <v>1.031387989780596</v>
       </c>
       <c r="L5">
-        <v>1.024901648310488</v>
+        <v>1.024901648310487</v>
       </c>
       <c r="M5">
         <v>1.029479726724807</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006328901587538</v>
+        <v>1.006328901587535</v>
       </c>
       <c r="D6">
-        <v>1.022042482008092</v>
+        <v>1.02204248200809</v>
       </c>
       <c r="E6">
-        <v>1.015557564128048</v>
+        <v>1.015557564128045</v>
       </c>
       <c r="F6">
-        <v>1.020205434283785</v>
+        <v>1.020205434283783</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047383281766415</v>
+        <v>1.047383281766414</v>
       </c>
       <c r="J6">
-        <v>1.025045499859657</v>
+        <v>1.025045499859654</v>
       </c>
       <c r="K6">
-        <v>1.031627218719642</v>
+        <v>1.03162721871964</v>
       </c>
       <c r="L6">
-        <v>1.025214861601023</v>
+        <v>1.025214861601019</v>
       </c>
       <c r="M6">
-        <v>1.029810610775082</v>
+        <v>1.02981061077508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003741181707968</v>
+        <v>1.003741181707964</v>
       </c>
       <c r="D7">
-        <v>1.020113349637341</v>
+        <v>1.020113349637337</v>
       </c>
       <c r="E7">
-        <v>1.013108776397058</v>
+        <v>1.013108776397053</v>
       </c>
       <c r="F7">
-        <v>1.017635028131638</v>
+        <v>1.017635028131633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046488462579606</v>
+        <v>1.046488462579604</v>
       </c>
       <c r="J7">
-        <v>1.023043613576528</v>
+        <v>1.023043613576523</v>
       </c>
       <c r="K7">
-        <v>1.029972014640036</v>
+        <v>1.029972014640032</v>
       </c>
       <c r="L7">
-        <v>1.023048573974856</v>
+        <v>1.023048573974851</v>
       </c>
       <c r="M7">
-        <v>1.027522241298548</v>
+        <v>1.027522241298543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925357200610335</v>
+        <v>0.9925357200610352</v>
       </c>
       <c r="D8">
-        <v>1.011762635631009</v>
+        <v>1.011762635631011</v>
       </c>
       <c r="E8">
-        <v>1.002517387171199</v>
+        <v>1.002517387171201</v>
       </c>
       <c r="F8">
-        <v>1.006519133713639</v>
+        <v>1.006519133713641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042578571798639</v>
+        <v>1.04257857179864</v>
       </c>
       <c r="J8">
-        <v>1.014362683340695</v>
+        <v>1.014362683340698</v>
       </c>
       <c r="K8">
-        <v>1.022785597420207</v>
+        <v>1.022785597420208</v>
       </c>
       <c r="L8">
-        <v>1.013663366485566</v>
+        <v>1.013663366485568</v>
       </c>
       <c r="M8">
-        <v>1.017611517401028</v>
+        <v>1.01761151740103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710890996988774</v>
+        <v>0.9710890996988776</v>
       </c>
       <c r="D9">
-        <v>0.9958032024828467</v>
+        <v>0.9958032024828466</v>
       </c>
       <c r="E9">
-        <v>0.9823017402284792</v>
+        <v>0.9823017402284793</v>
       </c>
       <c r="F9">
-        <v>0.9853070129281305</v>
+        <v>0.9853070129281308</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1.034963846725478</v>
       </c>
       <c r="J9">
-        <v>0.9977057728507436</v>
+        <v>0.9977057728507437</v>
       </c>
       <c r="K9">
         <v>1.008964738768556</v>
@@ -714,7 +714,7 @@
         <v>0.9956886377521535</v>
       </c>
       <c r="M9">
-        <v>0.9986430583497995</v>
+        <v>0.9986430583497998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.955379165270143</v>
+        <v>0.9553791652701409</v>
       </c>
       <c r="D10">
-        <v>0.9841424059898559</v>
+        <v>0.9841424059898546</v>
       </c>
       <c r="E10">
-        <v>0.9675396910666785</v>
+        <v>0.9675396910666764</v>
       </c>
       <c r="F10">
-        <v>0.9698190324381367</v>
+        <v>0.9698190324381347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029302382462604</v>
+        <v>1.029302382462603</v>
       </c>
       <c r="J10">
-        <v>0.9854822438529232</v>
+        <v>0.9854822438529213</v>
       </c>
       <c r="K10">
-        <v>0.9988040010020456</v>
+        <v>0.9988040010020441</v>
       </c>
       <c r="L10">
-        <v>0.9825208478788482</v>
+        <v>0.9825208478788461</v>
       </c>
       <c r="M10">
-        <v>0.9847554673124347</v>
+        <v>0.9847554673124327</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9481670102433662</v>
+        <v>0.9481670102433666</v>
       </c>
       <c r="D11">
-        <v>0.9787999050419707</v>
+        <v>0.9787999050419709</v>
       </c>
       <c r="E11">
-        <v>0.9607758718592093</v>
+        <v>0.9607758718592092</v>
       </c>
       <c r="F11">
-        <v>0.962722610540371</v>
+        <v>0.9627226105403708</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026685157588749</v>
       </c>
       <c r="J11">
-        <v>0.9798672147059645</v>
+        <v>0.9798672147059646</v>
       </c>
       <c r="K11">
-        <v>0.9941330131315262</v>
+        <v>0.9941330131315266</v>
       </c>
       <c r="L11">
-        <v>0.976477448841132</v>
+        <v>0.9764774488411319</v>
       </c>
       <c r="M11">
-        <v>0.9783835115656686</v>
+        <v>0.9783835115656684</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454187754542002</v>
+        <v>0.9454187754541982</v>
       </c>
       <c r="D12">
-        <v>0.9767661034366566</v>
+        <v>0.976766103436655</v>
       </c>
       <c r="E12">
-        <v>0.9582006806351745</v>
+        <v>0.9582006806351725</v>
       </c>
       <c r="F12">
-        <v>0.9600207486597307</v>
+        <v>0.9600207486597289</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02568529654011</v>
       </c>
       <c r="J12">
-        <v>0.9777272477692212</v>
+        <v>0.9777272477692194</v>
       </c>
       <c r="K12">
-        <v>0.9923523884635501</v>
+        <v>0.9923523884635487</v>
       </c>
       <c r="L12">
-        <v>0.97417503038135</v>
+        <v>0.9741750303813481</v>
       </c>
       <c r="M12">
-        <v>0.9759561749467599</v>
+        <v>0.9759561749467581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460115584563412</v>
+        <v>0.9460115584563431</v>
       </c>
       <c r="D13">
-        <v>0.9772046898081981</v>
+        <v>0.9772046898081994</v>
       </c>
       <c r="E13">
-        <v>0.9587560356037589</v>
+        <v>0.9587560356037608</v>
       </c>
       <c r="F13">
-        <v>0.9606034233556277</v>
+        <v>0.9606034233556294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025901074446023</v>
+        <v>1.025901074446024</v>
       </c>
       <c r="J13">
-        <v>0.9781888412705164</v>
+        <v>0.9781888412705183</v>
       </c>
       <c r="K13">
-        <v>0.9927364899791787</v>
+        <v>0.9927364899791801</v>
       </c>
       <c r="L13">
-        <v>0.9746716285787662</v>
+        <v>0.9746716285787682</v>
       </c>
       <c r="M13">
-        <v>0.976479704906424</v>
+        <v>0.9764797049064258</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9479413044421108</v>
       </c>
       <c r="D14">
-        <v>0.9786328312829777</v>
+        <v>0.9786328312829778</v>
       </c>
       <c r="E14">
-        <v>0.9605643317395278</v>
+        <v>0.9605643317395274</v>
       </c>
       <c r="F14">
-        <v>0.9625006660471164</v>
+        <v>0.9625006660471161</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026603091981128</v>
       </c>
       <c r="J14">
-        <v>0.9796914698776247</v>
+        <v>0.9796914698776246</v>
       </c>
       <c r="K14">
         <v>0.9939867877725832</v>
       </c>
       <c r="L14">
-        <v>0.9762883463847516</v>
+        <v>0.976288346384751</v>
       </c>
       <c r="M14">
-        <v>0.9781841442378112</v>
+        <v>0.9781841442378109</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491208424570517</v>
+        <v>0.9491208424570515</v>
       </c>
       <c r="D15">
-        <v>0.9795060413910078</v>
+        <v>0.9795060413910074</v>
       </c>
       <c r="E15">
-        <v>0.9616699306039239</v>
+        <v>0.9616699306039233</v>
       </c>
       <c r="F15">
-        <v>0.9636606407780564</v>
+        <v>0.9636606407780554</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.027031864347938</v>
       </c>
       <c r="J15">
-        <v>0.9806098999169158</v>
+        <v>0.9806098999169154</v>
       </c>
       <c r="K15">
-        <v>0.9947509336448007</v>
+        <v>0.9947509336448003</v>
       </c>
       <c r="L15">
-        <v>0.9772766150984027</v>
+        <v>0.9772766150984022</v>
       </c>
       <c r="M15">
-        <v>0.9792260684844695</v>
+        <v>0.9792260684844687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.955848549131512</v>
+        <v>0.9558485491315084</v>
       </c>
       <c r="D16">
-        <v>0.9844903597041397</v>
+        <v>0.9844903597041368</v>
       </c>
       <c r="E16">
-        <v>0.9679801850338505</v>
+        <v>0.9679801850338469</v>
       </c>
       <c r="F16">
-        <v>0.9702811841670876</v>
+        <v>0.9702811841670845</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029472358324651</v>
+        <v>1.029472358324649</v>
       </c>
       <c r="J16">
-        <v>0.9858476276536211</v>
+        <v>0.9858476276536181</v>
       </c>
       <c r="K16">
-        <v>0.9991078879816973</v>
+        <v>0.9991078879816945</v>
       </c>
       <c r="L16">
-        <v>0.9829142172984364</v>
+        <v>0.982914217298433</v>
       </c>
       <c r="M16">
-        <v>0.9851702585576546</v>
+        <v>0.9851702585576516</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599539197974483</v>
+        <v>0.9599539197974509</v>
       </c>
       <c r="D17">
-        <v>0.9875349099428017</v>
+        <v>0.9875349099428038</v>
       </c>
       <c r="E17">
-        <v>0.971834374155594</v>
+        <v>0.9718343741555968</v>
       </c>
       <c r="F17">
-        <v>0.9743248693063261</v>
+        <v>0.9743248693063287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030957004449817</v>
+        <v>1.030957004449818</v>
       </c>
       <c r="J17">
-        <v>0.9890430190403192</v>
+        <v>0.9890430190403219</v>
       </c>
       <c r="K17">
-        <v>1.001765085259711</v>
+        <v>1.001765085259713</v>
       </c>
       <c r="L17">
-        <v>0.9863549539692262</v>
+        <v>0.9863549539692289</v>
       </c>
       <c r="M17">
-        <v>0.9887985681814093</v>
+        <v>0.9887985681814119</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623095800494944</v>
+        <v>0.9623095800494929</v>
       </c>
       <c r="D18">
-        <v>0.9892828479211005</v>
+        <v>0.9892828479210993</v>
       </c>
       <c r="E18">
-        <v>0.9740471178873201</v>
+        <v>0.9740471178873185</v>
       </c>
       <c r="F18">
-        <v>0.9766464093134769</v>
+        <v>0.9766464093134755</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031807191687129</v>
       </c>
       <c r="J18">
-        <v>0.9908762014764778</v>
+        <v>0.990876201476476</v>
       </c>
       <c r="K18">
-        <v>1.003289173681817</v>
+        <v>1.003289173681816</v>
       </c>
       <c r="L18">
-        <v>0.9883293917563105</v>
+        <v>0.9883293917563091</v>
       </c>
       <c r="M18">
-        <v>0.9908808116572181</v>
+        <v>0.9908808116572164</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631064096573561</v>
+        <v>0.9631064096573538</v>
       </c>
       <c r="D19">
-        <v>0.9898742639116264</v>
+        <v>0.9898742639116249</v>
       </c>
       <c r="E19">
-        <v>0.9747958038293121</v>
+        <v>0.9747958038293102</v>
       </c>
       <c r="F19">
-        <v>0.9774319084373099</v>
+        <v>0.977431908437308</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032094484000607</v>
       </c>
       <c r="J19">
-        <v>0.9914962355100514</v>
+        <v>0.9914962355100496</v>
       </c>
       <c r="K19">
-        <v>1.003804604384247</v>
+        <v>1.003804604384246</v>
       </c>
       <c r="L19">
-        <v>0.9889972875516854</v>
+        <v>0.9889972875516835</v>
       </c>
       <c r="M19">
-        <v>0.9915852040156007</v>
+        <v>0.9915852040155988</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595175311702913</v>
+        <v>0.959517531170294</v>
       </c>
       <c r="D20">
-        <v>0.9872111793150996</v>
+        <v>0.9872111793151016</v>
       </c>
       <c r="E20">
-        <v>0.9714245578372199</v>
+        <v>0.9714245578372229</v>
       </c>
       <c r="F20">
-        <v>0.9738949037085846</v>
+        <v>0.9738949037085872</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030799367037478</v>
       </c>
       <c r="J20">
-        <v>0.9887033918267815</v>
+        <v>0.9887033918267839</v>
       </c>
       <c r="K20">
-        <v>1.001482695101718</v>
+        <v>1.001482695101721</v>
       </c>
       <c r="L20">
-        <v>0.9859891976323806</v>
+        <v>0.9859891976323831</v>
       </c>
       <c r="M20">
-        <v>0.988412855066038</v>
+        <v>0.9884128550660406</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,7 +1146,7 @@
         <v>0.94737502548925</v>
       </c>
       <c r="D21">
-        <v>0.9782136890477626</v>
+        <v>0.9782136890477624</v>
       </c>
       <c r="E21">
         <v>0.9600336295931476</v>
@@ -1158,19 +1158,19 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026397155195791</v>
+        <v>1.02639715519579</v>
       </c>
       <c r="J21">
         <v>0.9792505347146757</v>
       </c>
       <c r="K21">
-        <v>0.9936199086751554</v>
+        <v>0.9936199086751552</v>
       </c>
       <c r="L21">
-        <v>0.975813910518236</v>
+        <v>0.9758139105182361</v>
       </c>
       <c r="M21">
-        <v>0.97768395906368</v>
+        <v>0.9776839590636802</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393345209075845</v>
+        <v>0.9393345209075863</v>
       </c>
       <c r="D22">
-        <v>0.9722676674779748</v>
+        <v>0.9722676674779762</v>
       </c>
       <c r="E22">
-        <v>0.9525038803383153</v>
+        <v>0.9525038803383177</v>
       </c>
       <c r="F22">
-        <v>0.9540436068065525</v>
+        <v>0.9540436068065546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023467222320377</v>
+        <v>1.023467222320379</v>
       </c>
       <c r="J22">
-        <v>0.9729892563107797</v>
+        <v>0.9729892563107815</v>
       </c>
       <c r="K22">
-        <v>0.9884092797254115</v>
+        <v>0.9884092797254129</v>
       </c>
       <c r="L22">
-        <v>0.9690788520033343</v>
+        <v>0.9690788520033365</v>
       </c>
       <c r="M22">
-        <v>0.970583957406175</v>
+        <v>0.9705839574061771</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436384210621008</v>
+        <v>0.9436384210621013</v>
       </c>
       <c r="D23">
-        <v>0.9754491844439696</v>
+        <v>0.9754491844439699</v>
       </c>
       <c r="E23">
-        <v>0.9565330791222706</v>
+        <v>0.9565330791222705</v>
       </c>
       <c r="F23">
-        <v>0.9582711032064174</v>
+        <v>0.9582711032064177</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025036873644896</v>
       </c>
       <c r="J23">
-        <v>0.9763408740461862</v>
+        <v>0.9763408740461865</v>
       </c>
       <c r="K23">
-        <v>0.9911987001119861</v>
+        <v>0.9911987001119864</v>
       </c>
       <c r="L23">
         <v>0.9726836397210159</v>
       </c>
       <c r="M23">
-        <v>0.9743839386812726</v>
+        <v>0.974383938681273</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597148361516156</v>
+        <v>0.9597148361516148</v>
       </c>
       <c r="D24">
-        <v>0.9873575450716673</v>
+        <v>0.9873575450716657</v>
       </c>
       <c r="E24">
-        <v>0.9716098448910593</v>
+        <v>0.9716098448910587</v>
       </c>
       <c r="F24">
-        <v>0.9740893006836441</v>
+        <v>0.9740893006836432</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030870645163277</v>
+        <v>1.030870645163275</v>
       </c>
       <c r="J24">
-        <v>0.9888569489854676</v>
+        <v>0.9888569489854665</v>
       </c>
       <c r="K24">
-        <v>1.001610374463038</v>
+        <v>1.001610374463037</v>
       </c>
       <c r="L24">
-        <v>0.9861545671057168</v>
+        <v>0.9861545671057163</v>
       </c>
       <c r="M24">
-        <v>0.9885872470755409</v>
+        <v>0.98858724707554</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768603582933869</v>
+        <v>0.9768603582933871</v>
       </c>
       <c r="D25">
-        <v>1.000093922149533</v>
+        <v>1.000093922149534</v>
       </c>
       <c r="E25">
-        <v>0.9877345947328231</v>
+        <v>0.9877345947328233</v>
       </c>
       <c r="F25">
-        <v>0.9910072613437391</v>
+        <v>0.9910072613437393</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.002192370889835</v>
       </c>
       <c r="K25">
-        <v>1.01269078027253</v>
+        <v>1.012690780272531</v>
       </c>
       <c r="L25">
         <v>1.00052634696695</v>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9895440833892893</v>
+        <v>0.9895680955947528</v>
       </c>
       <c r="D2">
-        <v>1.009534268493551</v>
+        <v>1.009554101521743</v>
       </c>
       <c r="E2">
-        <v>0.9996930904627641</v>
+        <v>0.9997167385415173</v>
       </c>
       <c r="F2">
-        <v>1.003555320645786</v>
+        <v>1.003577055652346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041525920388466</v>
+        <v>1.041536629354849</v>
       </c>
       <c r="J2">
-        <v>1.012042090954568</v>
+        <v>1.012065363881542</v>
       </c>
       <c r="K2">
-        <v>1.020862354825982</v>
+        <v>1.020881918085198</v>
       </c>
       <c r="L2">
-        <v>1.011156702679125</v>
+        <v>1.011180021057082</v>
       </c>
       <c r="M2">
-        <v>1.014965345434216</v>
+        <v>1.014986780344633</v>
+      </c>
+      <c r="N2">
+        <v>1.008426525779902</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9982672737833075</v>
+        <v>0.9982839722957568</v>
       </c>
       <c r="D3">
-        <v>1.016033293628404</v>
+        <v>1.016047375885103</v>
       </c>
       <c r="E3">
-        <v>1.007932327219612</v>
+        <v>1.007948796137901</v>
       </c>
       <c r="F3">
-        <v>1.01220194907462</v>
+        <v>1.012217116203566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04458527662322</v>
+        <v>1.044592880696451</v>
       </c>
       <c r="J3">
-        <v>1.018805286375601</v>
+        <v>1.018821527524497</v>
       </c>
       <c r="K3">
-        <v>1.026465054688088</v>
+        <v>1.026478963770338</v>
       </c>
       <c r="L3">
-        <v>1.018464708643566</v>
+        <v>1.018480970959287</v>
       </c>
       <c r="M3">
-        <v>1.022681048432642</v>
+        <v>1.022696027283756</v>
+      </c>
+      <c r="N3">
+        <v>1.013254042470596</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003711029089901</v>
+        <v>1.003723278149792</v>
       </c>
       <c r="D4">
-        <v>1.02009087208936</v>
+        <v>1.020101448228677</v>
       </c>
       <c r="E4">
-        <v>1.013080249052623</v>
+        <v>1.013092342267452</v>
       </c>
       <c r="F4">
-        <v>1.01760508484603</v>
+        <v>1.01761626247336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046478016913188</v>
+        <v>1.04648372530964</v>
       </c>
       <c r="J4">
-        <v>1.023020280393432</v>
+        <v>1.023032219247793</v>
       </c>
       <c r="K4">
-        <v>1.029952717394636</v>
+        <v>1.029963172025527</v>
       </c>
       <c r="L4">
-        <v>1.023023329229034</v>
+        <v>1.023035281117662</v>
       </c>
       <c r="M4">
-        <v>1.027495575714597</v>
+        <v>1.027506624146896</v>
+      </c>
+      <c r="N4">
+        <v>1.016258167830997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005954720108168</v>
+        <v>1.005965159412378</v>
       </c>
       <c r="D5">
-        <v>1.021763521124768</v>
+        <v>1.021772669708369</v>
       </c>
       <c r="E5">
-        <v>1.015203404726578</v>
+        <v>1.015213716477799</v>
       </c>
       <c r="F5">
-        <v>1.019833676401083</v>
+        <v>1.0198432327457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04725409438929</v>
+        <v>1.047259030307857</v>
       </c>
       <c r="J5">
-        <v>1.024756101979367</v>
+        <v>1.024766285663006</v>
       </c>
       <c r="K5">
-        <v>1.031387989780596</v>
+        <v>1.031397036293493</v>
       </c>
       <c r="L5">
-        <v>1.024901648310487</v>
+        <v>1.024911843173747</v>
       </c>
       <c r="M5">
-        <v>1.029479726724807</v>
+        <v>1.029489175952013</v>
+      </c>
+      <c r="N5">
+        <v>1.017494214204917</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006328901587535</v>
+        <v>1.006339040406827</v>
       </c>
       <c r="D6">
-        <v>1.02204248200809</v>
+        <v>1.022051393486451</v>
       </c>
       <c r="E6">
-        <v>1.015557564128045</v>
+        <v>1.015567579997902</v>
       </c>
       <c r="F6">
-        <v>1.020205434283783</v>
+        <v>1.020214721516166</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047383281766414</v>
+        <v>1.047388089345985</v>
       </c>
       <c r="J6">
-        <v>1.025045499859654</v>
+        <v>1.025055391826739</v>
       </c>
       <c r="K6">
-        <v>1.03162721871964</v>
+        <v>1.031636031265335</v>
       </c>
       <c r="L6">
-        <v>1.025214861601019</v>
+        <v>1.025224764521509</v>
       </c>
       <c r="M6">
-        <v>1.02981061077508</v>
+        <v>1.029819794445946</v>
+      </c>
+      <c r="N6">
+        <v>1.017700222561843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003741181707964</v>
+        <v>1.003753406355389</v>
       </c>
       <c r="D7">
-        <v>1.020113349637337</v>
+        <v>1.02012390652537</v>
       </c>
       <c r="E7">
-        <v>1.013108776397053</v>
+        <v>1.01312084558755</v>
       </c>
       <c r="F7">
-        <v>1.017635028131633</v>
+        <v>1.017646183883455</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046488462579604</v>
+        <v>1.046494160561312</v>
       </c>
       <c r="J7">
-        <v>1.023043613576523</v>
+        <v>1.023055528775001</v>
       </c>
       <c r="K7">
-        <v>1.029972014640032</v>
+        <v>1.029982450287959</v>
       </c>
       <c r="L7">
-        <v>1.023048573974851</v>
+        <v>1.023060502176967</v>
       </c>
       <c r="M7">
-        <v>1.027522241298543</v>
+        <v>1.027533268160684</v>
+      </c>
+      <c r="N7">
+        <v>1.016274787419033</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925357200610352</v>
+        <v>0.9925571974541487</v>
       </c>
       <c r="D8">
-        <v>1.011762635631011</v>
+        <v>1.01178047735873</v>
       </c>
       <c r="E8">
-        <v>1.002517387171201</v>
+        <v>1.002538548970154</v>
       </c>
       <c r="F8">
-        <v>1.006519133713641</v>
+        <v>1.006538590992107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04257857179864</v>
+        <v>1.042588206233362</v>
       </c>
       <c r="J8">
-        <v>1.014362683340698</v>
+        <v>1.014383524794082</v>
       </c>
       <c r="K8">
-        <v>1.022785597420208</v>
+        <v>1.022803204470537</v>
       </c>
       <c r="L8">
-        <v>1.013663366485568</v>
+        <v>1.013684243448842</v>
       </c>
       <c r="M8">
-        <v>1.01761151740103</v>
+        <v>1.017630715394211</v>
+      </c>
+      <c r="N8">
+        <v>1.010083880728781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710890996988776</v>
+        <v>0.971129426635715</v>
       </c>
       <c r="D9">
-        <v>0.9958032024828466</v>
+        <v>0.9958358007995379</v>
       </c>
       <c r="E9">
-        <v>0.9823017402284793</v>
+        <v>0.9823413406917834</v>
       </c>
       <c r="F9">
-        <v>0.9853070129281308</v>
+        <v>0.9853434413880301</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034963846725478</v>
+        <v>1.034981430898328</v>
       </c>
       <c r="J9">
-        <v>0.9977057728507437</v>
+        <v>0.9977445534318745</v>
       </c>
       <c r="K9">
-        <v>1.008964738768556</v>
+        <v>1.008996802475341</v>
       </c>
       <c r="L9">
-        <v>0.9956886377521535</v>
+        <v>0.9957275655259537</v>
       </c>
       <c r="M9">
-        <v>0.9986430583497998</v>
+        <v>0.9986788728594627</v>
+      </c>
+      <c r="N9">
+        <v>0.998169404482356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553791652701409</v>
+        <v>0.9554344336682801</v>
       </c>
       <c r="D10">
-        <v>0.9841424059898546</v>
+        <v>0.9841866092942608</v>
       </c>
       <c r="E10">
-        <v>0.9675396910666764</v>
+        <v>0.967593822925402</v>
       </c>
       <c r="F10">
-        <v>0.9698190324381347</v>
+        <v>0.9698689634806974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029302382462603</v>
+        <v>1.029326200211919</v>
       </c>
       <c r="J10">
-        <v>0.9854822438529213</v>
+        <v>0.9855350150546085</v>
       </c>
       <c r="K10">
-        <v>0.9988040010020441</v>
+        <v>0.9988473722980916</v>
       </c>
       <c r="L10">
-        <v>0.9825208478788461</v>
+        <v>0.9825739144336282</v>
       </c>
       <c r="M10">
-        <v>0.9847554673124327</v>
+        <v>0.9848044217672527</v>
+      </c>
+      <c r="N10">
+        <v>0.9894046162312845</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9481670102433666</v>
+        <v>0.9482295147288412</v>
       </c>
       <c r="D11">
-        <v>0.9787999050419709</v>
+        <v>0.9788496968842667</v>
       </c>
       <c r="E11">
-        <v>0.9607758718592092</v>
+        <v>0.9608370138253506</v>
       </c>
       <c r="F11">
-        <v>0.9627226105403708</v>
+        <v>0.9627790948083339</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026685157588749</v>
+        <v>1.026711972453559</v>
       </c>
       <c r="J11">
-        <v>0.9798672147059646</v>
+        <v>0.979926690843559</v>
       </c>
       <c r="K11">
-        <v>0.9941330131315266</v>
+        <v>0.9941818117813616</v>
       </c>
       <c r="L11">
-        <v>0.9764774488411319</v>
+        <v>0.9765373099667628</v>
       </c>
       <c r="M11">
-        <v>0.9783835115656684</v>
+        <v>0.9784388188732328</v>
+      </c>
+      <c r="N11">
+        <v>0.9853740601690022</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454187754541982</v>
+        <v>0.9454841057949523</v>
       </c>
       <c r="D12">
-        <v>0.976766103436655</v>
+        <v>0.9768180719411306</v>
       </c>
       <c r="E12">
-        <v>0.9582006806351725</v>
+        <v>0.9582645553344301</v>
       </c>
       <c r="F12">
-        <v>0.9600207486597289</v>
+        <v>0.9600797943885729</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02568529654011</v>
+        <v>1.025713277993335</v>
       </c>
       <c r="J12">
-        <v>0.9777272477692194</v>
+        <v>0.9777893301058755</v>
       </c>
       <c r="K12">
-        <v>0.9923523884635487</v>
+        <v>0.9924032979808205</v>
       </c>
       <c r="L12">
-        <v>0.9741750303813481</v>
+        <v>0.974237535755322</v>
       </c>
       <c r="M12">
-        <v>0.9759561749467581</v>
+        <v>0.9760139612150853</v>
+      </c>
+      <c r="N12">
+        <v>0.9838373830262125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460115584563431</v>
+        <v>0.9460762759614477</v>
       </c>
       <c r="D13">
-        <v>0.9772046898081994</v>
+        <v>0.9772561865441383</v>
       </c>
       <c r="E13">
-        <v>0.9587560356037608</v>
+        <v>0.9588193178949022</v>
       </c>
       <c r="F13">
-        <v>0.9606034233556294</v>
+        <v>0.9606619134821178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025901074446024</v>
+        <v>1.025928803087778</v>
       </c>
       <c r="J13">
-        <v>0.9781888412705183</v>
+        <v>0.9782503589854487</v>
       </c>
       <c r="K13">
-        <v>0.9927364899791801</v>
+        <v>0.9927869421291472</v>
       </c>
       <c r="L13">
-        <v>0.9746716285787682</v>
+        <v>0.9747335609364091</v>
       </c>
       <c r="M13">
-        <v>0.9764797049064258</v>
+        <v>0.9765369536641918</v>
+      </c>
+      <c r="N13">
+        <v>0.9841688707447962</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9479413044421108</v>
+        <v>0.9480040395437354</v>
       </c>
       <c r="D14">
-        <v>0.9786328312829778</v>
+        <v>0.9786828008838554</v>
       </c>
       <c r="E14">
-        <v>0.9605643317395274</v>
+        <v>0.9606256968247401</v>
       </c>
       <c r="F14">
-        <v>0.9625006660471161</v>
+        <v>0.9625573593074321</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026603091981128</v>
+        <v>1.026630002131418</v>
       </c>
       <c r="J14">
-        <v>0.9796914698776246</v>
+        <v>0.9797511589608338</v>
       </c>
       <c r="K14">
-        <v>0.9939867877725832</v>
+        <v>0.9940357588703195</v>
       </c>
       <c r="L14">
-        <v>0.976288346384751</v>
+        <v>0.9763484234978725</v>
       </c>
       <c r="M14">
-        <v>0.9781841442378109</v>
+        <v>0.9782396538935383</v>
+      </c>
+      <c r="N14">
+        <v>0.9852478716802596</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491208424570515</v>
+        <v>0.9491823752132112</v>
       </c>
       <c r="D15">
-        <v>0.9795060413910074</v>
+        <v>0.979555083987132</v>
       </c>
       <c r="E15">
-        <v>0.9616699306039233</v>
+        <v>0.9617301322303765</v>
       </c>
       <c r="F15">
-        <v>0.9636606407780554</v>
+        <v>0.9637162445236673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027031864347938</v>
+        <v>1.02705827755751</v>
       </c>
       <c r="J15">
-        <v>0.9806098999169154</v>
+        <v>0.9806684782814808</v>
       </c>
       <c r="K15">
-        <v>0.9947509336448003</v>
+        <v>0.9947990053097475</v>
       </c>
       <c r="L15">
-        <v>0.9772766150984022</v>
+        <v>0.9773355657580454</v>
       </c>
       <c r="M15">
-        <v>0.9792260684844687</v>
+        <v>0.9792805230919807</v>
+      </c>
+      <c r="N15">
+        <v>0.9859073009701703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558485491315084</v>
+        <v>0.9559033552676904</v>
       </c>
       <c r="D16">
-        <v>0.9844903597041368</v>
+        <v>0.9845342052798929</v>
       </c>
       <c r="E16">
-        <v>0.9679801850338469</v>
+        <v>0.9680338684574998</v>
       </c>
       <c r="F16">
-        <v>0.9702811841670845</v>
+        <v>0.9703306968663258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029472358324649</v>
+        <v>1.029495984126718</v>
       </c>
       <c r="J16">
-        <v>0.9858476276536181</v>
+        <v>0.9858999689781223</v>
       </c>
       <c r="K16">
-        <v>0.9991078879816945</v>
+        <v>0.9991509114795077</v>
       </c>
       <c r="L16">
-        <v>0.982914217298433</v>
+        <v>0.9829668486375656</v>
       </c>
       <c r="M16">
-        <v>0.9851702585576516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.985218806930359</v>
+      </c>
+      <c r="N16">
+        <v>0.989666811332276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599539197974509</v>
+        <v>0.9600047261342571</v>
       </c>
       <c r="D17">
-        <v>0.9875349099428038</v>
+        <v>0.9875756566655409</v>
       </c>
       <c r="E17">
-        <v>0.9718343741555968</v>
+        <v>0.9718841743688816</v>
       </c>
       <c r="F17">
-        <v>0.9743248693063287</v>
+        <v>0.9743707637597183</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030957004449818</v>
+        <v>1.030978966972153</v>
       </c>
       <c r="J17">
-        <v>0.9890430190403219</v>
+        <v>0.9890916329376186</v>
       </c>
       <c r="K17">
-        <v>1.001765085259713</v>
+        <v>1.001805093935011</v>
       </c>
       <c r="L17">
-        <v>0.9863549539692289</v>
+        <v>0.9864038136697209</v>
       </c>
       <c r="M17">
-        <v>0.9887985681814119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9888436016567325</v>
+      </c>
+      <c r="N17">
+        <v>0.9919593084158356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623095800494929</v>
+        <v>0.9623581254977334</v>
       </c>
       <c r="D18">
-        <v>0.9892828479210993</v>
+        <v>0.9893218402296583</v>
       </c>
       <c r="E18">
-        <v>0.9740471178873185</v>
+        <v>0.9740947206988669</v>
       </c>
       <c r="F18">
-        <v>0.9766464093134755</v>
+        <v>0.9766902598001251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031807191687129</v>
+        <v>1.031828212117576</v>
       </c>
       <c r="J18">
-        <v>0.990876201476476</v>
+        <v>0.9909227021867421</v>
       </c>
       <c r="K18">
-        <v>1.003289173681816</v>
+        <v>1.003327473913197</v>
       </c>
       <c r="L18">
-        <v>0.9883293917563091</v>
+        <v>0.9883761148663253</v>
       </c>
       <c r="M18">
-        <v>0.9908808116572164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9909238573897911</v>
+      </c>
+      <c r="N18">
+        <v>0.99327409450694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631064096573538</v>
+        <v>0.9631541958289001</v>
       </c>
       <c r="D19">
-        <v>0.9898742639116249</v>
+        <v>0.9899126665867485</v>
       </c>
       <c r="E19">
-        <v>0.9747958038293102</v>
+        <v>0.9748426682945994</v>
       </c>
       <c r="F19">
-        <v>0.977431908437308</v>
+        <v>0.977475072703233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032094484000607</v>
+        <v>1.03211518773602</v>
       </c>
       <c r="J19">
-        <v>0.9914962355100496</v>
+        <v>0.9915420255266567</v>
       </c>
       <c r="K19">
-        <v>1.003804604384246</v>
+        <v>1.003842330168501</v>
       </c>
       <c r="L19">
-        <v>0.9889972875516835</v>
+        <v>0.9890432923682884</v>
       </c>
       <c r="M19">
-        <v>0.9915852040155988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9916275820508452</v>
+      </c>
+      <c r="N19">
+        <v>0.9937187206941974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.959517531170294</v>
+        <v>0.9595687590398029</v>
       </c>
       <c r="D20">
-        <v>0.9872111793151016</v>
+        <v>0.987252252919226</v>
       </c>
       <c r="E20">
-        <v>0.9714245578372229</v>
+        <v>0.9714747675536362</v>
       </c>
       <c r="F20">
-        <v>0.9738949037085872</v>
+        <v>0.9739411793514516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030799367037478</v>
+        <v>1.030821505055159</v>
       </c>
       <c r="J20">
-        <v>0.9887033918267839</v>
+        <v>0.9887523992171064</v>
       </c>
       <c r="K20">
-        <v>1.001482695101721</v>
+        <v>1.001523021964289</v>
       </c>
       <c r="L20">
-        <v>0.9859891976323831</v>
+        <v>0.9860384553168429</v>
       </c>
       <c r="M20">
-        <v>0.9884128550660406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9884582590721243</v>
+      </c>
+      <c r="N20">
+        <v>0.9917156888943963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.94737502548925</v>
+        <v>0.9474383403346557</v>
       </c>
       <c r="D21">
-        <v>0.9782136890477624</v>
+        <v>0.9782641054181613</v>
       </c>
       <c r="E21">
-        <v>0.9600336295931476</v>
+        <v>0.9600955554947967</v>
       </c>
       <c r="F21">
-        <v>0.9619438611151886</v>
+        <v>0.9620010797963748</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02639715519579</v>
+        <v>1.026424304819762</v>
       </c>
       <c r="J21">
-        <v>0.9792505347146757</v>
+        <v>0.9793107589189221</v>
       </c>
       <c r="K21">
-        <v>0.9936199086751552</v>
+        <v>0.9936693131455512</v>
       </c>
       <c r="L21">
-        <v>0.9758139105182361</v>
+        <v>0.9758745304491947</v>
       </c>
       <c r="M21">
-        <v>0.9776839590636802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9777399773677854</v>
+      </c>
+      <c r="N21">
+        <v>0.9849312619949371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9393345209075863</v>
+        <v>0.9394062501339729</v>
       </c>
       <c r="D22">
-        <v>0.9722676674779762</v>
+        <v>0.9723245526575696</v>
       </c>
       <c r="E22">
-        <v>0.9525038803383177</v>
+        <v>0.9525739329494475</v>
       </c>
       <c r="F22">
-        <v>0.9540436068065546</v>
+        <v>0.9541084571939886</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023467222320379</v>
+        <v>1.023497837436365</v>
       </c>
       <c r="J22">
-        <v>0.9729892563107815</v>
+        <v>0.9730572151897446</v>
       </c>
       <c r="K22">
-        <v>0.9884092797254129</v>
+        <v>0.9884649512719839</v>
       </c>
       <c r="L22">
-        <v>0.9690788520033365</v>
+        <v>0.969147326227036</v>
       </c>
       <c r="M22">
-        <v>0.9705839574061771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9706473528872035</v>
+      </c>
+      <c r="N22">
+        <v>0.9804341370620269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436384210621013</v>
+        <v>0.9437056031163321</v>
       </c>
       <c r="D23">
-        <v>0.9754491844439699</v>
+        <v>0.9755025774807556</v>
       </c>
       <c r="E23">
-        <v>0.9565330791222705</v>
+        <v>0.956598743030504</v>
       </c>
       <c r="F23">
-        <v>0.9582711032064177</v>
+        <v>0.958331828063819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025036873644896</v>
+        <v>1.025065618364108</v>
       </c>
       <c r="J23">
-        <v>0.9763408740461865</v>
+        <v>0.9764046604814197</v>
       </c>
       <c r="K23">
-        <v>0.9911987001119864</v>
+        <v>0.9912509902072206</v>
       </c>
       <c r="L23">
-        <v>0.9726836397210159</v>
+        <v>0.9727478750355467</v>
       </c>
       <c r="M23">
-        <v>0.974383938681273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9744433487434011</v>
+      </c>
+      <c r="N23">
+        <v>0.982841698020929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597148361516148</v>
+        <v>0.9597658733274497</v>
       </c>
       <c r="D24">
-        <v>0.9873575450716657</v>
+        <v>0.9873984708092931</v>
       </c>
       <c r="E24">
-        <v>0.9716098448910587</v>
+        <v>0.971659869363269</v>
       </c>
       <c r="F24">
-        <v>0.9740893006836432</v>
+        <v>0.9741354038794752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030870645163275</v>
+        <v>1.030892703796057</v>
       </c>
       <c r="J24">
-        <v>0.9888569489854665</v>
+        <v>0.9889057783862333</v>
       </c>
       <c r="K24">
-        <v>1.001610374463037</v>
+        <v>1.001650557396933</v>
       </c>
       <c r="L24">
-        <v>0.9861545671057163</v>
+        <v>0.9862036447640556</v>
       </c>
       <c r="M24">
-        <v>0.98858724707554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9886324834632301</v>
+      </c>
+      <c r="N24">
+        <v>0.9918258389498508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768603582933871</v>
+        <v>0.976895450638458</v>
       </c>
       <c r="D25">
-        <v>1.000093922149534</v>
+        <v>1.000122434843167</v>
       </c>
       <c r="E25">
-        <v>0.9877345947328233</v>
+        <v>0.9877690864336881</v>
       </c>
       <c r="F25">
-        <v>0.9910072613437393</v>
+        <v>0.9910389693456185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037027522814163</v>
+        <v>1.037042908827868</v>
       </c>
       <c r="J25">
-        <v>1.002192370889835</v>
+        <v>1.002226202450727</v>
       </c>
       <c r="K25">
-        <v>1.012690780272531</v>
+        <v>1.012718850465654</v>
       </c>
       <c r="L25">
-        <v>1.00052634696695</v>
+        <v>1.000560286066414</v>
       </c>
       <c r="M25">
-        <v>1.003746800743343</v>
+        <v>1.003778005029748</v>
+      </c>
+      <c r="N25">
+        <v>1.001382435227587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9895680955947528</v>
+        <v>1.047744430458572</v>
       </c>
       <c r="D2">
-        <v>1.009554101521743</v>
+        <v>1.063098586637543</v>
       </c>
       <c r="E2">
-        <v>0.9997167385415173</v>
+        <v>1.06504977212033</v>
       </c>
       <c r="F2">
-        <v>1.003577055652346</v>
+        <v>1.070967430367203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041536629354849</v>
+        <v>1.069706087238028</v>
       </c>
       <c r="J2">
-        <v>1.012065363881542</v>
+        <v>1.068585209275505</v>
       </c>
       <c r="K2">
-        <v>1.020881918085198</v>
+        <v>1.073743655572475</v>
       </c>
       <c r="L2">
-        <v>1.011180021057082</v>
+        <v>1.075671569434438</v>
       </c>
       <c r="M2">
-        <v>1.014986780344633</v>
+        <v>1.081519290187556</v>
       </c>
       <c r="N2">
-        <v>1.008426525779902</v>
+        <v>1.070102722841113</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9982839722957568</v>
+        <v>1.057361595267921</v>
       </c>
       <c r="D3">
-        <v>1.016047375885103</v>
+        <v>1.07099755102039</v>
       </c>
       <c r="E3">
-        <v>1.007948796137901</v>
+        <v>1.074165348749075</v>
       </c>
       <c r="F3">
-        <v>1.012217116203566</v>
+        <v>1.079951748086884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044592880696451</v>
+        <v>1.073563444506599</v>
       </c>
       <c r="J3">
-        <v>1.018821527524497</v>
+        <v>1.076401934067353</v>
       </c>
       <c r="K3">
-        <v>1.026478963770338</v>
+        <v>1.080795981413224</v>
       </c>
       <c r="L3">
-        <v>1.018480970959287</v>
+        <v>1.083929700066101</v>
       </c>
       <c r="M3">
-        <v>1.022696027283756</v>
+        <v>1.089654481009293</v>
       </c>
       <c r="N3">
-        <v>1.013254042470596</v>
+        <v>1.077930548278756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003723278149792</v>
+        <v>1.063349816033254</v>
       </c>
       <c r="D4">
-        <v>1.020101448228677</v>
+        <v>1.075918203707924</v>
       </c>
       <c r="E4">
-        <v>1.013092342267452</v>
+        <v>1.079846427901803</v>
       </c>
       <c r="F4">
-        <v>1.01761626247336</v>
+        <v>1.085552307761804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04648372530964</v>
+        <v>1.075949741240287</v>
       </c>
       <c r="J4">
-        <v>1.023032219247793</v>
+        <v>1.081261005937738</v>
       </c>
       <c r="K4">
-        <v>1.029963172025527</v>
+        <v>1.085179210373961</v>
       </c>
       <c r="L4">
-        <v>1.023035281117662</v>
+        <v>1.089068004073723</v>
       </c>
       <c r="M4">
-        <v>1.027506624146896</v>
+        <v>1.094717226976755</v>
       </c>
       <c r="N4">
-        <v>1.016258167830997</v>
+        <v>1.08279652058854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005965159412378</v>
+        <v>1.06581504330031</v>
       </c>
       <c r="D5">
-        <v>1.021772669708369</v>
+        <v>1.077944365165643</v>
       </c>
       <c r="E5">
-        <v>1.015213716477799</v>
+        <v>1.082186369841782</v>
       </c>
       <c r="F5">
-        <v>1.0198432327457</v>
+        <v>1.087859373730071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047259030307857</v>
+        <v>1.076928349605253</v>
       </c>
       <c r="J5">
-        <v>1.024766285663006</v>
+        <v>1.083259396363482</v>
       </c>
       <c r="K5">
-        <v>1.031397036293493</v>
+        <v>1.086981710342291</v>
       </c>
       <c r="L5">
-        <v>1.024911843173747</v>
+        <v>1.091182385673025</v>
       </c>
       <c r="M5">
-        <v>1.029489175952013</v>
+        <v>1.096800727832187</v>
       </c>
       <c r="N5">
-        <v>1.017494214204917</v>
+        <v>1.084797748957908</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006339040406827</v>
+        <v>1.066226010951727</v>
       </c>
       <c r="D6">
-        <v>1.022051393486451</v>
+        <v>1.078282160056832</v>
       </c>
       <c r="E6">
-        <v>1.015567579997902</v>
+        <v>1.082576517587661</v>
       </c>
       <c r="F6">
-        <v>1.020214721516166</v>
+        <v>1.088244056382111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047388089345985</v>
+        <v>1.077091265260774</v>
       </c>
       <c r="J6">
-        <v>1.025055391826739</v>
+        <v>1.08359242121122</v>
       </c>
       <c r="K6">
-        <v>1.031636031265335</v>
+        <v>1.087282078705829</v>
       </c>
       <c r="L6">
-        <v>1.025224764521509</v>
+        <v>1.091534807518229</v>
       </c>
       <c r="M6">
-        <v>1.029819794445946</v>
+        <v>1.097148014556785</v>
       </c>
       <c r="N6">
-        <v>1.017700222561843</v>
+        <v>1.085131246739127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003753406355389</v>
+        <v>1.063382956787073</v>
       </c>
       <c r="D7">
-        <v>1.02012390652537</v>
+        <v>1.075945440419041</v>
       </c>
       <c r="E7">
-        <v>1.01312084558755</v>
+        <v>1.079877879920839</v>
       </c>
       <c r="F7">
-        <v>1.017646183883455</v>
+        <v>1.085583316763252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046494160561312</v>
+        <v>1.075962912013088</v>
       </c>
       <c r="J7">
-        <v>1.023055528775001</v>
+        <v>1.081287878819774</v>
       </c>
       <c r="K7">
-        <v>1.029982450287959</v>
+        <v>1.085203449858075</v>
       </c>
       <c r="L7">
-        <v>1.023060502176967</v>
+        <v>1.089096432166035</v>
       </c>
       <c r="M7">
-        <v>1.027533268160684</v>
+        <v>1.094745239054973</v>
       </c>
       <c r="N7">
-        <v>1.016274787419033</v>
+        <v>1.082823431633151</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925571974541487</v>
+        <v>1.051045736792918</v>
       </c>
       <c r="D8">
-        <v>1.01178047735873</v>
+        <v>1.065809520036911</v>
       </c>
       <c r="E8">
-        <v>1.002538548970154</v>
+        <v>1.06817774364136</v>
       </c>
       <c r="F8">
-        <v>1.006538590992107</v>
+        <v>1.074050075690296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042588206233362</v>
+        <v>1.071033470356793</v>
       </c>
       <c r="J8">
-        <v>1.014383524794082</v>
+        <v>1.071270159259513</v>
       </c>
       <c r="K8">
-        <v>1.022803204470537</v>
+        <v>1.076166168209846</v>
       </c>
       <c r="L8">
-        <v>1.013684243448842</v>
+        <v>1.078507100617202</v>
       </c>
       <c r="M8">
-        <v>1.017630715394211</v>
+        <v>1.084312400636373</v>
       </c>
       <c r="N8">
-        <v>1.010083880728781</v>
+        <v>1.072791485762067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971129426635715</v>
+        <v>1.027302015435203</v>
       </c>
       <c r="D9">
-        <v>0.9958358007995379</v>
+        <v>1.046327710846698</v>
       </c>
       <c r="E9">
-        <v>0.9823413406917834</v>
+        <v>1.045707573164163</v>
       </c>
       <c r="F9">
-        <v>0.9853434413880301</v>
+        <v>1.051912107192918</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034981430898328</v>
+        <v>1.061420933048515</v>
       </c>
       <c r="J9">
-        <v>0.9977445534318745</v>
+        <v>1.051926184587711</v>
       </c>
       <c r="K9">
-        <v>1.008996802475341</v>
+        <v>1.058711351715909</v>
       </c>
       <c r="L9">
-        <v>0.9957275655259537</v>
+        <v>1.058100184192475</v>
       </c>
       <c r="M9">
-        <v>0.9986788728594627</v>
+        <v>1.0642155738801</v>
       </c>
       <c r="N9">
-        <v>0.998169404482356</v>
+        <v>1.053420040427446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9554344336682801</v>
+        <v>1.009782403601877</v>
       </c>
       <c r="D10">
-        <v>0.9841866092942608</v>
+        <v>1.031981050096631</v>
       </c>
       <c r="E10">
-        <v>0.967593822925402</v>
+        <v>1.029168061692014</v>
       </c>
       <c r="F10">
-        <v>0.9698689634806974</v>
+        <v>1.035626929313206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029326200211919</v>
+        <v>1.054246560946167</v>
       </c>
       <c r="J10">
-        <v>0.9855350150546085</v>
+        <v>1.037613204127351</v>
       </c>
       <c r="K10">
-        <v>0.9988473722980916</v>
+        <v>1.045795926457104</v>
       </c>
       <c r="L10">
-        <v>0.9825739144336282</v>
+        <v>1.043029918557309</v>
       </c>
       <c r="M10">
-        <v>0.9848044217672527</v>
+        <v>1.049381403445003</v>
       </c>
       <c r="N10">
-        <v>0.9894046162312845</v>
+        <v>1.039086733893109</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9482295147288412</v>
+        <v>1.001697734182244</v>
       </c>
       <c r="D11">
-        <v>0.9788496968842667</v>
+        <v>1.025370291613089</v>
       </c>
       <c r="E11">
-        <v>0.9608370138253506</v>
+        <v>1.021547455494161</v>
       </c>
       <c r="F11">
-        <v>0.9627790948083339</v>
+        <v>1.0281263348656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026711972453559</v>
+        <v>1.050917682237102</v>
       </c>
       <c r="J11">
-        <v>0.979926690843559</v>
+        <v>1.031000055585746</v>
       </c>
       <c r="K11">
-        <v>0.9941818117813616</v>
+        <v>1.03982911284535</v>
       </c>
       <c r="L11">
-        <v>0.9765373099667628</v>
+        <v>1.036074145758486</v>
       </c>
       <c r="M11">
-        <v>0.9784388188732328</v>
+        <v>1.042536632173166</v>
       </c>
       <c r="N11">
-        <v>0.9853740601690022</v>
+        <v>1.032464193922037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454841057949523</v>
+        <v>0.9986094528823065</v>
       </c>
       <c r="D12">
-        <v>0.9768180719411306</v>
+        <v>1.022846798039311</v>
       </c>
       <c r="E12">
-        <v>0.9582645553344301</v>
+        <v>1.018638436257377</v>
       </c>
       <c r="F12">
-        <v>0.9600797943885729</v>
+        <v>1.025263602748334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025713277993335</v>
+        <v>1.04964347844973</v>
       </c>
       <c r="J12">
-        <v>0.9777893301058755</v>
+        <v>1.0284727799745</v>
       </c>
       <c r="K12">
-        <v>0.9924032979808205</v>
+        <v>1.037548999749864</v>
       </c>
       <c r="L12">
-        <v>0.974237535755322</v>
+        <v>1.033417057759049</v>
       </c>
       <c r="M12">
-        <v>0.9760139612150853</v>
+        <v>1.039922286062861</v>
       </c>
       <c r="N12">
-        <v>0.9838373830262125</v>
+        <v>1.029933329289541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460762759614477</v>
+        <v>0.9992759482992085</v>
       </c>
       <c r="D13">
-        <v>0.9772561865441383</v>
+        <v>1.023391319143623</v>
       </c>
       <c r="E13">
-        <v>0.9588193178949022</v>
+        <v>1.019266150518048</v>
       </c>
       <c r="F13">
-        <v>0.9606619134821178</v>
+        <v>1.025881306778409</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025928803087778</v>
+        <v>1.04991858462594</v>
       </c>
       <c r="J13">
-        <v>0.9782503589854487</v>
+        <v>1.029018249674972</v>
       </c>
       <c r="K13">
-        <v>0.9927869421291472</v>
+        <v>1.038041115205118</v>
       </c>
       <c r="L13">
-        <v>0.9747335609364091</v>
+        <v>1.033990494019627</v>
       </c>
       <c r="M13">
-        <v>0.9765369536641918</v>
+        <v>1.040486482118566</v>
       </c>
       <c r="N13">
-        <v>0.9841688707447962</v>
+        <v>1.030479573619553</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9480040395437354</v>
+        <v>1.00144426300376</v>
       </c>
       <c r="D14">
-        <v>0.9786828008838554</v>
+        <v>1.025163137853637</v>
       </c>
       <c r="E14">
-        <v>0.9606256968247401</v>
+        <v>1.021308655562955</v>
       </c>
       <c r="F14">
-        <v>0.9625573593074321</v>
+        <v>1.0278913247006</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026630002131418</v>
+        <v>1.050813153437603</v>
       </c>
       <c r="J14">
-        <v>0.9797511589608338</v>
+        <v>1.030792650507618</v>
       </c>
       <c r="K14">
-        <v>0.9940357588703195</v>
+        <v>1.039641987916577</v>
       </c>
       <c r="L14">
-        <v>0.9763484234978725</v>
+        <v>1.035856064477171</v>
       </c>
       <c r="M14">
-        <v>0.9782396538935383</v>
+        <v>1.042322051863126</v>
       </c>
       <c r="N14">
-        <v>0.9852478716802596</v>
+        <v>1.032256494304909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491823752132112</v>
+        <v>1.002768587472012</v>
       </c>
       <c r="D15">
-        <v>0.979555083987132</v>
+        <v>1.026245538625349</v>
       </c>
       <c r="E15">
-        <v>0.9617301322303765</v>
+        <v>1.022556408504397</v>
       </c>
       <c r="F15">
-        <v>0.9637162445236673</v>
+        <v>1.029119295295681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02705827755751</v>
+        <v>1.051359186332946</v>
       </c>
       <c r="J15">
-        <v>0.9806684782814808</v>
+        <v>1.031876247104003</v>
       </c>
       <c r="K15">
-        <v>0.9947990053097475</v>
+        <v>1.040619636907602</v>
       </c>
       <c r="L15">
-        <v>0.9773355657580454</v>
+        <v>1.036995485073917</v>
       </c>
       <c r="M15">
-        <v>0.9792805230919807</v>
+        <v>1.043443194719554</v>
       </c>
       <c r="N15">
-        <v>0.9859073009701703</v>
+        <v>1.033341629732751</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9559033552676904</v>
+        <v>1.01030761321539</v>
       </c>
       <c r="D16">
-        <v>0.9845342052798929</v>
+        <v>1.032410732697014</v>
       </c>
       <c r="E16">
-        <v>0.9680338684574998</v>
+        <v>1.029663383603437</v>
       </c>
       <c r="F16">
-        <v>0.9703306968663258</v>
+        <v>1.036114512791883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029495984126718</v>
+        <v>1.054462454722465</v>
       </c>
       <c r="J16">
-        <v>0.9858999689781223</v>
+        <v>1.038042660022269</v>
       </c>
       <c r="K16">
-        <v>0.9991509114795077</v>
+        <v>1.046183427505647</v>
       </c>
       <c r="L16">
-        <v>0.9829668486375656</v>
+        <v>1.043481776082224</v>
       </c>
       <c r="M16">
-        <v>0.985218806930359</v>
+        <v>1.049826094563054</v>
       </c>
       <c r="N16">
-        <v>0.989666811332276</v>
+        <v>1.039516799664658</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9600047261342571</v>
+        <v>1.014896462860227</v>
       </c>
       <c r="D17">
-        <v>0.9875756566655409</v>
+        <v>1.036166060513158</v>
       </c>
       <c r="E17">
-        <v>0.9718841743688816</v>
+        <v>1.033992436714981</v>
       </c>
       <c r="F17">
-        <v>0.9743707637597183</v>
+        <v>1.040376253884233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030978966972153</v>
+        <v>1.056346742641753</v>
       </c>
       <c r="J17">
-        <v>0.9890916329376186</v>
+        <v>1.041793987411011</v>
       </c>
       <c r="K17">
-        <v>1.001805093935011</v>
+        <v>1.049568351477042</v>
       </c>
       <c r="L17">
-        <v>0.9864038136697209</v>
+        <v>1.047429597660764</v>
       </c>
       <c r="M17">
-        <v>0.9888436016567325</v>
+        <v>1.053711534312411</v>
       </c>
       <c r="N17">
-        <v>0.9919593084158356</v>
+        <v>1.043273454368575</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623581254977334</v>
+        <v>1.017525755462093</v>
       </c>
       <c r="D18">
-        <v>0.9893218402296583</v>
+        <v>1.038318645894992</v>
       </c>
       <c r="E18">
-        <v>0.9740947206988669</v>
+        <v>1.036473950313921</v>
       </c>
       <c r="F18">
-        <v>0.9766902598001251</v>
+        <v>1.042819441774076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031828212117576</v>
+        <v>1.057424695566206</v>
       </c>
       <c r="J18">
-        <v>0.9909227021867421</v>
+        <v>1.043942628436239</v>
       </c>
       <c r="K18">
-        <v>1.003327473913197</v>
+        <v>1.051507180123013</v>
       </c>
       <c r="L18">
-        <v>0.9883761148663253</v>
+        <v>1.049691456448617</v>
       </c>
       <c r="M18">
-        <v>0.9909238573897911</v>
+        <v>1.055937838155831</v>
       </c>
       <c r="N18">
-        <v>0.99327409450694</v>
+        <v>1.045425146710511</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631541958289001</v>
+        <v>1.018414534976931</v>
       </c>
       <c r="D19">
-        <v>0.9899126665867485</v>
+        <v>1.039046425130992</v>
       </c>
       <c r="E19">
-        <v>0.9748426682945994</v>
+        <v>1.037312953002129</v>
       </c>
       <c r="F19">
-        <v>0.977475072703233</v>
+        <v>1.04364552910805</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03211518773602</v>
+        <v>1.057788784787612</v>
       </c>
       <c r="J19">
-        <v>0.9915420255266567</v>
+        <v>1.044668798780329</v>
       </c>
       <c r="K19">
-        <v>1.003842330168501</v>
+        <v>1.052162447723977</v>
       </c>
       <c r="L19">
-        <v>0.9890432923682884</v>
+        <v>1.050456003846505</v>
       </c>
       <c r="M19">
-        <v>0.9916275820508452</v>
+        <v>1.056690397996692</v>
       </c>
       <c r="N19">
-        <v>0.9937187206941974</v>
+        <v>1.046152348299783</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595687590398029</v>
+        <v>1.014409084229261</v>
       </c>
       <c r="D20">
-        <v>0.987252252919226</v>
+        <v>1.035767116116076</v>
       </c>
       <c r="E20">
-        <v>0.9714747675536362</v>
+        <v>1.033532537218891</v>
       </c>
       <c r="F20">
-        <v>0.9739411793514516</v>
+        <v>1.039923478014949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030821505055159</v>
+        <v>1.056146789417184</v>
       </c>
       <c r="J20">
-        <v>0.9887523992171064</v>
+        <v>1.041395641104608</v>
       </c>
       <c r="K20">
-        <v>1.001523021964289</v>
+        <v>1.049208907008317</v>
       </c>
       <c r="L20">
-        <v>0.9860384553168429</v>
+        <v>1.047010315792108</v>
       </c>
       <c r="M20">
-        <v>0.9884582590721243</v>
+        <v>1.053298858164569</v>
       </c>
       <c r="N20">
-        <v>0.9917156888943963</v>
+        <v>1.042874542364726</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474383403346557</v>
+        <v>1.000808196273004</v>
       </c>
       <c r="D21">
-        <v>0.9782641054181613</v>
+        <v>1.024643330626417</v>
       </c>
       <c r="E21">
-        <v>0.9600955554947967</v>
+        <v>1.020709438020614</v>
       </c>
       <c r="F21">
-        <v>0.9620010797963748</v>
+        <v>1.02730162457406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026424304819762</v>
+        <v>1.050550805145715</v>
       </c>
       <c r="J21">
-        <v>0.9793107589189221</v>
+        <v>1.030272165952884</v>
       </c>
       <c r="K21">
-        <v>0.9936693131455512</v>
+        <v>1.0391723993546</v>
       </c>
       <c r="L21">
-        <v>0.9758745304491947</v>
+        <v>1.035308806069277</v>
       </c>
       <c r="M21">
-        <v>0.9777399773677854</v>
+        <v>1.041783584450808</v>
       </c>
       <c r="N21">
-        <v>0.9849312619949371</v>
+        <v>1.031735270602406</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9394062501339729</v>
+        <v>0.9917565945689397</v>
       </c>
       <c r="D22">
-        <v>0.9723245526575696</v>
+        <v>1.017250857855425</v>
       </c>
       <c r="E22">
-        <v>0.9525739329494475</v>
+        <v>1.012187337268906</v>
       </c>
       <c r="F22">
-        <v>0.9541084571939886</v>
+        <v>1.01891609442553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023497837436365</v>
+        <v>1.046811390252584</v>
       </c>
       <c r="J22">
-        <v>0.9730572151897446</v>
+        <v>1.022862911827797</v>
       </c>
       <c r="K22">
-        <v>0.9884649512719839</v>
+        <v>1.032488146898556</v>
       </c>
       <c r="L22">
-        <v>0.969147326227036</v>
+        <v>1.027521166081686</v>
       </c>
       <c r="M22">
-        <v>0.9706473528872035</v>
+        <v>1.034121908440932</v>
       </c>
       <c r="N22">
-        <v>0.9804341370620269</v>
+        <v>1.024315494486609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9437056031163321</v>
+        <v>0.9966064815073982</v>
       </c>
       <c r="D23">
-        <v>0.9755025774807556</v>
+        <v>1.021210672920389</v>
       </c>
       <c r="E23">
-        <v>0.956598743030504</v>
+        <v>1.016752322939344</v>
       </c>
       <c r="F23">
-        <v>0.958331828063819</v>
+        <v>1.023407641488806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025065618364108</v>
+        <v>1.048816351927151</v>
       </c>
       <c r="J23">
-        <v>0.9764046604814197</v>
+        <v>1.026833368383618</v>
       </c>
       <c r="K23">
-        <v>0.9912509902072206</v>
+        <v>1.036069973838742</v>
       </c>
       <c r="L23">
-        <v>0.9727478750355467</v>
+        <v>1.031693760241175</v>
       </c>
       <c r="M23">
-        <v>0.9744433487434011</v>
+        <v>1.038226810095479</v>
       </c>
       <c r="N23">
-        <v>0.982841698020929</v>
+        <v>1.028291589546156</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597658733274497</v>
+        <v>1.014629455078378</v>
       </c>
       <c r="D24">
-        <v>0.9873984708092931</v>
+        <v>1.035947498238786</v>
       </c>
       <c r="E24">
-        <v>0.971659869363269</v>
+        <v>1.033740479891214</v>
       </c>
       <c r="F24">
-        <v>0.9741354038794752</v>
+        <v>1.0401281989502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030892703796057</v>
+        <v>1.05623720462302</v>
       </c>
       <c r="J24">
-        <v>0.9889057783862333</v>
+        <v>1.041575757928798</v>
       </c>
       <c r="K24">
-        <v>1.001650557396933</v>
+        <v>1.049371433766523</v>
       </c>
       <c r="L24">
-        <v>0.9862036447640556</v>
+        <v>1.047199896778832</v>
       </c>
       <c r="M24">
-        <v>0.9886324834632301</v>
+        <v>1.053485451755617</v>
       </c>
       <c r="N24">
-        <v>0.9918258389498508</v>
+        <v>1.043054914975466</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.976895450638458</v>
+        <v>1.03370974918911</v>
       </c>
       <c r="D25">
-        <v>1.000122434843167</v>
+        <v>1.051581381604763</v>
       </c>
       <c r="E25">
-        <v>0.9877690864336881</v>
+        <v>1.051765446812048</v>
       </c>
       <c r="F25">
-        <v>0.9910389693456185</v>
+        <v>1.057878912217656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037042908827868</v>
+        <v>1.064029116263921</v>
       </c>
       <c r="J25">
-        <v>1.002226202450727</v>
+        <v>1.057153567780489</v>
       </c>
       <c r="K25">
-        <v>1.012718850465654</v>
+        <v>1.063428458309506</v>
       </c>
       <c r="L25">
-        <v>1.000560286066414</v>
+        <v>1.063610008959744</v>
       </c>
       <c r="M25">
-        <v>1.003778005029748</v>
+        <v>1.069640581932974</v>
       </c>
       <c r="N25">
-        <v>1.001382435227587</v>
+        <v>1.058654847103947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047744430458572</v>
+        <v>1.00482560461878</v>
       </c>
       <c r="D2">
-        <v>1.063098586637543</v>
+        <v>1.022351332585126</v>
       </c>
       <c r="E2">
-        <v>1.06504977212033</v>
+        <v>1.012968906887518</v>
       </c>
       <c r="F2">
-        <v>1.070967430367203</v>
+        <v>0.9819357014953218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069706087238028</v>
+        <v>1.046228843979583</v>
       </c>
       <c r="J2">
-        <v>1.068585209275505</v>
+        <v>1.026862934467383</v>
       </c>
       <c r="K2">
-        <v>1.073743655572475</v>
+        <v>1.033507818300845</v>
       </c>
       <c r="L2">
-        <v>1.075671569434438</v>
+        <v>1.024250473268109</v>
       </c>
       <c r="M2">
-        <v>1.081519290187556</v>
+        <v>0.9936525724464899</v>
       </c>
       <c r="N2">
-        <v>1.070102722841113</v>
+        <v>1.010975428863766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057361595267921</v>
+        <v>1.011778574553695</v>
       </c>
       <c r="D3">
-        <v>1.07099755102039</v>
+        <v>1.027844827224069</v>
       </c>
       <c r="E3">
-        <v>1.074165348749075</v>
+        <v>1.019408786159787</v>
       </c>
       <c r="F3">
-        <v>1.079951748086884</v>
+        <v>0.9916551753844223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.073563444506599</v>
+        <v>1.049208723357435</v>
       </c>
       <c r="J3">
-        <v>1.076401934067353</v>
+        <v>1.031953213820072</v>
       </c>
       <c r="K3">
-        <v>1.080795981413224</v>
+        <v>1.038133405794107</v>
       </c>
       <c r="L3">
-        <v>1.083929700066101</v>
+        <v>1.029799207750126</v>
       </c>
       <c r="M3">
-        <v>1.089654481009293</v>
+        <v>1.002395955181537</v>
       </c>
       <c r="N3">
-        <v>1.077930548278756</v>
+        <v>1.01287676514603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063349816033254</v>
+        <v>1.016134731350515</v>
       </c>
       <c r="D4">
-        <v>1.075918203707924</v>
+        <v>1.03128837789952</v>
       </c>
       <c r="E4">
-        <v>1.079846427901803</v>
+        <v>1.023448152649835</v>
       </c>
       <c r="F4">
-        <v>1.085552307761804</v>
+        <v>0.9977347413798973</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075949741240287</v>
+        <v>1.051061784375398</v>
       </c>
       <c r="J4">
-        <v>1.081261005937738</v>
+        <v>1.03513452418472</v>
       </c>
       <c r="K4">
-        <v>1.085179210373961</v>
+        <v>1.041023294232823</v>
       </c>
       <c r="L4">
-        <v>1.089068004073723</v>
+        <v>1.033271582021753</v>
       </c>
       <c r="M4">
-        <v>1.094717226976755</v>
+        <v>1.007860583184055</v>
       </c>
       <c r="N4">
-        <v>1.08279652058854</v>
+        <v>1.014062623580842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06581504330031</v>
+        <v>1.01793383271694</v>
       </c>
       <c r="D5">
-        <v>1.077944365165643</v>
+        <v>1.032710921501401</v>
       </c>
       <c r="E5">
-        <v>1.082186369841782</v>
+        <v>1.025117491474725</v>
       </c>
       <c r="F5">
-        <v>1.087859373730071</v>
+        <v>1.000243744909064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.076928349605253</v>
+        <v>1.051823737402675</v>
       </c>
       <c r="J5">
-        <v>1.083259396363482</v>
+        <v>1.036446512941427</v>
       </c>
       <c r="K5">
-        <v>1.086981710342291</v>
+        <v>1.042214837901128</v>
       </c>
       <c r="L5">
-        <v>1.091182385673025</v>
+        <v>1.034704690028476</v>
       </c>
       <c r="M5">
-        <v>1.096800727832187</v>
+        <v>1.010114702662595</v>
       </c>
       <c r="N5">
-        <v>1.084797748957908</v>
+        <v>1.014551055299974</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066226010951727</v>
+        <v>1.018234074149972</v>
       </c>
       <c r="D6">
-        <v>1.078282160056832</v>
+        <v>1.032948339885652</v>
       </c>
       <c r="E6">
-        <v>1.082576517587661</v>
+        <v>1.025396139348619</v>
       </c>
       <c r="F6">
-        <v>1.088244056382111</v>
+        <v>1.000662361244617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.077091265260774</v>
+        <v>1.051950696371475</v>
       </c>
       <c r="J6">
-        <v>1.08359242121122</v>
+        <v>1.036665350800763</v>
       </c>
       <c r="K6">
-        <v>1.087282078705829</v>
+        <v>1.042413569728556</v>
       </c>
       <c r="L6">
-        <v>1.091534807518229</v>
+        <v>1.034943793966775</v>
       </c>
       <c r="M6">
-        <v>1.097148014556785</v>
+        <v>1.010490726508356</v>
       </c>
       <c r="N6">
-        <v>1.085131246739127</v>
+        <v>1.01463248731789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063382956787073</v>
+        <v>1.016158895178028</v>
       </c>
       <c r="D7">
-        <v>1.075945440419041</v>
+        <v>1.031307482870238</v>
       </c>
       <c r="E7">
-        <v>1.079877879920839</v>
+        <v>1.023470569443965</v>
       </c>
       <c r="F7">
-        <v>1.085583316763252</v>
+        <v>0.9977684467256795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075962912013088</v>
+        <v>1.051072031575514</v>
       </c>
       <c r="J7">
-        <v>1.081287878819774</v>
+        <v>1.035152153119269</v>
       </c>
       <c r="K7">
-        <v>1.085203449858075</v>
+        <v>1.041039305832565</v>
       </c>
       <c r="L7">
-        <v>1.089096432166035</v>
+        <v>1.033290834127965</v>
       </c>
       <c r="M7">
-        <v>1.094745239054973</v>
+        <v>1.007890868907609</v>
       </c>
       <c r="N7">
-        <v>1.082823431633151</v>
+        <v>1.014069189057122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051045736792918</v>
+        <v>1.007206228085305</v>
       </c>
       <c r="D8">
-        <v>1.065809520036911</v>
+        <v>1.024231821819398</v>
       </c>
       <c r="E8">
-        <v>1.06817774364136</v>
+        <v>1.015172835760831</v>
       </c>
       <c r="F8">
-        <v>1.074050075690296</v>
+        <v>0.9852659519164805</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071033470356793</v>
+        <v>1.047252037635486</v>
       </c>
       <c r="J8">
-        <v>1.071270159259513</v>
+        <v>1.028607438276103</v>
       </c>
       <c r="K8">
-        <v>1.076166168209846</v>
+        <v>1.035093264440353</v>
       </c>
       <c r="L8">
-        <v>1.078507100617202</v>
+        <v>1.026151129954323</v>
       </c>
       <c r="M8">
-        <v>1.084312400636373</v>
+        <v>0.9966492746826121</v>
       </c>
       <c r="N8">
-        <v>1.072791485762067</v>
+        <v>1.011627532141563</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027302015435203</v>
+        <v>0.990236437025955</v>
       </c>
       <c r="D9">
-        <v>1.046327710846698</v>
+        <v>1.010838389115904</v>
       </c>
       <c r="E9">
-        <v>1.045707573164163</v>
+        <v>0.9994850830427792</v>
       </c>
       <c r="F9">
-        <v>1.051912107192918</v>
+        <v>0.9614599931786216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061420933048515</v>
+        <v>1.039899476154605</v>
       </c>
       <c r="J9">
-        <v>1.051926184587711</v>
+        <v>1.016138746319674</v>
       </c>
       <c r="K9">
-        <v>1.058711351715909</v>
+        <v>1.02375803486275</v>
       </c>
       <c r="L9">
-        <v>1.058100184192475</v>
+        <v>1.012586519943272</v>
       </c>
       <c r="M9">
-        <v>1.0642155738801</v>
+        <v>0.9752109176148814</v>
       </c>
       <c r="N9">
-        <v>1.053420040427446</v>
+        <v>1.006957794162644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009782403601877</v>
+        <v>0.9779606109870738</v>
       </c>
       <c r="D10">
-        <v>1.031981050096631</v>
+        <v>1.001168524274801</v>
       </c>
       <c r="E10">
-        <v>1.029168061692014</v>
+        <v>0.9881683922587504</v>
       </c>
       <c r="F10">
-        <v>1.035626929313206</v>
+        <v>0.944119854652226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054246560946167</v>
+        <v>1.034506478848268</v>
       </c>
       <c r="J10">
-        <v>1.037613204127351</v>
+        <v>1.007076787824065</v>
       </c>
       <c r="K10">
-        <v>1.045795926457104</v>
+        <v>1.015516712657936</v>
       </c>
       <c r="L10">
-        <v>1.043029918557309</v>
+        <v>1.002754607282242</v>
       </c>
       <c r="M10">
-        <v>1.049381403445003</v>
+        <v>0.959577070654184</v>
       </c>
       <c r="N10">
-        <v>1.039086733893109</v>
+        <v>1.003554632703775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001697734182244</v>
+        <v>0.9723736852724718</v>
       </c>
       <c r="D11">
-        <v>1.025370291613089</v>
+        <v>0.9967736727748034</v>
       </c>
       <c r="E11">
-        <v>1.021547455494161</v>
+        <v>0.9830265347967455</v>
       </c>
       <c r="F11">
-        <v>1.0281263348656</v>
+        <v>0.9361869336624558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050917682237102</v>
+        <v>1.032034892820912</v>
       </c>
       <c r="J11">
-        <v>1.031000055585746</v>
+        <v>1.002942690013591</v>
       </c>
       <c r="K11">
-        <v>1.03982911284535</v>
+        <v>1.01175669046764</v>
       </c>
       <c r="L11">
-        <v>1.036074145758486</v>
+        <v>0.9982758051911218</v>
       </c>
       <c r="M11">
-        <v>1.042536632173166</v>
+        <v>0.9524216990270669</v>
       </c>
       <c r="N11">
-        <v>1.032464193922037</v>
+        <v>1.002000646183057</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9986094528823065</v>
+        <v>0.9702533193540007</v>
       </c>
       <c r="D12">
-        <v>1.022846798039311</v>
+        <v>0.9951067870845809</v>
       </c>
       <c r="E12">
-        <v>1.018638436257377</v>
+        <v>0.981076463125115</v>
       </c>
       <c r="F12">
-        <v>1.025263602748334</v>
+        <v>0.9331686891274038</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04964347844973</v>
+        <v>1.031094337056776</v>
       </c>
       <c r="J12">
-        <v>1.0284727799745</v>
+        <v>1.001372235870542</v>
       </c>
       <c r="K12">
-        <v>1.037548999749864</v>
+        <v>1.010328337624773</v>
       </c>
       <c r="L12">
-        <v>1.033417057759049</v>
+        <v>0.9965754157466996</v>
       </c>
       <c r="M12">
-        <v>1.039922286062861</v>
+        <v>0.9496989638134062</v>
       </c>
       <c r="N12">
-        <v>1.029933329289541</v>
+        <v>1.00141017482663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9992759482992085</v>
+        <v>0.9707102648374757</v>
       </c>
       <c r="D13">
-        <v>1.023391319143623</v>
+        <v>0.9954659557278165</v>
       </c>
       <c r="E13">
-        <v>1.019266150518048</v>
+        <v>0.9814966457400636</v>
       </c>
       <c r="F13">
-        <v>1.025881306778409</v>
+        <v>0.9338194935756658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04991858462594</v>
+        <v>1.031297143287895</v>
       </c>
       <c r="J13">
-        <v>1.029018249674972</v>
+        <v>1.001710739811186</v>
       </c>
       <c r="K13">
-        <v>1.038041115205118</v>
+        <v>1.010636211635791</v>
       </c>
       <c r="L13">
-        <v>1.033990494019627</v>
+        <v>0.9969418805785527</v>
       </c>
       <c r="M13">
-        <v>1.040486482118566</v>
+        <v>0.9502860617662323</v>
       </c>
       <c r="N13">
-        <v>1.030479573619553</v>
+        <v>1.00153745344367</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00144426300376</v>
+        <v>0.9721993634909238</v>
       </c>
       <c r="D14">
-        <v>1.025163137853637</v>
+        <v>0.9966366105823883</v>
       </c>
       <c r="E14">
-        <v>1.021308655562955</v>
+        <v>0.982866184870606</v>
       </c>
       <c r="F14">
-        <v>1.0278913247006</v>
+        <v>0.9359389554247213</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050813153437603</v>
+        <v>1.031957617896448</v>
       </c>
       <c r="J14">
-        <v>1.030792650507618</v>
+        <v>1.002813607888732</v>
       </c>
       <c r="K14">
-        <v>1.039641987916577</v>
+        <v>1.011639288006799</v>
       </c>
       <c r="L14">
-        <v>1.035856064477171</v>
+        <v>0.9981360225149137</v>
       </c>
       <c r="M14">
-        <v>1.042322051863126</v>
+        <v>0.9521980054933685</v>
       </c>
       <c r="N14">
-        <v>1.032256494304909</v>
+        <v>1.001952115402091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002768587472012</v>
+        <v>0.9731107238855004</v>
       </c>
       <c r="D15">
-        <v>1.026245538625349</v>
+        <v>0.9973532205334855</v>
       </c>
       <c r="E15">
-        <v>1.022556408504397</v>
+        <v>0.9837045565571859</v>
       </c>
       <c r="F15">
-        <v>1.029119295295681</v>
+        <v>0.9372350805225158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051359186332946</v>
+        <v>1.032361511375066</v>
       </c>
       <c r="J15">
-        <v>1.031876247104003</v>
+        <v>1.00348839416635</v>
       </c>
       <c r="K15">
-        <v>1.040619636907602</v>
+        <v>1.012253018177586</v>
       </c>
       <c r="L15">
-        <v>1.036995485073917</v>
+        <v>0.9988667878786702</v>
       </c>
       <c r="M15">
-        <v>1.043443194719554</v>
+        <v>0.9533671877011474</v>
       </c>
       <c r="N15">
-        <v>1.033341629732751</v>
+        <v>1.002205808163852</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01030761321539</v>
+        <v>0.9783253217229054</v>
       </c>
       <c r="D16">
-        <v>1.032410732697014</v>
+        <v>1.001455554562836</v>
       </c>
       <c r="E16">
-        <v>1.029663383603437</v>
+        <v>0.988504233592322</v>
       </c>
       <c r="F16">
-        <v>1.036114512791883</v>
+        <v>0.9446367541867816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054462454722465</v>
+        <v>1.034667471952644</v>
       </c>
       <c r="J16">
-        <v>1.038042660022269</v>
+        <v>1.007346456492119</v>
       </c>
       <c r="K16">
-        <v>1.046183427505647</v>
+        <v>1.015761977529332</v>
       </c>
       <c r="L16">
-        <v>1.043481776082224</v>
+        <v>1.003046898336125</v>
       </c>
       <c r="M16">
-        <v>1.049826094563054</v>
+        <v>0.9600432536665384</v>
       </c>
       <c r="N16">
-        <v>1.039516799664658</v>
+        <v>1.003655975745888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014896462860227</v>
+        <v>0.9815207642922733</v>
       </c>
       <c r="D17">
-        <v>1.036166060513158</v>
+        <v>1.003971091685024</v>
       </c>
       <c r="E17">
-        <v>1.033992436714981</v>
+        <v>0.9914477069091432</v>
       </c>
       <c r="F17">
-        <v>1.040376253884233</v>
+        <v>0.9491608489439182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056346742641753</v>
+        <v>1.036076102475558</v>
       </c>
       <c r="J17">
-        <v>1.041793987411011</v>
+        <v>1.009708073608013</v>
       </c>
       <c r="K17">
-        <v>1.049568351477042</v>
+        <v>1.017909849706024</v>
       </c>
       <c r="L17">
-        <v>1.047429597660764</v>
+        <v>1.00560736909374</v>
       </c>
       <c r="M17">
-        <v>1.053711534312411</v>
+        <v>0.964123128960696</v>
       </c>
       <c r="N17">
-        <v>1.043273454368575</v>
+        <v>1.004543329852619</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017525755462093</v>
+        <v>0.9833587516110621</v>
       </c>
       <c r="D18">
-        <v>1.038318645894992</v>
+        <v>1.005418560923511</v>
       </c>
       <c r="E18">
-        <v>1.036473950313921</v>
+        <v>0.9931415578726898</v>
       </c>
       <c r="F18">
-        <v>1.042819441774076</v>
+        <v>0.9517593091482964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057424695566206</v>
+        <v>1.036884724724674</v>
       </c>
       <c r="J18">
-        <v>1.043942628436239</v>
+        <v>1.011065529462434</v>
       </c>
       <c r="K18">
-        <v>1.051507180123013</v>
+        <v>1.019144413875721</v>
       </c>
       <c r="L18">
-        <v>1.049691456448617</v>
+        <v>1.00707973651686</v>
       </c>
       <c r="M18">
-        <v>1.055937838155831</v>
+        <v>0.9664661518400197</v>
       </c>
       <c r="N18">
-        <v>1.045425146710511</v>
+        <v>1.005053239561879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018414534976931</v>
+        <v>0.983981193102905</v>
       </c>
       <c r="D19">
-        <v>1.039046425130992</v>
+        <v>1.00590884224114</v>
       </c>
       <c r="E19">
-        <v>1.037312953002129</v>
+        <v>0.9937153190239165</v>
       </c>
       <c r="F19">
-        <v>1.04364552910805</v>
+        <v>0.9526386864514951</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057788784787612</v>
+        <v>1.037158293701954</v>
       </c>
       <c r="J19">
-        <v>1.044668798780329</v>
+        <v>1.011525080133835</v>
       </c>
       <c r="K19">
-        <v>1.052162447723977</v>
+        <v>1.019562354526658</v>
       </c>
       <c r="L19">
-        <v>1.050456003846505</v>
+        <v>1.007578292037824</v>
       </c>
       <c r="M19">
-        <v>1.056690397996692</v>
+        <v>0.9672590297552448</v>
       </c>
       <c r="N19">
-        <v>1.046152348299783</v>
+        <v>1.005225837584947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014409084229261</v>
+        <v>0.9811806277544262</v>
       </c>
       <c r="D20">
-        <v>1.035767116116076</v>
+        <v>1.003703268260655</v>
       </c>
       <c r="E20">
-        <v>1.033532537218891</v>
+        <v>0.9911343078484866</v>
       </c>
       <c r="F20">
-        <v>1.039923478014949</v>
+        <v>0.9486796841542362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056146789417184</v>
+        <v>1.035926328776038</v>
       </c>
       <c r="J20">
-        <v>1.041395641104608</v>
+        <v>1.009456788925401</v>
       </c>
       <c r="K20">
-        <v>1.049208907008317</v>
+        <v>1.017681311227002</v>
       </c>
       <c r="L20">
-        <v>1.047010315792108</v>
+        <v>1.00533486197216</v>
       </c>
       <c r="M20">
-        <v>1.053298858164569</v>
+        <v>0.9636892394523739</v>
       </c>
       <c r="N20">
-        <v>1.042874542364726</v>
+        <v>1.004448926296381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000808196273004</v>
+        <v>0.9717621453558286</v>
       </c>
       <c r="D21">
-        <v>1.024643330626417</v>
+        <v>0.9962928611649985</v>
       </c>
       <c r="E21">
-        <v>1.020709438020614</v>
+        <v>0.9824640322083679</v>
       </c>
       <c r="F21">
-        <v>1.02730162457406</v>
+        <v>0.9353168730108011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050550805145715</v>
+        <v>1.031763763376079</v>
       </c>
       <c r="J21">
-        <v>1.030272165952884</v>
+        <v>1.002489832187559</v>
       </c>
       <c r="K21">
-        <v>1.0391723993546</v>
+        <v>1.011344808443491</v>
       </c>
       <c r="L21">
-        <v>1.035308806069277</v>
+        <v>0.9977854230320754</v>
       </c>
       <c r="M21">
-        <v>1.041783584450808</v>
+        <v>0.9516368393739092</v>
       </c>
       <c r="N21">
-        <v>1.031735270602406</v>
+        <v>1.001830383939614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9917565945689397</v>
+        <v>0.9655765582666236</v>
       </c>
       <c r="D22">
-        <v>1.017250857855425</v>
+        <v>0.9914323800190341</v>
       </c>
       <c r="E22">
-        <v>1.012187337268906</v>
+        <v>0.9767779751138957</v>
       </c>
       <c r="F22">
-        <v>1.01891609442553</v>
+        <v>0.9264959276110228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046811390252584</v>
+        <v>1.029015182767451</v>
       </c>
       <c r="J22">
-        <v>1.022862911827797</v>
+        <v>0.9979056749720943</v>
       </c>
       <c r="K22">
-        <v>1.032488146898556</v>
+        <v>1.007175495473414</v>
       </c>
       <c r="L22">
-        <v>1.027521166081686</v>
+        <v>0.9928239414166169</v>
       </c>
       <c r="M22">
-        <v>1.034121908440932</v>
+        <v>0.9436790873327139</v>
       </c>
       <c r="N22">
-        <v>1.024315494486609</v>
+        <v>1.000106609566503</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9966064815073982</v>
+        <v>0.9688823033625676</v>
       </c>
       <c r="D23">
-        <v>1.021210672920389</v>
+        <v>0.9940293080117909</v>
       </c>
       <c r="E23">
-        <v>1.016752322939344</v>
+        <v>0.9798159605221211</v>
       </c>
       <c r="F23">
-        <v>1.023407641488806</v>
+        <v>0.9312148002989546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048816351927151</v>
+        <v>1.030485470874872</v>
       </c>
       <c r="J23">
-        <v>1.026833368383618</v>
+        <v>1.000356376199006</v>
       </c>
       <c r="K23">
-        <v>1.036069973838742</v>
+        <v>1.009404402597531</v>
       </c>
       <c r="L23">
-        <v>1.031693760241175</v>
+        <v>0.9954757951014678</v>
       </c>
       <c r="M23">
-        <v>1.038226810095479</v>
+        <v>0.947936302977778</v>
       </c>
       <c r="N23">
-        <v>1.028291589546156</v>
+        <v>1.001028192885242</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014629455078378</v>
+        <v>0.9813344004097042</v>
       </c>
       <c r="D24">
-        <v>1.035947498238786</v>
+        <v>1.003824347090738</v>
       </c>
       <c r="E24">
-        <v>1.033740479891214</v>
+        <v>0.9912759902712053</v>
       </c>
       <c r="F24">
-        <v>1.0401281989502</v>
+        <v>0.9488972259849614</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05623720462302</v>
+        <v>1.035994045114699</v>
       </c>
       <c r="J24">
-        <v>1.041575757928798</v>
+        <v>1.009570395330551</v>
       </c>
       <c r="K24">
-        <v>1.049371433766523</v>
+        <v>1.01778463411947</v>
       </c>
       <c r="L24">
-        <v>1.047199896778832</v>
+        <v>1.005458061195811</v>
       </c>
       <c r="M24">
-        <v>1.053485451755617</v>
+        <v>0.9638854083461136</v>
       </c>
       <c r="N24">
-        <v>1.043054914975466</v>
+        <v>1.004491606812717</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03370974918911</v>
+        <v>0.9947802277398331</v>
       </c>
       <c r="D25">
-        <v>1.051581381604763</v>
+        <v>1.014421858832139</v>
       </c>
       <c r="E25">
-        <v>1.051765446812048</v>
+        <v>1.003680525797494</v>
       </c>
       <c r="F25">
-        <v>1.057878912217656</v>
+        <v>0.9678507784048548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064029116263921</v>
+        <v>1.041880904464925</v>
       </c>
       <c r="J25">
-        <v>1.057153567780489</v>
+        <v>1.01948454407364</v>
       </c>
       <c r="K25">
-        <v>1.063428458309506</v>
+        <v>1.02680034449181</v>
       </c>
       <c r="L25">
-        <v>1.063610008959744</v>
+        <v>1.01622197376798</v>
       </c>
       <c r="M25">
-        <v>1.069640581932974</v>
+        <v>0.9809695518128897</v>
       </c>
       <c r="N25">
-        <v>1.058654847103947</v>
+        <v>1.008212650194353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00482560461878</v>
+        <v>1.039806583996589</v>
       </c>
       <c r="D2">
-        <v>1.022351332585126</v>
+        <v>1.04316315749019</v>
       </c>
       <c r="E2">
-        <v>1.012968906887518</v>
+        <v>1.043461600854908</v>
       </c>
       <c r="F2">
-        <v>0.9819357014953218</v>
+        <v>1.038549137735114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046228843979583</v>
+        <v>1.041490219652241</v>
       </c>
       <c r="J2">
-        <v>1.026862934467383</v>
+        <v>1.044896605493829</v>
       </c>
       <c r="K2">
-        <v>1.033507818300845</v>
+        <v>1.045937798595537</v>
       </c>
       <c r="L2">
-        <v>1.024250473268109</v>
+        <v>1.046235400509971</v>
       </c>
       <c r="M2">
-        <v>0.9936525724464899</v>
+        <v>1.041336854701452</v>
       </c>
       <c r="N2">
-        <v>1.010975428863766</v>
+        <v>1.018621321845196</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011778574553695</v>
+        <v>1.041124566061259</v>
       </c>
       <c r="D3">
-        <v>1.027844827224069</v>
+        <v>1.044207470626641</v>
       </c>
       <c r="E3">
-        <v>1.019408786159787</v>
+        <v>1.044728947576123</v>
       </c>
       <c r="F3">
-        <v>0.9916551753844223</v>
+        <v>1.040497210900389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049208723357435</v>
+        <v>1.041956922537177</v>
       </c>
       <c r="J3">
-        <v>1.031953213820072</v>
+        <v>1.045858103701232</v>
       </c>
       <c r="K3">
-        <v>1.038133405794107</v>
+        <v>1.046792480451635</v>
       </c>
       <c r="L3">
-        <v>1.029799207750126</v>
+        <v>1.04731259435626</v>
       </c>
       <c r="M3">
-        <v>1.002395955181537</v>
+        <v>1.0430919612672</v>
       </c>
       <c r="N3">
-        <v>1.01287676514603</v>
+        <v>1.018965337162738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016134731350515</v>
+        <v>1.041975569059754</v>
       </c>
       <c r="D4">
-        <v>1.03128837789952</v>
+        <v>1.044881597741098</v>
       </c>
       <c r="E4">
-        <v>1.023448152649835</v>
+        <v>1.04554754924184</v>
       </c>
       <c r="F4">
-        <v>0.9977347413798973</v>
+        <v>1.04175564747254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051061784375398</v>
+        <v>1.042256634544827</v>
       </c>
       <c r="J4">
-        <v>1.03513452418472</v>
+        <v>1.046477986730183</v>
       </c>
       <c r="K4">
-        <v>1.041023294232823</v>
+        <v>1.047343307354285</v>
       </c>
       <c r="L4">
-        <v>1.033271582021753</v>
+        <v>1.048007606549122</v>
       </c>
       <c r="M4">
-        <v>1.007860583184055</v>
+        <v>1.044225143340536</v>
       </c>
       <c r="N4">
-        <v>1.014062623580842</v>
+        <v>1.019186566634232</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01793383271694</v>
+        <v>1.042332902217841</v>
       </c>
       <c r="D5">
-        <v>1.032710921501401</v>
+        <v>1.045164619478563</v>
       </c>
       <c r="E5">
-        <v>1.025117491474725</v>
+        <v>1.045891346996114</v>
       </c>
       <c r="F5">
-        <v>1.000243744909064</v>
+        <v>1.042284207437298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051823737402675</v>
+        <v>1.042382091610713</v>
       </c>
       <c r="J5">
-        <v>1.036446512941427</v>
+        <v>1.046738047493262</v>
       </c>
       <c r="K5">
-        <v>1.042214837901128</v>
+        <v>1.047574350784626</v>
       </c>
       <c r="L5">
-        <v>1.034704690028476</v>
+        <v>1.04829931568133</v>
       </c>
       <c r="M5">
-        <v>1.010114702662595</v>
+        <v>1.044700950953768</v>
       </c>
       <c r="N5">
-        <v>1.014551055299974</v>
+        <v>1.019279245076896</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018234074149972</v>
+        <v>1.042392875105104</v>
       </c>
       <c r="D6">
-        <v>1.032948339885652</v>
+        <v>1.04521211785641</v>
       </c>
       <c r="E6">
-        <v>1.025396139348619</v>
+        <v>1.045949052255802</v>
       </c>
       <c r="F6">
-        <v>1.000662361244617</v>
+        <v>1.042372926878221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051950696371475</v>
+        <v>1.042403124716014</v>
       </c>
       <c r="J6">
-        <v>1.036665350800763</v>
+        <v>1.046781681447226</v>
       </c>
       <c r="K6">
-        <v>1.042413569728556</v>
+        <v>1.047613113390844</v>
       </c>
       <c r="L6">
-        <v>1.034943793966775</v>
+        <v>1.048348267301548</v>
       </c>
       <c r="M6">
-        <v>1.010490726508356</v>
+        <v>1.044780807408368</v>
       </c>
       <c r="N6">
-        <v>1.01463248731789</v>
+        <v>1.019294787108305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016158895178028</v>
+        <v>1.041980345437861</v>
       </c>
       <c r="D7">
-        <v>1.031307482870238</v>
+        <v>1.04488538098359</v>
       </c>
       <c r="E7">
-        <v>1.023470569443965</v>
+        <v>1.04555214442185</v>
       </c>
       <c r="F7">
-        <v>0.9977684467256795</v>
+        <v>1.041762712010526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051072031575514</v>
+        <v>1.042258313033732</v>
       </c>
       <c r="J7">
-        <v>1.035152153119269</v>
+        <v>1.046481463782239</v>
       </c>
       <c r="K7">
-        <v>1.041039305832565</v>
+        <v>1.047346396621825</v>
       </c>
       <c r="L7">
-        <v>1.033290834127965</v>
+        <v>1.048011506236111</v>
       </c>
       <c r="M7">
-        <v>1.007890868907609</v>
+        <v>1.044231503375536</v>
       </c>
       <c r="N7">
-        <v>1.014069189057122</v>
+        <v>1.019187806288405</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007206228085305</v>
+        <v>1.040252383237523</v>
       </c>
       <c r="D8">
-        <v>1.024231821819398</v>
+        <v>1.043516425031384</v>
       </c>
       <c r="E8">
-        <v>1.015172835760831</v>
+        <v>1.043890211966405</v>
       </c>
       <c r="F8">
-        <v>0.9852659519164805</v>
+        <v>1.039207941603422</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047252037635486</v>
+        <v>1.041648417149662</v>
       </c>
       <c r="J8">
-        <v>1.028607438276103</v>
+        <v>1.045222021796532</v>
       </c>
       <c r="K8">
-        <v>1.035093264440353</v>
+        <v>1.046227102666123</v>
       </c>
       <c r="L8">
-        <v>1.026151129954323</v>
+        <v>1.046599861729788</v>
       </c>
       <c r="M8">
-        <v>0.9966492746826121</v>
+        <v>1.041930524928049</v>
       </c>
       <c r="N8">
-        <v>1.011627532141563</v>
+        <v>1.018737868545882</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.990236437025955</v>
+        <v>1.037193238113867</v>
       </c>
       <c r="D9">
-        <v>1.010838389115904</v>
+        <v>1.041091571224017</v>
       </c>
       <c r="E9">
-        <v>0.9994850830427792</v>
+        <v>1.040950237278742</v>
       </c>
       <c r="F9">
-        <v>0.9614599931786216</v>
+        <v>1.034689362504233</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039899476154605</v>
+        <v>1.04055613573744</v>
       </c>
       <c r="J9">
-        <v>1.016138746319674</v>
+        <v>1.042985084988655</v>
       </c>
       <c r="K9">
-        <v>1.02375803486275</v>
+        <v>1.044237628612108</v>
       </c>
       <c r="L9">
-        <v>1.012586519943272</v>
+        <v>1.044096750858275</v>
       </c>
       <c r="M9">
-        <v>0.9752109176148814</v>
+        <v>1.037856221685946</v>
       </c>
       <c r="N9">
-        <v>1.006957794162644</v>
+        <v>1.017934431530194</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9779606109870738</v>
+        <v>1.03514377420464</v>
       </c>
       <c r="D10">
-        <v>1.001168524274801</v>
+        <v>1.039466230873729</v>
       </c>
       <c r="E10">
-        <v>0.9881683922587504</v>
+        <v>1.038982165626064</v>
       </c>
       <c r="F10">
-        <v>0.944119854652226</v>
+        <v>1.031664754266896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034506478848268</v>
+        <v>1.039815945484323</v>
       </c>
       <c r="J10">
-        <v>1.007076787824065</v>
+        <v>1.041481583496918</v>
       </c>
       <c r="K10">
-        <v>1.015516712657936</v>
+        <v>1.042899490555881</v>
       </c>
       <c r="L10">
-        <v>1.002754607282242</v>
+        <v>1.04241714300206</v>
       </c>
       <c r="M10">
-        <v>0.959577070654184</v>
+        <v>1.035125914009289</v>
       </c>
       <c r="N10">
-        <v>1.003554632703775</v>
+        <v>1.017391566399371</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9723736852724718</v>
+        <v>1.034253852941645</v>
       </c>
       <c r="D11">
-        <v>0.9967736727748034</v>
+        <v>1.038760289366888</v>
       </c>
       <c r="E11">
-        <v>0.9830265347967455</v>
+        <v>1.038127960787723</v>
       </c>
       <c r="F11">
-        <v>0.9361869336624558</v>
+        <v>1.030351951797182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032034892820912</v>
+        <v>1.039492544873438</v>
       </c>
       <c r="J11">
-        <v>1.002942690013591</v>
+        <v>1.040827575815558</v>
       </c>
       <c r="K11">
-        <v>1.01175669046764</v>
+        <v>1.042317190142866</v>
       </c>
       <c r="L11">
-        <v>0.9982758051911218</v>
+        <v>1.041687193523251</v>
       </c>
       <c r="M11">
-        <v>0.9524216990270669</v>
+        <v>1.033940120676688</v>
       </c>
       <c r="N11">
-        <v>1.002000646183057</v>
+        <v>1.017154755217247</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9702533193540007</v>
+        <v>1.033922913699335</v>
       </c>
       <c r="D12">
-        <v>0.9951067870845809</v>
+        <v>1.038497740782262</v>
       </c>
       <c r="E12">
-        <v>0.981076463125115</v>
+        <v>1.037810360255877</v>
       </c>
       <c r="F12">
-        <v>0.9331686891274038</v>
+        <v>1.02986383012608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031094337056776</v>
+        <v>1.039371980997601</v>
       </c>
       <c r="J12">
-        <v>1.001372235870542</v>
+        <v>1.040584193403401</v>
       </c>
       <c r="K12">
-        <v>1.010328337624773</v>
+        <v>1.04210045954529</v>
       </c>
       <c r="L12">
-        <v>0.9965754157466996</v>
+        <v>1.041415649658298</v>
       </c>
       <c r="M12">
-        <v>0.9496989638134062</v>
+        <v>1.033499113762731</v>
       </c>
       <c r="N12">
-        <v>1.00141017482663</v>
+        <v>1.017066528136097</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9707102648374757</v>
+        <v>1.033993918757466</v>
       </c>
       <c r="D13">
-        <v>0.9954659557278165</v>
+        <v>1.03855407339993</v>
       </c>
       <c r="E13">
-        <v>0.9814966457400636</v>
+        <v>1.037878500839715</v>
       </c>
       <c r="F13">
-        <v>0.9338194935756658</v>
+        <v>1.029968556281745</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031297143287895</v>
+        <v>1.039397862262178</v>
       </c>
       <c r="J13">
-        <v>1.001710739811186</v>
+        <v>1.040636420450717</v>
       </c>
       <c r="K13">
-        <v>1.010636211635791</v>
+        <v>1.042146968924063</v>
       </c>
       <c r="L13">
-        <v>0.9969418805785527</v>
+        <v>1.041473915325088</v>
       </c>
       <c r="M13">
-        <v>0.9502860617662323</v>
+        <v>1.033593736424504</v>
       </c>
       <c r="N13">
-        <v>1.00153745344367</v>
+        <v>1.017085465168893</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9721993634909238</v>
+        <v>1.034226505262022</v>
       </c>
       <c r="D14">
-        <v>0.9966366105823883</v>
+        <v>1.038738593796709</v>
       </c>
       <c r="E14">
-        <v>0.982866184870606</v>
+        <v>1.038101714214834</v>
       </c>
       <c r="F14">
-        <v>0.9359389554247213</v>
+        <v>1.030311613578445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031957617896448</v>
+        <v>1.039482587993007</v>
       </c>
       <c r="J14">
-        <v>1.002813607888732</v>
+        <v>1.040807467068109</v>
       </c>
       <c r="K14">
-        <v>1.011639288006799</v>
+        <v>1.042299284099767</v>
       </c>
       <c r="L14">
-        <v>0.9981360225149137</v>
+        <v>1.041664755990603</v>
       </c>
       <c r="M14">
-        <v>0.9521980054933685</v>
+        <v>1.033903678234922</v>
       </c>
       <c r="N14">
-        <v>1.001952115402091</v>
+        <v>1.017147467756293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9731107238855004</v>
+        <v>1.034369758486652</v>
       </c>
       <c r="D15">
-        <v>0.9973532205334855</v>
+        <v>1.038852238925101</v>
       </c>
       <c r="E15">
-        <v>0.9837045565571859</v>
+        <v>1.038239201920226</v>
       </c>
       <c r="F15">
-        <v>0.9372350805225158</v>
+        <v>1.030522917227543</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032361511375066</v>
+        <v>1.039534732093705</v>
       </c>
       <c r="J15">
-        <v>1.00348839416635</v>
+        <v>1.040912794056521</v>
       </c>
       <c r="K15">
-        <v>1.012253018177586</v>
+        <v>1.042393072249188</v>
       </c>
       <c r="L15">
-        <v>0.9988667878786702</v>
+        <v>1.04178228492385</v>
       </c>
       <c r="M15">
-        <v>0.9533671877011474</v>
+        <v>1.034094570164971</v>
       </c>
       <c r="N15">
-        <v>1.002205808163852</v>
+        <v>1.017185634427562</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9783253217229054</v>
+        <v>1.035202782141205</v>
       </c>
       <c r="D16">
-        <v>1.001455554562836</v>
+        <v>1.039513035883626</v>
       </c>
       <c r="E16">
-        <v>0.988504233592322</v>
+        <v>1.039038813230327</v>
       </c>
       <c r="F16">
-        <v>0.9446367541867816</v>
+        <v>1.031751813177523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034667471952644</v>
+        <v>1.039837347235076</v>
       </c>
       <c r="J16">
-        <v>1.007346456492119</v>
+        <v>1.04152492442743</v>
       </c>
       <c r="K16">
-        <v>1.015761977529332</v>
+        <v>1.042938074778898</v>
       </c>
       <c r="L16">
-        <v>1.003046898336125</v>
+        <v>1.042465530510977</v>
       </c>
       <c r="M16">
-        <v>0.9600432536665384</v>
+        <v>1.035204534937774</v>
       </c>
       <c r="N16">
-        <v>1.003655975745888</v>
+        <v>1.01740724576626</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9815207642922733</v>
+        <v>1.035724643085633</v>
       </c>
       <c r="D17">
-        <v>1.003971091685024</v>
+        <v>1.039926954133056</v>
       </c>
       <c r="E17">
-        <v>0.9914477069091432</v>
+        <v>1.039539842823904</v>
       </c>
       <c r="F17">
-        <v>0.9491608489439182</v>
+        <v>1.032521816866183</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036076102475558</v>
+        <v>1.040026392418609</v>
       </c>
       <c r="J17">
-        <v>1.009708073608013</v>
+        <v>1.041908094533875</v>
       </c>
       <c r="K17">
-        <v>1.017909849706024</v>
+        <v>1.043279165822532</v>
       </c>
       <c r="L17">
-        <v>1.00560736909374</v>
+        <v>1.042893392961091</v>
       </c>
       <c r="M17">
-        <v>0.964123128960696</v>
+        <v>1.035899823701981</v>
       </c>
       <c r="N17">
-        <v>1.004543329852619</v>
+        <v>1.017545787297692</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9833587516110621</v>
+        <v>1.036028796107694</v>
       </c>
       <c r="D18">
-        <v>1.005418560923511</v>
+        <v>1.040168177812598</v>
       </c>
       <c r="E18">
-        <v>0.9931415578726898</v>
+        <v>1.039831890847182</v>
       </c>
       <c r="F18">
-        <v>0.9517593091482964</v>
+        <v>1.032970646529183</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036884724724674</v>
+        <v>1.04013638036856</v>
       </c>
       <c r="J18">
-        <v>1.011065529462434</v>
+        <v>1.042131303960805</v>
       </c>
       <c r="K18">
-        <v>1.019144413875721</v>
+        <v>1.043477841195917</v>
       </c>
       <c r="L18">
-        <v>1.00707973651686</v>
+        <v>1.043142700942109</v>
       </c>
       <c r="M18">
-        <v>0.9664661518400197</v>
+        <v>1.036305032293195</v>
       </c>
       <c r="N18">
-        <v>1.005053239561879</v>
+        <v>1.017626427832425</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.983981193102905</v>
+        <v>1.036132464045861</v>
       </c>
       <c r="D19">
-        <v>1.00590884224114</v>
+        <v>1.040250393787892</v>
       </c>
       <c r="E19">
-        <v>0.9937153190239165</v>
+        <v>1.039931438994707</v>
       </c>
       <c r="F19">
-        <v>0.9526386864514951</v>
+        <v>1.033123635440953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037158293701954</v>
+        <v>1.04017383622379</v>
       </c>
       <c r="J19">
-        <v>1.011525080133835</v>
+        <v>1.042207364097851</v>
       </c>
       <c r="K19">
-        <v>1.019562354526658</v>
+        <v>1.043545537514209</v>
       </c>
       <c r="L19">
-        <v>1.007578292037824</v>
+        <v>1.043227665156609</v>
       </c>
       <c r="M19">
-        <v>0.9672590297552448</v>
+        <v>1.036443140519236</v>
       </c>
       <c r="N19">
-        <v>1.005225837584947</v>
+        <v>1.017653895679919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9811806277544262</v>
+        <v>1.035668677197332</v>
       </c>
       <c r="D20">
-        <v>1.003703268260655</v>
+        <v>1.039882566165482</v>
       </c>
       <c r="E20">
-        <v>0.9911343078484866</v>
+        <v>1.039486107221128</v>
       </c>
       <c r="F20">
-        <v>0.9486796841542362</v>
+        <v>1.032439233973016</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035926328776038</v>
+        <v>1.040006138536496</v>
       </c>
       <c r="J20">
-        <v>1.009456788925401</v>
+        <v>1.041867013766805</v>
       </c>
       <c r="K20">
-        <v>1.017681311227002</v>
+        <v>1.043242598704303</v>
       </c>
       <c r="L20">
-        <v>1.00533486197216</v>
+        <v>1.042847514000748</v>
       </c>
       <c r="M20">
-        <v>0.9636892394523739</v>
+        <v>1.035825261253494</v>
       </c>
       <c r="N20">
-        <v>1.004448926296381</v>
+        <v>1.017530940538449</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9717621453558286</v>
+        <v>1.03415802497333</v>
       </c>
       <c r="D21">
-        <v>0.9962928611649985</v>
+        <v>1.038684266311809</v>
       </c>
       <c r="E21">
-        <v>0.9824640322083679</v>
+        <v>1.038035992082655</v>
       </c>
       <c r="F21">
-        <v>0.9353168730108011</v>
+        <v>1.030210605386742</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031763763376079</v>
+        <v>1.039457650512154</v>
       </c>
       <c r="J21">
-        <v>1.002489832187559</v>
+        <v>1.040757110713949</v>
       </c>
       <c r="K21">
-        <v>1.011344808443491</v>
+        <v>1.042254443224031</v>
       </c>
       <c r="L21">
-        <v>0.9977854230320754</v>
+        <v>1.041608569496179</v>
       </c>
       <c r="M21">
-        <v>0.9516368393739092</v>
+        <v>1.033812423428417</v>
       </c>
       <c r="N21">
-        <v>1.001830383939614</v>
+        <v>1.017129216870591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9655765582666236</v>
+        <v>1.033205998432541</v>
       </c>
       <c r="D22">
-        <v>0.9914323800190341</v>
+        <v>1.037928932477895</v>
       </c>
       <c r="E22">
-        <v>0.9767779751138957</v>
+        <v>1.03712244489702</v>
       </c>
       <c r="F22">
-        <v>0.9264959276110228</v>
+        <v>1.028806543192029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029015182767451</v>
+        <v>1.039110255448279</v>
       </c>
       <c r="J22">
-        <v>0.9979056749720943</v>
+        <v>1.040056635591902</v>
       </c>
       <c r="K22">
-        <v>1.007175495473414</v>
+        <v>1.041630611815696</v>
       </c>
       <c r="L22">
-        <v>0.9928239414166169</v>
+        <v>1.04082723096476</v>
       </c>
       <c r="M22">
-        <v>0.9436790873327139</v>
+        <v>1.032543679088463</v>
       </c>
       <c r="N22">
-        <v>1.000106609566503</v>
+        <v>1.016875103630445</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9688823033625676</v>
+        <v>1.033710899055229</v>
       </c>
       <c r="D23">
-        <v>0.9940293080117909</v>
+        <v>1.038329532855843</v>
       </c>
       <c r="E23">
-        <v>0.9798159605221211</v>
+        <v>1.037606907005805</v>
       </c>
       <c r="F23">
-        <v>0.9312148002989546</v>
+        <v>1.029551138091992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030485470874872</v>
+        <v>1.039294658077876</v>
       </c>
       <c r="J23">
-        <v>1.000356376199006</v>
+        <v>1.040428222793173</v>
       </c>
       <c r="K23">
-        <v>1.009404402597531</v>
+        <v>1.041961559299456</v>
       </c>
       <c r="L23">
-        <v>0.9954757951014678</v>
+        <v>1.04124165991591</v>
       </c>
       <c r="M23">
-        <v>0.947936302977778</v>
+        <v>1.033216572812288</v>
       </c>
       <c r="N23">
-        <v>1.001028192885242</v>
+        <v>1.017009960043199</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9813344004097042</v>
+        <v>1.035693966512912</v>
       </c>
       <c r="D24">
-        <v>1.003824347090738</v>
+        <v>1.039902623819032</v>
       </c>
       <c r="E24">
-        <v>0.9912759902712053</v>
+        <v>1.039510388625963</v>
       </c>
       <c r="F24">
-        <v>0.9488972259849614</v>
+        <v>1.03247655055416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035994045114699</v>
+        <v>1.040015291255448</v>
       </c>
       <c r="J24">
-        <v>1.009570395330551</v>
+        <v>1.041885577283978</v>
       </c>
       <c r="K24">
-        <v>1.01778463411947</v>
+        <v>1.043259122667196</v>
       </c>
       <c r="L24">
-        <v>1.005458061195811</v>
+        <v>1.042868245521386</v>
       </c>
       <c r="M24">
-        <v>0.9638854083461136</v>
+        <v>1.035858953868163</v>
       </c>
       <c r="N24">
-        <v>1.004491606812717</v>
+        <v>1.017537649670009</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9947802277398331</v>
+        <v>1.037985835782106</v>
       </c>
       <c r="D25">
-        <v>1.014421858832139</v>
+        <v>1.041719976809376</v>
       </c>
       <c r="E25">
-        <v>1.003680525797494</v>
+        <v>1.041711687408803</v>
       </c>
       <c r="F25">
-        <v>0.9678507784048548</v>
+        <v>1.035859606688001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041880904464925</v>
+        <v>1.040840618046808</v>
       </c>
       <c r="J25">
-        <v>1.01948454407364</v>
+        <v>1.043565513003633</v>
       </c>
       <c r="K25">
-        <v>1.02680034449181</v>
+        <v>1.044754016779552</v>
       </c>
       <c r="L25">
-        <v>1.01622197376798</v>
+        <v>1.044745753108023</v>
       </c>
       <c r="M25">
-        <v>0.9809695518128897</v>
+        <v>1.038911948656513</v>
       </c>
       <c r="N25">
-        <v>1.008212650194353</v>
+        <v>1.018143406508395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039806583996589</v>
+        <v>1.004825604618779</v>
       </c>
       <c r="D2">
-        <v>1.04316315749019</v>
+        <v>1.022351332585125</v>
       </c>
       <c r="E2">
-        <v>1.043461600854908</v>
+        <v>1.012968906887517</v>
       </c>
       <c r="F2">
-        <v>1.038549137735114</v>
+        <v>0.9819357014953207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041490219652241</v>
+        <v>1.046228843979583</v>
       </c>
       <c r="J2">
-        <v>1.044896605493829</v>
+        <v>1.026862934467382</v>
       </c>
       <c r="K2">
-        <v>1.045937798595537</v>
+        <v>1.033507818300844</v>
       </c>
       <c r="L2">
-        <v>1.046235400509971</v>
+        <v>1.024250473268108</v>
       </c>
       <c r="M2">
-        <v>1.041336854701452</v>
+        <v>0.9936525724464886</v>
       </c>
       <c r="N2">
-        <v>1.018621321845196</v>
+        <v>1.010975428863766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041124566061259</v>
+        <v>1.011778574553695</v>
       </c>
       <c r="D3">
-        <v>1.044207470626641</v>
+        <v>1.027844827224069</v>
       </c>
       <c r="E3">
-        <v>1.044728947576123</v>
+        <v>1.019408786159787</v>
       </c>
       <c r="F3">
-        <v>1.040497210900389</v>
+        <v>0.9916551753844222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041956922537177</v>
+        <v>1.049208723357435</v>
       </c>
       <c r="J3">
-        <v>1.045858103701232</v>
+        <v>1.031953213820072</v>
       </c>
       <c r="K3">
-        <v>1.046792480451635</v>
+        <v>1.038133405794107</v>
       </c>
       <c r="L3">
-        <v>1.04731259435626</v>
+        <v>1.029799207750126</v>
       </c>
       <c r="M3">
-        <v>1.0430919612672</v>
+        <v>1.002395955181537</v>
       </c>
       <c r="N3">
-        <v>1.018965337162738</v>
+        <v>1.01287676514603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041975569059754</v>
+        <v>1.016134731350516</v>
       </c>
       <c r="D4">
-        <v>1.044881597741098</v>
+        <v>1.031288377899521</v>
       </c>
       <c r="E4">
-        <v>1.04554754924184</v>
+        <v>1.023448152649837</v>
       </c>
       <c r="F4">
-        <v>1.04175564747254</v>
+        <v>0.9977347413798988</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042256634544827</v>
+        <v>1.051061784375398</v>
       </c>
       <c r="J4">
-        <v>1.046477986730183</v>
+        <v>1.035134524184721</v>
       </c>
       <c r="K4">
-        <v>1.047343307354285</v>
+        <v>1.041023294232825</v>
       </c>
       <c r="L4">
-        <v>1.048007606549122</v>
+        <v>1.033271582021755</v>
       </c>
       <c r="M4">
-        <v>1.044225143340536</v>
+        <v>1.007860583184057</v>
       </c>
       <c r="N4">
-        <v>1.019186566634232</v>
+        <v>1.014062623580843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042332902217841</v>
+        <v>1.017933832716941</v>
       </c>
       <c r="D5">
-        <v>1.045164619478563</v>
+        <v>1.032710921501402</v>
       </c>
       <c r="E5">
-        <v>1.045891346996114</v>
+        <v>1.025117491474725</v>
       </c>
       <c r="F5">
-        <v>1.042284207437298</v>
+        <v>1.000243744909066</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042382091610713</v>
+        <v>1.051823737402676</v>
       </c>
       <c r="J5">
-        <v>1.046738047493262</v>
+        <v>1.036446512941428</v>
       </c>
       <c r="K5">
-        <v>1.047574350784626</v>
+        <v>1.042214837901129</v>
       </c>
       <c r="L5">
-        <v>1.04829931568133</v>
+        <v>1.034704690028477</v>
       </c>
       <c r="M5">
-        <v>1.044700950953768</v>
+        <v>1.010114702662596</v>
       </c>
       <c r="N5">
-        <v>1.019279245076896</v>
+        <v>1.014551055299974</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042392875105104</v>
+        <v>1.018234074149971</v>
       </c>
       <c r="D6">
-        <v>1.04521211785641</v>
+        <v>1.032948339885652</v>
       </c>
       <c r="E6">
-        <v>1.045949052255802</v>
+        <v>1.025396139348619</v>
       </c>
       <c r="F6">
-        <v>1.042372926878221</v>
+        <v>1.000662361244617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042403124716014</v>
+        <v>1.051950696371474</v>
       </c>
       <c r="J6">
-        <v>1.046781681447226</v>
+        <v>1.036665350800762</v>
       </c>
       <c r="K6">
-        <v>1.047613113390844</v>
+        <v>1.042413569728556</v>
       </c>
       <c r="L6">
-        <v>1.048348267301548</v>
+        <v>1.034943793966774</v>
       </c>
       <c r="M6">
-        <v>1.044780807408368</v>
+        <v>1.010490726508355</v>
       </c>
       <c r="N6">
-        <v>1.019294787108305</v>
+        <v>1.014632487317889</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041980345437861</v>
+        <v>1.016158895178028</v>
       </c>
       <c r="D7">
-        <v>1.04488538098359</v>
+        <v>1.031307482870238</v>
       </c>
       <c r="E7">
-        <v>1.04555214442185</v>
+        <v>1.023470569443965</v>
       </c>
       <c r="F7">
-        <v>1.041762712010526</v>
+        <v>0.9977684467256802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042258313033732</v>
+        <v>1.051072031575514</v>
       </c>
       <c r="J7">
-        <v>1.046481463782239</v>
+        <v>1.035152153119269</v>
       </c>
       <c r="K7">
-        <v>1.047346396621825</v>
+        <v>1.041039305832565</v>
       </c>
       <c r="L7">
-        <v>1.048011506236111</v>
+        <v>1.033290834127965</v>
       </c>
       <c r="M7">
-        <v>1.044231503375536</v>
+        <v>1.007890868907609</v>
       </c>
       <c r="N7">
-        <v>1.019187806288405</v>
+        <v>1.014069189057122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040252383237523</v>
+        <v>1.007206228085303</v>
       </c>
       <c r="D8">
-        <v>1.043516425031384</v>
+        <v>1.024231821819396</v>
       </c>
       <c r="E8">
-        <v>1.043890211966405</v>
+        <v>1.015172835760829</v>
       </c>
       <c r="F8">
-        <v>1.039207941603422</v>
+        <v>0.9852659519164787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041648417149662</v>
+        <v>1.047252037635485</v>
       </c>
       <c r="J8">
-        <v>1.045222021796532</v>
+        <v>1.028607438276101</v>
       </c>
       <c r="K8">
-        <v>1.046227102666123</v>
+        <v>1.035093264440351</v>
       </c>
       <c r="L8">
-        <v>1.046599861729788</v>
+        <v>1.026151129954322</v>
       </c>
       <c r="M8">
-        <v>1.041930524928049</v>
+        <v>0.9966492746826104</v>
       </c>
       <c r="N8">
-        <v>1.018737868545882</v>
+        <v>1.011627532141562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037193238113867</v>
+        <v>0.9902364370259543</v>
       </c>
       <c r="D9">
-        <v>1.041091571224017</v>
+        <v>1.010838389115904</v>
       </c>
       <c r="E9">
-        <v>1.040950237278742</v>
+        <v>0.9994850830427784</v>
       </c>
       <c r="F9">
-        <v>1.034689362504233</v>
+        <v>0.9614599931786209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04055613573744</v>
+        <v>1.039899476154605</v>
       </c>
       <c r="J9">
-        <v>1.042985084988655</v>
+        <v>1.016138746319674</v>
       </c>
       <c r="K9">
-        <v>1.044237628612108</v>
+        <v>1.02375803486275</v>
       </c>
       <c r="L9">
-        <v>1.044096750858275</v>
+        <v>1.012586519943271</v>
       </c>
       <c r="M9">
-        <v>1.037856221685946</v>
+        <v>0.975210917614881</v>
       </c>
       <c r="N9">
-        <v>1.017934431530194</v>
+        <v>1.006957794162644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03514377420464</v>
+        <v>0.9779606109870749</v>
       </c>
       <c r="D10">
-        <v>1.039466230873729</v>
+        <v>1.001168524274803</v>
       </c>
       <c r="E10">
-        <v>1.038982165626064</v>
+        <v>0.9881683922587519</v>
       </c>
       <c r="F10">
-        <v>1.031664754266896</v>
+        <v>0.9441198546522273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039815945484323</v>
+        <v>1.034506478848269</v>
       </c>
       <c r="J10">
-        <v>1.041481583496918</v>
+        <v>1.007076787824066</v>
       </c>
       <c r="K10">
-        <v>1.042899490555881</v>
+        <v>1.015516712657937</v>
       </c>
       <c r="L10">
-        <v>1.04241714300206</v>
+        <v>1.002754607282244</v>
       </c>
       <c r="M10">
-        <v>1.035125914009289</v>
+        <v>0.9595770706541851</v>
       </c>
       <c r="N10">
-        <v>1.017391566399371</v>
+        <v>1.003554632703775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034253852941645</v>
+        <v>0.972373685272469</v>
       </c>
       <c r="D11">
-        <v>1.038760289366888</v>
+        <v>0.9967736727748013</v>
       </c>
       <c r="E11">
-        <v>1.038127960787723</v>
+        <v>0.9830265347967425</v>
       </c>
       <c r="F11">
-        <v>1.030351951797182</v>
+        <v>0.9361869336624533</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039492544873438</v>
+        <v>1.032034892820911</v>
       </c>
       <c r="J11">
-        <v>1.040827575815558</v>
+        <v>1.002942690013589</v>
       </c>
       <c r="K11">
-        <v>1.042317190142866</v>
+        <v>1.011756690467638</v>
       </c>
       <c r="L11">
-        <v>1.041687193523251</v>
+        <v>0.9982758051911187</v>
       </c>
       <c r="M11">
-        <v>1.033940120676688</v>
+        <v>0.9524216990270644</v>
       </c>
       <c r="N11">
-        <v>1.017154755217247</v>
+        <v>1.002000646183056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033922913699335</v>
+        <v>0.9702533193539993</v>
       </c>
       <c r="D12">
-        <v>1.038497740782262</v>
+        <v>0.9951067870845798</v>
       </c>
       <c r="E12">
-        <v>1.037810360255877</v>
+        <v>0.9810764631251135</v>
       </c>
       <c r="F12">
-        <v>1.02986383012608</v>
+        <v>0.9331686891274025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039371980997601</v>
+        <v>1.031094337056775</v>
       </c>
       <c r="J12">
-        <v>1.040584193403401</v>
+        <v>1.001372235870541</v>
       </c>
       <c r="K12">
-        <v>1.04210045954529</v>
+        <v>1.010328337624772</v>
       </c>
       <c r="L12">
-        <v>1.041415649658298</v>
+        <v>0.9965754157466983</v>
       </c>
       <c r="M12">
-        <v>1.033499113762731</v>
+        <v>0.9496989638134049</v>
       </c>
       <c r="N12">
-        <v>1.017066528136097</v>
+        <v>1.001410174826629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033993918757466</v>
+        <v>0.9707102648374761</v>
       </c>
       <c r="D13">
-        <v>1.03855407339993</v>
+        <v>0.9954659557278165</v>
       </c>
       <c r="E13">
-        <v>1.037878500839715</v>
+        <v>0.9814966457400638</v>
       </c>
       <c r="F13">
-        <v>1.029968556281745</v>
+        <v>0.9338194935756662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039397862262178</v>
+        <v>1.031297143287895</v>
       </c>
       <c r="J13">
-        <v>1.040636420450717</v>
+        <v>1.001710739811186</v>
       </c>
       <c r="K13">
-        <v>1.042146968924063</v>
+        <v>1.010636211635791</v>
       </c>
       <c r="L13">
-        <v>1.041473915325088</v>
+        <v>0.9969418805785528</v>
       </c>
       <c r="M13">
-        <v>1.033593736424504</v>
+        <v>0.9502860617662325</v>
       </c>
       <c r="N13">
-        <v>1.017085465168893</v>
+        <v>1.00153745344367</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034226505262022</v>
+        <v>0.972199363490923</v>
       </c>
       <c r="D14">
-        <v>1.038738593796709</v>
+        <v>0.9966366105823872</v>
       </c>
       <c r="E14">
-        <v>1.038101714214834</v>
+        <v>0.9828661848706052</v>
       </c>
       <c r="F14">
-        <v>1.030311613578445</v>
+        <v>0.9359389554247201</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039482587993007</v>
+        <v>1.031957617896448</v>
       </c>
       <c r="J14">
-        <v>1.040807467068109</v>
+        <v>1.002813607888731</v>
       </c>
       <c r="K14">
-        <v>1.042299284099767</v>
+        <v>1.011639288006798</v>
       </c>
       <c r="L14">
-        <v>1.041664755990603</v>
+        <v>0.9981360225149131</v>
       </c>
       <c r="M14">
-        <v>1.033903678234922</v>
+        <v>0.9521980054933675</v>
       </c>
       <c r="N14">
-        <v>1.017147467756293</v>
+        <v>1.001952115402091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034369758486652</v>
+        <v>0.9731107238855005</v>
       </c>
       <c r="D15">
-        <v>1.038852238925101</v>
+        <v>0.997353220533486</v>
       </c>
       <c r="E15">
-        <v>1.038239201920226</v>
+        <v>0.9837045565571858</v>
       </c>
       <c r="F15">
-        <v>1.030522917227543</v>
+        <v>0.9372350805225166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039534732093705</v>
+        <v>1.032361511375066</v>
       </c>
       <c r="J15">
-        <v>1.040912794056521</v>
+        <v>1.003488394166351</v>
       </c>
       <c r="K15">
-        <v>1.042393072249188</v>
+        <v>1.012253018177586</v>
       </c>
       <c r="L15">
-        <v>1.04178228492385</v>
+        <v>0.9988667878786702</v>
       </c>
       <c r="M15">
-        <v>1.034094570164971</v>
+        <v>0.9533671877011479</v>
       </c>
       <c r="N15">
-        <v>1.017185634427562</v>
+        <v>1.002205808163853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035202782141205</v>
+        <v>0.9783253217229039</v>
       </c>
       <c r="D16">
-        <v>1.039513035883626</v>
+        <v>1.001455554562835</v>
       </c>
       <c r="E16">
-        <v>1.039038813230327</v>
+        <v>0.9885042335923205</v>
       </c>
       <c r="F16">
-        <v>1.031751813177523</v>
+        <v>0.9446367541867805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039837347235076</v>
+        <v>1.034667471952643</v>
       </c>
       <c r="J16">
-        <v>1.04152492442743</v>
+        <v>1.007346456492118</v>
       </c>
       <c r="K16">
-        <v>1.042938074778898</v>
+        <v>1.015761977529331</v>
       </c>
       <c r="L16">
-        <v>1.042465530510977</v>
+        <v>1.003046898336124</v>
       </c>
       <c r="M16">
-        <v>1.035204534937774</v>
+        <v>0.9600432536665374</v>
       </c>
       <c r="N16">
-        <v>1.01740724576626</v>
+        <v>1.003655975745887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035724643085633</v>
+        <v>0.9815207642922729</v>
       </c>
       <c r="D17">
-        <v>1.039926954133056</v>
+        <v>1.003971091685024</v>
       </c>
       <c r="E17">
-        <v>1.039539842823904</v>
+        <v>0.9914477069091424</v>
       </c>
       <c r="F17">
-        <v>1.032521816866183</v>
+        <v>0.9491608489439178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040026392418609</v>
+        <v>1.036076102475558</v>
       </c>
       <c r="J17">
-        <v>1.041908094533875</v>
+        <v>1.009708073608013</v>
       </c>
       <c r="K17">
-        <v>1.043279165822532</v>
+        <v>1.017909849706024</v>
       </c>
       <c r="L17">
-        <v>1.042893392961091</v>
+        <v>1.005607369093739</v>
       </c>
       <c r="M17">
-        <v>1.035899823701981</v>
+        <v>0.9641231289606959</v>
       </c>
       <c r="N17">
-        <v>1.017545787297692</v>
+        <v>1.004543329852619</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036028796107694</v>
+        <v>0.9833587516110608</v>
       </c>
       <c r="D18">
-        <v>1.040168177812598</v>
+        <v>1.00541856092351</v>
       </c>
       <c r="E18">
-        <v>1.039831890847182</v>
+        <v>0.9931415578726882</v>
       </c>
       <c r="F18">
-        <v>1.032970646529183</v>
+        <v>0.951759309148295</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04013638036856</v>
+        <v>1.036884724724673</v>
       </c>
       <c r="J18">
-        <v>1.042131303960805</v>
+        <v>1.011065529462433</v>
       </c>
       <c r="K18">
-        <v>1.043477841195917</v>
+        <v>1.019144413875719</v>
       </c>
       <c r="L18">
-        <v>1.043142700942109</v>
+        <v>1.007079736516859</v>
       </c>
       <c r="M18">
-        <v>1.036305032293195</v>
+        <v>0.9664661518400183</v>
       </c>
       <c r="N18">
-        <v>1.017626427832425</v>
+        <v>1.005053239561879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036132464045861</v>
+        <v>0.9839811931029033</v>
       </c>
       <c r="D19">
-        <v>1.040250393787892</v>
+        <v>1.005908842241139</v>
       </c>
       <c r="E19">
-        <v>1.039931438994707</v>
+        <v>0.9937153190239145</v>
       </c>
       <c r="F19">
-        <v>1.033123635440953</v>
+        <v>0.9526386864514931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04017383622379</v>
+        <v>1.037158293701953</v>
       </c>
       <c r="J19">
-        <v>1.042207364097851</v>
+        <v>1.011525080133833</v>
       </c>
       <c r="K19">
-        <v>1.043545537514209</v>
+        <v>1.019562354526657</v>
       </c>
       <c r="L19">
-        <v>1.043227665156609</v>
+        <v>1.007578292037822</v>
       </c>
       <c r="M19">
-        <v>1.036443140519236</v>
+        <v>0.9672590297552427</v>
       </c>
       <c r="N19">
-        <v>1.017653895679919</v>
+        <v>1.005225837584947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035668677197332</v>
+        <v>0.9811806277544263</v>
       </c>
       <c r="D20">
-        <v>1.039882566165482</v>
+        <v>1.003703268260656</v>
       </c>
       <c r="E20">
-        <v>1.039486107221128</v>
+        <v>0.9911343078484866</v>
       </c>
       <c r="F20">
-        <v>1.032439233973016</v>
+        <v>0.9486796841542364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040006138536496</v>
+        <v>1.035926328776038</v>
       </c>
       <c r="J20">
-        <v>1.041867013766805</v>
+        <v>1.009456788925401</v>
       </c>
       <c r="K20">
-        <v>1.043242598704303</v>
+        <v>1.017681311227002</v>
       </c>
       <c r="L20">
-        <v>1.042847514000748</v>
+        <v>1.00533486197216</v>
       </c>
       <c r="M20">
-        <v>1.035825261253494</v>
+        <v>0.9636892394523743</v>
       </c>
       <c r="N20">
-        <v>1.017530940538449</v>
+        <v>1.004448926296381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03415802497333</v>
+        <v>0.9717621453558272</v>
       </c>
       <c r="D21">
-        <v>1.038684266311809</v>
+        <v>0.9962928611649969</v>
       </c>
       <c r="E21">
-        <v>1.038035992082655</v>
+        <v>0.9824640322083662</v>
       </c>
       <c r="F21">
-        <v>1.030210605386742</v>
+        <v>0.9353168730108002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039457650512154</v>
+        <v>1.031763763376078</v>
       </c>
       <c r="J21">
-        <v>1.040757110713949</v>
+        <v>1.002489832187557</v>
       </c>
       <c r="K21">
-        <v>1.042254443224031</v>
+        <v>1.01134480844349</v>
       </c>
       <c r="L21">
-        <v>1.041608569496179</v>
+        <v>0.9977854230320738</v>
       </c>
       <c r="M21">
-        <v>1.033812423428417</v>
+        <v>0.9516368393739083</v>
       </c>
       <c r="N21">
-        <v>1.017129216870591</v>
+        <v>1.001830383939613</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033205998432541</v>
+        <v>0.9655765582666241</v>
       </c>
       <c r="D22">
-        <v>1.037928932477895</v>
+        <v>0.9914323800190348</v>
       </c>
       <c r="E22">
-        <v>1.03712244489702</v>
+        <v>0.9767779751138962</v>
       </c>
       <c r="F22">
-        <v>1.028806543192029</v>
+        <v>0.926495927611024</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039110255448279</v>
+        <v>1.029015182767452</v>
       </c>
       <c r="J22">
-        <v>1.040056635591902</v>
+        <v>0.9979056749720949</v>
       </c>
       <c r="K22">
-        <v>1.041630611815696</v>
+        <v>1.007175495473415</v>
       </c>
       <c r="L22">
-        <v>1.04082723096476</v>
+        <v>0.9928239414166172</v>
       </c>
       <c r="M22">
-        <v>1.032543679088463</v>
+        <v>0.9436790873327149</v>
       </c>
       <c r="N22">
-        <v>1.016875103630445</v>
+        <v>1.000106609566503</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033710899055229</v>
+        <v>0.9688823033625683</v>
       </c>
       <c r="D23">
-        <v>1.038329532855843</v>
+        <v>0.9940293080117918</v>
       </c>
       <c r="E23">
-        <v>1.037606907005805</v>
+        <v>0.9798159605221217</v>
       </c>
       <c r="F23">
-        <v>1.029551138091992</v>
+        <v>0.9312148002989558</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039294658077876</v>
+        <v>1.030485470874872</v>
       </c>
       <c r="J23">
-        <v>1.040428222793173</v>
+        <v>1.000356376199007</v>
       </c>
       <c r="K23">
-        <v>1.041961559299456</v>
+        <v>1.009404402597531</v>
       </c>
       <c r="L23">
-        <v>1.04124165991591</v>
+        <v>0.9954757951014684</v>
       </c>
       <c r="M23">
-        <v>1.033216572812288</v>
+        <v>0.9479363029777789</v>
       </c>
       <c r="N23">
-        <v>1.017009960043199</v>
+        <v>1.001028192885243</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035693966512912</v>
+        <v>0.9813344004097043</v>
       </c>
       <c r="D24">
-        <v>1.039902623819032</v>
+        <v>1.003824347090738</v>
       </c>
       <c r="E24">
-        <v>1.039510388625963</v>
+        <v>0.9912759902712056</v>
       </c>
       <c r="F24">
-        <v>1.03247655055416</v>
+        <v>0.9488972259849621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040015291255448</v>
+        <v>1.035994045114699</v>
       </c>
       <c r="J24">
-        <v>1.041885577283978</v>
+        <v>1.009570395330551</v>
       </c>
       <c r="K24">
-        <v>1.043259122667196</v>
+        <v>1.01778463411947</v>
       </c>
       <c r="L24">
-        <v>1.042868245521386</v>
+        <v>1.005458061195812</v>
       </c>
       <c r="M24">
-        <v>1.035858953868163</v>
+        <v>0.9638854083461142</v>
       </c>
       <c r="N24">
-        <v>1.017537649670009</v>
+        <v>1.004491606812717</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037985835782106</v>
+        <v>0.9947802277398329</v>
       </c>
       <c r="D25">
-        <v>1.041719976809376</v>
+        <v>1.014421858832139</v>
       </c>
       <c r="E25">
-        <v>1.041711687408803</v>
+        <v>1.003680525797494</v>
       </c>
       <c r="F25">
-        <v>1.035859606688001</v>
+        <v>0.9678507784048541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040840618046808</v>
+        <v>1.041880904464925</v>
       </c>
       <c r="J25">
-        <v>1.043565513003633</v>
+        <v>1.01948454407364</v>
       </c>
       <c r="K25">
-        <v>1.044754016779552</v>
+        <v>1.02680034449181</v>
       </c>
       <c r="L25">
-        <v>1.044745753108023</v>
+        <v>1.01622197376798</v>
       </c>
       <c r="M25">
-        <v>1.038911948656513</v>
+        <v>0.9809695518128894</v>
       </c>
       <c r="N25">
-        <v>1.018143406508395</v>
+        <v>1.008212650194353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004825604618779</v>
+        <v>1.022477842035176</v>
       </c>
       <c r="D2">
-        <v>1.022351332585125</v>
+        <v>1.041082325779523</v>
       </c>
       <c r="E2">
-        <v>1.012968906887517</v>
+        <v>1.040053156973349</v>
       </c>
       <c r="F2">
-        <v>0.9819357014953207</v>
+        <v>1.046566217476646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046228843979583</v>
+        <v>1.057732323368248</v>
       </c>
       <c r="J2">
-        <v>1.026862934467382</v>
+        <v>1.044006418317032</v>
       </c>
       <c r="K2">
-        <v>1.033507818300844</v>
+        <v>1.051997517916397</v>
       </c>
       <c r="L2">
-        <v>1.024250473268108</v>
+        <v>1.050981325286084</v>
       </c>
       <c r="M2">
-        <v>0.9936525724464886</v>
+        <v>1.05741280256115</v>
       </c>
       <c r="N2">
-        <v>1.010975428863766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018399962514186</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054010648555227</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047836970958062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011778574553695</v>
+        <v>1.025857223845049</v>
       </c>
       <c r="D3">
-        <v>1.027844827224069</v>
+        <v>1.043390413712826</v>
       </c>
       <c r="E3">
-        <v>1.019408786159787</v>
+        <v>1.042856688354401</v>
       </c>
       <c r="F3">
-        <v>0.9916551753844222</v>
+        <v>1.049152904460332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049208723357435</v>
+        <v>1.058631176983775</v>
       </c>
       <c r="J3">
-        <v>1.031953213820072</v>
+        <v>1.045666982556259</v>
       </c>
       <c r="K3">
-        <v>1.038133405794107</v>
+        <v>1.053496649858608</v>
       </c>
       <c r="L3">
-        <v>1.029799207750126</v>
+        <v>1.052969073522068</v>
       </c>
       <c r="M3">
-        <v>1.002395955181537</v>
+        <v>1.059193242599887</v>
       </c>
       <c r="N3">
-        <v>1.01287676514603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018963578227702</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055419720385976</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048894328884522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016134731350516</v>
+        <v>1.028009092123569</v>
       </c>
       <c r="D4">
-        <v>1.031288377899521</v>
+        <v>1.044863679905688</v>
       </c>
       <c r="E4">
-        <v>1.023448152649837</v>
+        <v>1.044647360657113</v>
       </c>
       <c r="F4">
-        <v>0.9977347413798988</v>
+        <v>1.050806136810273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051061784375398</v>
+        <v>1.059194683549138</v>
       </c>
       <c r="J4">
-        <v>1.035134524184721</v>
+        <v>1.046722480721536</v>
       </c>
       <c r="K4">
-        <v>1.041023294232825</v>
+        <v>1.054449191115969</v>
       </c>
       <c r="L4">
-        <v>1.033271582021755</v>
+        <v>1.054235215252977</v>
       </c>
       <c r="M4">
-        <v>1.007860583184057</v>
+        <v>1.060327735532633</v>
       </c>
       <c r="N4">
-        <v>1.014062623580843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019321861439441</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056317576856027</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049568724466778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017933832716941</v>
+        <v>1.028908543364067</v>
       </c>
       <c r="D5">
-        <v>1.032710921501402</v>
+        <v>1.04548212705003</v>
       </c>
       <c r="E5">
-        <v>1.025117491474725</v>
+        <v>1.045397607007258</v>
       </c>
       <c r="F5">
-        <v>1.000243744909066</v>
+        <v>1.051499162070623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051823737402676</v>
+        <v>1.059429481476443</v>
       </c>
       <c r="J5">
-        <v>1.036446512941428</v>
+        <v>1.047164612104337</v>
       </c>
       <c r="K5">
-        <v>1.042214837901129</v>
+        <v>1.054849311382713</v>
       </c>
       <c r="L5">
-        <v>1.034704690028477</v>
+        <v>1.054765682802926</v>
       </c>
       <c r="M5">
-        <v>1.010114702662596</v>
+        <v>1.060803332317648</v>
       </c>
       <c r="N5">
-        <v>1.014551055299974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019472320634636</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056693971703028</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049858712435955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018234074149971</v>
+        <v>1.029062653163906</v>
       </c>
       <c r="D6">
-        <v>1.032948339885652</v>
+        <v>1.04559034167784</v>
       </c>
       <c r="E6">
-        <v>1.025396139348619</v>
+        <v>1.045526804863643</v>
       </c>
       <c r="F6">
-        <v>1.000662361244617</v>
+        <v>1.05161865596195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051950696371474</v>
+        <v>1.059471306896021</v>
       </c>
       <c r="J6">
-        <v>1.036665350800762</v>
+        <v>1.047242065835021</v>
       </c>
       <c r="K6">
-        <v>1.042413569728556</v>
+        <v>1.054920855347123</v>
       </c>
       <c r="L6">
-        <v>1.034943793966774</v>
+        <v>1.054857985638173</v>
       </c>
       <c r="M6">
-        <v>1.010490726508355</v>
+        <v>1.060886322836615</v>
       </c>
       <c r="N6">
-        <v>1.014632487317889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019499132401878</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056759651698424</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04991792855637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016158895178028</v>
+        <v>1.028030709038542</v>
       </c>
       <c r="D7">
-        <v>1.031307482870238</v>
+        <v>1.044884428475716</v>
       </c>
       <c r="E7">
-        <v>1.023470569443965</v>
+        <v>1.044666932169376</v>
       </c>
       <c r="F7">
-        <v>0.9977684467256802</v>
+        <v>1.050824567631906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051072031575514</v>
+        <v>1.059204948213395</v>
       </c>
       <c r="J7">
-        <v>1.035152153119269</v>
+        <v>1.04673774557541</v>
       </c>
       <c r="K7">
-        <v>1.041039305832565</v>
+        <v>1.054466884986256</v>
       </c>
       <c r="L7">
-        <v>1.033290834127965</v>
+        <v>1.054251743922527</v>
       </c>
       <c r="M7">
-        <v>1.007890868907609</v>
+        <v>1.0603431607117</v>
       </c>
       <c r="N7">
-        <v>1.014069189057122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019328288986501</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056329784590567</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049601084628826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007206228085303</v>
+        <v>1.023639211316225</v>
       </c>
       <c r="D8">
-        <v>1.024231821819396</v>
+        <v>1.04188202389995</v>
       </c>
       <c r="E8">
-        <v>1.015172835760829</v>
+        <v>1.041017420860677</v>
       </c>
       <c r="F8">
-        <v>0.9852659519164787</v>
+        <v>1.047456079935438</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047252037635485</v>
+        <v>1.058048681514074</v>
       </c>
       <c r="J8">
-        <v>1.028607438276101</v>
+        <v>1.044583227217164</v>
       </c>
       <c r="K8">
-        <v>1.035093264440351</v>
+        <v>1.052523057343447</v>
       </c>
       <c r="L8">
-        <v>1.026151129954322</v>
+        <v>1.051669034607066</v>
       </c>
       <c r="M8">
-        <v>0.9966492746826104</v>
+        <v>1.058029423249596</v>
       </c>
       <c r="N8">
-        <v>1.011627532141562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018597338733653</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054498653402858</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.0482311802509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9902364370259543</v>
+        <v>1.015608597527181</v>
       </c>
       <c r="D9">
-        <v>1.010838389115904</v>
+        <v>1.036411788106255</v>
       </c>
       <c r="E9">
-        <v>0.9994850830427784</v>
+        <v>1.034385645485379</v>
       </c>
       <c r="F9">
-        <v>0.9614599931786209</v>
+        <v>1.041343050432884</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039899476154605</v>
+        <v>1.055858493911194</v>
       </c>
       <c r="J9">
-        <v>1.016138746319674</v>
+        <v>1.040621965260285</v>
       </c>
       <c r="K9">
-        <v>1.02375803486275</v>
+        <v>1.048940495299635</v>
       </c>
       <c r="L9">
-        <v>1.012586519943271</v>
+        <v>1.046944429498918</v>
       </c>
       <c r="M9">
-        <v>0.975210917614881</v>
+        <v>1.053799176824889</v>
       </c>
       <c r="N9">
-        <v>1.006957794162644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017251684048351</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051150752964453</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045694996852685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9779606109870749</v>
+        <v>1.010110993428731</v>
       </c>
       <c r="D10">
-        <v>1.001168524274803</v>
+        <v>1.032707481233531</v>
       </c>
       <c r="E10">
-        <v>0.9881683922587519</v>
+        <v>1.029902747641267</v>
       </c>
       <c r="F10">
-        <v>0.9441198546522273</v>
+        <v>1.037248554673615</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034506478848269</v>
+        <v>1.054335001322688</v>
       </c>
       <c r="J10">
-        <v>1.007076787824066</v>
+        <v>1.037929116810635</v>
       </c>
       <c r="K10">
-        <v>1.015516712657937</v>
+        <v>1.046510278809893</v>
       </c>
       <c r="L10">
-        <v>1.002754607282244</v>
+        <v>1.043752302401546</v>
       </c>
       <c r="M10">
-        <v>0.9595770706541851</v>
+        <v>1.050976338379126</v>
       </c>
       <c r="N10">
-        <v>1.003554632703775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016343345939523</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.048967486570836</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043993337088443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.972373685272469</v>
+        <v>1.008127698989246</v>
       </c>
       <c r="D11">
-        <v>0.9967736727748013</v>
+        <v>1.031518556449476</v>
       </c>
       <c r="E11">
-        <v>0.9830265347967425</v>
+        <v>1.028495603377902</v>
       </c>
       <c r="F11">
-        <v>0.9361869336624533</v>
+        <v>1.036218715170359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032034892820911</v>
+        <v>1.053928229979591</v>
       </c>
       <c r="J11">
-        <v>1.002942690013589</v>
+        <v>1.037166221983188</v>
       </c>
       <c r="K11">
-        <v>1.011756690467638</v>
+        <v>1.045869589876775</v>
       </c>
       <c r="L11">
-        <v>0.9982758051911187</v>
+        <v>1.042899424803934</v>
       </c>
       <c r="M11">
-        <v>0.9524216990270644</v>
+        <v>1.050488463417799</v>
       </c>
       <c r="N11">
-        <v>1.002000646183056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016135378077737</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049012362056828</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043572821272149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9702533193539993</v>
+        <v>1.007543808546027</v>
       </c>
       <c r="D12">
-        <v>0.9951067870845798</v>
+        <v>1.031227338927476</v>
       </c>
       <c r="E12">
-        <v>0.9810764631251135</v>
+        <v>1.028171247570394</v>
       </c>
       <c r="F12">
-        <v>0.9331686891274025</v>
+        <v>1.036110484139751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031094337056775</v>
+        <v>1.053870896189234</v>
       </c>
       <c r="J12">
-        <v>1.001372235870541</v>
+        <v>1.037032297099055</v>
       </c>
       <c r="K12">
-        <v>1.010328337624772</v>
+        <v>1.04577976760158</v>
       </c>
       <c r="L12">
-        <v>0.9965754157466983</v>
+        <v>1.042777926097342</v>
       </c>
       <c r="M12">
-        <v>0.9496989638134049</v>
+        <v>1.050577090481209</v>
       </c>
       <c r="N12">
-        <v>1.001410174826629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016128400702665</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049405295630372</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.0435093153715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9707102648374761</v>
+        <v>1.008011521260554</v>
       </c>
       <c r="D13">
-        <v>0.9954659557278165</v>
+        <v>1.031624522719771</v>
       </c>
       <c r="E13">
-        <v>0.9814966457400638</v>
+        <v>1.028673290457909</v>
       </c>
       <c r="F13">
-        <v>0.9338194935756662</v>
+        <v>1.036725006463382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031297143287895</v>
+        <v>1.05409315945326</v>
       </c>
       <c r="J13">
-        <v>1.001710739811186</v>
+        <v>1.037389251075825</v>
       </c>
       <c r="K13">
-        <v>1.010636211635791</v>
+        <v>1.046127844074661</v>
       </c>
       <c r="L13">
-        <v>0.9969418805785528</v>
+        <v>1.04322876660621</v>
       </c>
       <c r="M13">
-        <v>0.9502860617662325</v>
+        <v>1.051139097171146</v>
       </c>
       <c r="N13">
-        <v>1.00153745344367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016282684330917</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.05012365482552</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043752947618074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.972199363490923</v>
+        <v>1.008816189400912</v>
       </c>
       <c r="D14">
-        <v>0.9966366105823872</v>
+        <v>1.032215835927809</v>
       </c>
       <c r="E14">
-        <v>0.9828661848706052</v>
+        <v>1.029399590829989</v>
       </c>
       <c r="F14">
-        <v>0.9359389554247201</v>
+        <v>1.0374833282821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031957617896448</v>
+        <v>1.05437577668319</v>
       </c>
       <c r="J14">
-        <v>1.002813607888731</v>
+        <v>1.037861885789239</v>
       </c>
       <c r="K14">
-        <v>1.011639288006798</v>
+        <v>1.046570957059082</v>
       </c>
       <c r="L14">
-        <v>0.9981360225149131</v>
+        <v>1.043803855305338</v>
       </c>
       <c r="M14">
-        <v>0.9521980054933675</v>
+        <v>1.05174745762369</v>
       </c>
       <c r="N14">
-        <v>1.001952115402091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016463923488675</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050776407504437</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044067644339735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9731107238855005</v>
+        <v>1.009246336989537</v>
       </c>
       <c r="D15">
-        <v>0.997353220533486</v>
+        <v>1.032517332196908</v>
       </c>
       <c r="E15">
-        <v>0.9837045565571858</v>
+        <v>1.029764811559368</v>
       </c>
       <c r="F15">
-        <v>0.9372350805225166</v>
+        <v>1.037837959768227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032361511375066</v>
+        <v>1.054510183139034</v>
       </c>
       <c r="J15">
-        <v>1.003488394166351</v>
+        <v>1.038090659444882</v>
       </c>
       <c r="K15">
-        <v>1.012253018177586</v>
+        <v>1.046782340942404</v>
       </c>
       <c r="L15">
-        <v>0.9988667878786702</v>
+        <v>1.044077484967675</v>
       </c>
       <c r="M15">
-        <v>0.9533671877011479</v>
+        <v>1.052011758186331</v>
       </c>
       <c r="N15">
-        <v>1.002205808163853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016546037172131</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051022557619302</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04422289857925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9783253217229039</v>
+        <v>1.011484833803398</v>
       </c>
       <c r="D16">
-        <v>1.001455554562835</v>
+        <v>1.034015194733425</v>
       </c>
       <c r="E16">
-        <v>0.9885042335923205</v>
+        <v>1.031572237228817</v>
       </c>
       <c r="F16">
-        <v>0.9446367541867805</v>
+        <v>1.039477955323866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034667471952643</v>
+        <v>1.055130668147498</v>
       </c>
       <c r="J16">
-        <v>1.007346456492118</v>
+        <v>1.039174727836804</v>
       </c>
       <c r="K16">
-        <v>1.015761977529331</v>
+        <v>1.047761346466651</v>
       </c>
       <c r="L16">
-        <v>1.003046898336124</v>
+        <v>1.045358845808896</v>
       </c>
       <c r="M16">
-        <v>0.9600432536665374</v>
+        <v>1.05313452447618</v>
       </c>
       <c r="N16">
-        <v>1.003655975745887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016905767744967</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051871588434314</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044918205051449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9815207642922729</v>
+        <v>1.012782252086312</v>
       </c>
       <c r="D17">
-        <v>1.003971091685024</v>
+        <v>1.034855675520469</v>
       </c>
       <c r="E17">
-        <v>0.9914477069091424</v>
+        <v>1.032579259816463</v>
       </c>
       <c r="F17">
-        <v>0.9491608489439178</v>
+        <v>1.040335868252548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036076102475558</v>
+        <v>1.055456041282248</v>
       </c>
       <c r="J17">
-        <v>1.009708073608013</v>
+        <v>1.039757936768824</v>
       </c>
       <c r="K17">
-        <v>1.017909849706024</v>
+        <v>1.048278965616399</v>
       </c>
       <c r="L17">
-        <v>1.005607369093739</v>
+        <v>1.046039192476697</v>
       </c>
       <c r="M17">
-        <v>0.9641231289606959</v>
+        <v>1.053671788169519</v>
       </c>
       <c r="N17">
-        <v>1.004543329852619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017086437705385</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052168325217133</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045286730938239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9833587516110608</v>
+        <v>1.013377996750268</v>
       </c>
       <c r="D18">
-        <v>1.00541856092351</v>
+        <v>1.035187160810566</v>
       </c>
       <c r="E18">
-        <v>0.9931415578726882</v>
+        <v>1.03296594685515</v>
       </c>
       <c r="F18">
-        <v>0.951759309148295</v>
+        <v>1.040561915444987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036884724724673</v>
+        <v>1.055546168149151</v>
       </c>
       <c r="J18">
-        <v>1.011065529462433</v>
+        <v>1.039944955299417</v>
       </c>
       <c r="K18">
-        <v>1.019144413875719</v>
+        <v>1.048424954910911</v>
       </c>
       <c r="L18">
-        <v>1.007079736516859</v>
+        <v>1.046238913728904</v>
       </c>
       <c r="M18">
-        <v>0.9664661518400183</v>
+        <v>1.05371539488785</v>
       </c>
       <c r="N18">
-        <v>1.005053239561879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017121137672524</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051967417893201</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045378450933372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9839811931029033</v>
+        <v>1.013348685128549</v>
       </c>
       <c r="D19">
-        <v>1.005908842241139</v>
+        <v>1.035072509719784</v>
       </c>
       <c r="E19">
-        <v>0.9937153190239145</v>
+        <v>1.032799119176554</v>
       </c>
       <c r="F19">
-        <v>0.9526386864514931</v>
+        <v>1.04022330478974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037158293701953</v>
+        <v>1.055433619102114</v>
       </c>
       <c r="J19">
-        <v>1.011525080133833</v>
+        <v>1.039784972621319</v>
       </c>
       <c r="K19">
-        <v>1.019562354526657</v>
+        <v>1.048250665090827</v>
       </c>
       <c r="L19">
-        <v>1.007578292037822</v>
+        <v>1.046013094622607</v>
       </c>
       <c r="M19">
-        <v>0.9672590297552427</v>
+        <v>1.053321043099884</v>
       </c>
       <c r="N19">
-        <v>1.005225837584947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017031314558391</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051333700352287</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045261544180781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9811806277544263</v>
+        <v>1.011559532208392</v>
       </c>
       <c r="D20">
-        <v>1.003703268260656</v>
+        <v>1.033697058134426</v>
       </c>
       <c r="E20">
-        <v>0.9911343078484866</v>
+        <v>1.031086965797398</v>
       </c>
       <c r="F20">
-        <v>0.9486796841542364</v>
+        <v>1.038332184763626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035926328776038</v>
+        <v>1.054751343612683</v>
       </c>
       <c r="J20">
-        <v>1.009456788925401</v>
+        <v>1.038652012439451</v>
       </c>
       <c r="K20">
-        <v>1.017681311227002</v>
+        <v>1.047172180303879</v>
       </c>
       <c r="L20">
-        <v>1.00533486197216</v>
+        <v>1.044604359681141</v>
       </c>
       <c r="M20">
-        <v>0.9636892394523743</v>
+        <v>1.051732910236744</v>
       </c>
       <c r="N20">
-        <v>1.004448926296381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016591037972266</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049555808605282</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044502906199652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9717621453558272</v>
+        <v>1.007354135633844</v>
       </c>
       <c r="D21">
-        <v>0.9962928611649969</v>
+        <v>1.03084165951818</v>
       </c>
       <c r="E21">
-        <v>0.9824640322083662</v>
+        <v>1.027629332385271</v>
       </c>
       <c r="F21">
-        <v>0.9353168730108002</v>
+        <v>1.03512662669781</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031763763376078</v>
+        <v>1.053539963950843</v>
       </c>
       <c r="J21">
-        <v>1.002489832187557</v>
+        <v>1.036547569142896</v>
       </c>
       <c r="K21">
-        <v>1.01134480844349</v>
+        <v>1.045261373478096</v>
       </c>
       <c r="L21">
-        <v>0.9977854230320738</v>
+        <v>1.042105506682141</v>
       </c>
       <c r="M21">
-        <v>0.9516368393739083</v>
+        <v>1.049471733233975</v>
       </c>
       <c r="N21">
-        <v>1.001830383939613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015871867722295</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047725913289086</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043155113063619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9655765582666241</v>
+        <v>1.004680291672232</v>
       </c>
       <c r="D22">
-        <v>0.9914323800190348</v>
+        <v>1.029034338925729</v>
       </c>
       <c r="E22">
-        <v>0.9767779751138962</v>
+        <v>1.025449131043518</v>
       </c>
       <c r="F22">
-        <v>0.926495927611024</v>
+        <v>1.033122391946921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029015182767452</v>
+        <v>1.052766045380302</v>
       </c>
       <c r="J22">
-        <v>0.9979056749720949</v>
+        <v>1.035216427585461</v>
       </c>
       <c r="K22">
-        <v>1.007175495473415</v>
+        <v>1.044051758480275</v>
       </c>
       <c r="L22">
-        <v>0.9928239414166172</v>
+        <v>1.04053274999119</v>
       </c>
       <c r="M22">
-        <v>0.9436790873327149</v>
+        <v>1.048065056774377</v>
       </c>
       <c r="N22">
-        <v>1.000106609566503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015418327831171</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046612633362868</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042286523342926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9688823033625683</v>
+        <v>1.006093346052723</v>
       </c>
       <c r="D23">
-        <v>0.9940293080117918</v>
+        <v>1.02998386251998</v>
       </c>
       <c r="E23">
-        <v>0.9798159605221217</v>
+        <v>1.026599109697226</v>
       </c>
       <c r="F23">
-        <v>0.9312148002989558</v>
+        <v>1.034179208636079</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030485470874872</v>
+        <v>1.053172054490133</v>
       </c>
       <c r="J23">
-        <v>1.000356376199007</v>
+        <v>1.035915880892975</v>
       </c>
       <c r="K23">
-        <v>1.009404402597531</v>
+        <v>1.04468423151612</v>
       </c>
       <c r="L23">
-        <v>0.9954757951014684</v>
+        <v>1.041360377193853</v>
       </c>
       <c r="M23">
-        <v>0.9479363029777789</v>
+        <v>1.048804812692867</v>
       </c>
       <c r="N23">
-        <v>1.001028192885243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015655296242863</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047198095430599</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042724170077305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9813344004097043</v>
+        <v>1.011571811619717</v>
       </c>
       <c r="D24">
-        <v>1.003824347090738</v>
+        <v>1.033683841658174</v>
       </c>
       <c r="E24">
-        <v>0.9912759902712056</v>
+        <v>1.031074851793852</v>
       </c>
       <c r="F24">
-        <v>0.9488972259849621</v>
+        <v>1.038295558069686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035994045114699</v>
+        <v>1.054734260998258</v>
       </c>
       <c r="J24">
-        <v>1.009570395330551</v>
+        <v>1.038631577334875</v>
       </c>
       <c r="K24">
-        <v>1.01778463411947</v>
+        <v>1.047144171655084</v>
       </c>
       <c r="L24">
-        <v>1.005458061195812</v>
+        <v>1.04457738300607</v>
       </c>
       <c r="M24">
-        <v>0.9638854083461142</v>
+        <v>1.05168195701706</v>
       </c>
       <c r="N24">
-        <v>1.004491606812717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016577697713433</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.049475137851416</v>
+      </c>
+      <c r="Q24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R24">
+        <v>1.044456011728395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9947802277398329</v>
+        <v>1.017734300820886</v>
       </c>
       <c r="D25">
-        <v>1.014421858832139</v>
+        <v>1.037865113506711</v>
       </c>
       <c r="E25">
-        <v>1.003680525797494</v>
+        <v>1.03613818983859</v>
       </c>
       <c r="F25">
-        <v>0.9678507784048541</v>
+        <v>1.042957916308155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041880904464925</v>
+        <v>1.056452988869076</v>
       </c>
       <c r="J25">
-        <v>1.01948454407364</v>
+        <v>1.041679227847415</v>
       </c>
       <c r="K25">
-        <v>1.02680034449181</v>
+        <v>1.049902742559708</v>
       </c>
       <c r="L25">
-        <v>1.01622197376798</v>
+        <v>1.048200262173357</v>
       </c>
       <c r="M25">
-        <v>0.9809695518128894</v>
+        <v>1.054924055610764</v>
       </c>
       <c r="N25">
-        <v>1.008212650194353</v>
+        <v>1.017612929035822</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052041005670409</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046403590879843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022477842035176</v>
+        <v>1.02112646979618</v>
       </c>
       <c r="D2">
-        <v>1.041082325779523</v>
+        <v>1.038983130630212</v>
       </c>
       <c r="E2">
-        <v>1.040053156973349</v>
+        <v>1.038669627790474</v>
       </c>
       <c r="F2">
-        <v>1.046566217476646</v>
+        <v>1.045109832457064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057732323368248</v>
+        <v>1.056598531867185</v>
       </c>
       <c r="J2">
-        <v>1.044006418317032</v>
+        <v>1.042693144249813</v>
       </c>
       <c r="K2">
-        <v>1.051997517916397</v>
+        <v>1.049924824289888</v>
       </c>
       <c r="L2">
-        <v>1.050981325286084</v>
+        <v>1.04961529077776</v>
       </c>
       <c r="M2">
-        <v>1.05741280256115</v>
+        <v>1.055974550365817</v>
       </c>
       <c r="N2">
-        <v>1.018399962514186</v>
+        <v>1.018405675192903</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054010648555227</v>
+        <v>1.052872388339162</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047836970958062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046380101368511</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025237243316065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025857223845049</v>
+        <v>1.024386172791165</v>
       </c>
       <c r="D3">
-        <v>1.043390413712826</v>
+        <v>1.041134778231863</v>
       </c>
       <c r="E3">
-        <v>1.042856688354401</v>
+        <v>1.041353474545706</v>
       </c>
       <c r="F3">
-        <v>1.049152904460332</v>
+        <v>1.047580964698603</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058631176983775</v>
+        <v>1.057406365925346</v>
       </c>
       <c r="J3">
-        <v>1.045666982556259</v>
+        <v>1.044233422901067</v>
       </c>
       <c r="K3">
-        <v>1.053496649858608</v>
+        <v>1.051267054541229</v>
       </c>
       <c r="L3">
-        <v>1.052969073522068</v>
+        <v>1.051483220015585</v>
       </c>
       <c r="M3">
-        <v>1.059193242599887</v>
+        <v>1.057639190333497</v>
       </c>
       <c r="N3">
-        <v>1.018963578227702</v>
+        <v>1.01881978331999</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055419720385976</v>
+        <v>1.054189815999559</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048894328884522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047326245198549</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025499383368099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028009092123569</v>
+        <v>1.026462501111295</v>
       </c>
       <c r="D4">
-        <v>1.044863679905688</v>
+        <v>1.042508859225022</v>
       </c>
       <c r="E4">
-        <v>1.044647360657113</v>
+        <v>1.04306847926203</v>
       </c>
       <c r="F4">
-        <v>1.050806136810273</v>
+        <v>1.049161067222984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059194683549138</v>
+        <v>1.057912081884759</v>
       </c>
       <c r="J4">
-        <v>1.046722480721536</v>
+        <v>1.045212689264151</v>
       </c>
       <c r="K4">
-        <v>1.054449191115969</v>
+        <v>1.052119944414284</v>
       </c>
       <c r="L4">
-        <v>1.054235215252977</v>
+        <v>1.052673473993831</v>
       </c>
       <c r="M4">
-        <v>1.060327735532633</v>
+        <v>1.058700270256598</v>
       </c>
       <c r="N4">
-        <v>1.019321861439441</v>
+        <v>1.019083142572091</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056317576856027</v>
+        <v>1.05502957359027</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049568724466778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047930264399489</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025663708300965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028908543364067</v>
+        <v>1.027330497263444</v>
       </c>
       <c r="D5">
-        <v>1.04548212705003</v>
+        <v>1.043085982437431</v>
       </c>
       <c r="E5">
-        <v>1.045397607007258</v>
+        <v>1.043787200973972</v>
       </c>
       <c r="F5">
-        <v>1.051499162070623</v>
+        <v>1.049823629028288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059429481476443</v>
+        <v>1.058122767670526</v>
       </c>
       <c r="J5">
-        <v>1.047164612104337</v>
+        <v>1.04562301271423</v>
       </c>
       <c r="K5">
-        <v>1.054849311382713</v>
+        <v>1.052478508289693</v>
       </c>
       <c r="L5">
-        <v>1.054765682802926</v>
+        <v>1.053172296037376</v>
       </c>
       <c r="M5">
-        <v>1.060803332317648</v>
+        <v>1.059145257843196</v>
       </c>
       <c r="N5">
-        <v>1.019472320634636</v>
+        <v>1.019193793412293</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056693971703028</v>
+        <v>1.055381744432589</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049858712435955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04819158112207</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025732739135469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029062653163906</v>
+        <v>1.027479186221206</v>
       </c>
       <c r="D6">
-        <v>1.04559034167784</v>
+        <v>1.043187163827829</v>
       </c>
       <c r="E6">
-        <v>1.045526804863643</v>
+        <v>1.043910977420465</v>
       </c>
       <c r="F6">
-        <v>1.05161865596195</v>
+        <v>1.049937908822246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059471306896021</v>
+        <v>1.058160469908722</v>
       </c>
       <c r="J6">
-        <v>1.047242065835021</v>
+        <v>1.045694986180973</v>
       </c>
       <c r="K6">
-        <v>1.054920855347123</v>
+        <v>1.052542978886898</v>
       </c>
       <c r="L6">
-        <v>1.054857985638173</v>
+        <v>1.053259156958707</v>
       </c>
       <c r="M6">
-        <v>1.060886322836615</v>
+        <v>1.059223009350537</v>
       </c>
       <c r="N6">
-        <v>1.019499132401878</v>
+        <v>1.01921354533238</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056759651698424</v>
+        <v>1.055443278298268</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04991792855637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048246665043901</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025745717594108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.028030709038542</v>
+        <v>1.026490101810977</v>
       </c>
       <c r="D7">
-        <v>1.044884428475716</v>
+        <v>1.042533689590621</v>
       </c>
       <c r="E7">
-        <v>1.044666932169376</v>
+        <v>1.043093443722736</v>
       </c>
       <c r="F7">
-        <v>1.050824567631906</v>
+        <v>1.0491836983769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059204948213395</v>
+        <v>1.057925387097489</v>
       </c>
       <c r="J7">
-        <v>1.04673774557541</v>
+        <v>1.045233779854043</v>
       </c>
       <c r="K7">
-        <v>1.054466884986256</v>
+        <v>1.052141665901663</v>
       </c>
       <c r="L7">
-        <v>1.054251743922527</v>
+        <v>1.052695330498136</v>
       </c>
       <c r="M7">
-        <v>1.0603431607117</v>
+        <v>1.058719844154146</v>
       </c>
       <c r="N7">
-        <v>1.019328288986501</v>
+        <v>1.019115595094564</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056329784590567</v>
+        <v>1.055045064713442</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049601084628826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047967471711326</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025670163278444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023639211316225</v>
+        <v>1.022267440353745</v>
       </c>
       <c r="D8">
-        <v>1.04188202389995</v>
+        <v>1.039744353215221</v>
       </c>
       <c r="E8">
-        <v>1.041017420860677</v>
+        <v>1.039611625866612</v>
       </c>
       <c r="F8">
-        <v>1.047456079935438</v>
+        <v>1.045975026276387</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058048681514074</v>
+        <v>1.056894628422744</v>
       </c>
       <c r="J8">
-        <v>1.044583227217164</v>
+        <v>1.043248855699313</v>
       </c>
       <c r="K8">
-        <v>1.052523057343447</v>
+        <v>1.050411585562749</v>
       </c>
       <c r="L8">
-        <v>1.051669034607066</v>
+        <v>1.050280489315847</v>
       </c>
       <c r="M8">
-        <v>1.058029423249596</v>
+        <v>1.056566267776296</v>
       </c>
       <c r="N8">
-        <v>1.018597338733653</v>
+        <v>1.018634841132962</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054498653402858</v>
+        <v>1.053340684990072</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0482311802509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04674916048548</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02533678893304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015608597527181</v>
+        <v>1.014528599540695</v>
       </c>
       <c r="D9">
-        <v>1.036411788106255</v>
+        <v>1.034650627272067</v>
       </c>
       <c r="E9">
-        <v>1.034385645485379</v>
+        <v>1.033270418493401</v>
       </c>
       <c r="F9">
-        <v>1.041343050432884</v>
+        <v>1.040141599559803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055858493911194</v>
+        <v>1.054923326759356</v>
       </c>
       <c r="J9">
-        <v>1.040621965260285</v>
+        <v>1.039578544518693</v>
       </c>
       <c r="K9">
-        <v>1.048940495299635</v>
+        <v>1.047205469283925</v>
       </c>
       <c r="L9">
-        <v>1.046944429498918</v>
+        <v>1.045845821368838</v>
       </c>
       <c r="M9">
-        <v>1.053799176824889</v>
+        <v>1.052615329011081</v>
       </c>
       <c r="N9">
-        <v>1.017251684048351</v>
+        <v>1.017657026169264</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051150752964453</v>
+        <v>1.050213829788149</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045694996852685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044478858435471</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024696601226698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010110993428731</v>
+        <v>1.009261828830661</v>
       </c>
       <c r="D10">
-        <v>1.032707481233531</v>
+        <v>1.031225341069346</v>
       </c>
       <c r="E10">
-        <v>1.029902747641267</v>
+        <v>1.029013824547481</v>
       </c>
       <c r="F10">
-        <v>1.037248554673615</v>
+        <v>1.03626040072221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054335001322688</v>
+        <v>1.053564404512347</v>
       </c>
       <c r="J10">
-        <v>1.037929116810635</v>
+        <v>1.03711273723358</v>
       </c>
       <c r="K10">
-        <v>1.046510278809893</v>
+        <v>1.045052806300131</v>
       </c>
       <c r="L10">
-        <v>1.043752302401546</v>
+        <v>1.042878266945704</v>
       </c>
       <c r="M10">
-        <v>1.050976338379126</v>
+        <v>1.050004435721591</v>
       </c>
       <c r="N10">
-        <v>1.016343345939523</v>
+        <v>1.017115498657702</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048967486570836</v>
+        <v>1.04819834607845</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043993337088443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04297511852527</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024264326022475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008127698989246</v>
+        <v>1.007381268182942</v>
       </c>
       <c r="D11">
-        <v>1.031518556449476</v>
+        <v>1.03014396791928</v>
       </c>
       <c r="E11">
-        <v>1.028495603377902</v>
+        <v>1.027704324855126</v>
       </c>
       <c r="F11">
-        <v>1.036218715170359</v>
+        <v>1.035319348499338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053928229979591</v>
+        <v>1.053224341715519</v>
       </c>
       <c r="J11">
-        <v>1.037166221983188</v>
+        <v>1.036450169358636</v>
       </c>
       <c r="K11">
-        <v>1.045869589876775</v>
+        <v>1.044518955212078</v>
       </c>
       <c r="L11">
-        <v>1.042899424803934</v>
+        <v>1.042122030359401</v>
       </c>
       <c r="M11">
-        <v>1.050488463417799</v>
+        <v>1.049604576677937</v>
       </c>
       <c r="N11">
-        <v>1.016135378077737</v>
+        <v>1.017200356758062</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049012362056828</v>
+        <v>1.048313218778596</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043572821272149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04263335561923</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024205015281336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007543808546027</v>
+        <v>1.00682154968923</v>
       </c>
       <c r="D12">
-        <v>1.031227338927476</v>
+        <v>1.029876451199447</v>
       </c>
       <c r="E12">
-        <v>1.028171247570394</v>
+        <v>1.0274025414023</v>
       </c>
       <c r="F12">
-        <v>1.036110484139751</v>
+        <v>1.035231825085192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053870896189234</v>
+        <v>1.05318221648861</v>
       </c>
       <c r="J12">
-        <v>1.037032297099055</v>
+        <v>1.036339989070796</v>
       </c>
       <c r="K12">
-        <v>1.04577976760158</v>
+        <v>1.044452808484976</v>
       </c>
       <c r="L12">
-        <v>1.042777926097342</v>
+        <v>1.042022931486711</v>
       </c>
       <c r="M12">
-        <v>1.050577090481209</v>
+        <v>1.049713796663727</v>
       </c>
       <c r="N12">
-        <v>1.016128400702665</v>
+        <v>1.017297875422852</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049405295630372</v>
+        <v>1.048722667331023</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.0435093153715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042586589591813</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024225226890587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008011521260554</v>
+        <v>1.007244704806546</v>
       </c>
       <c r="D13">
-        <v>1.031624522719771</v>
+        <v>1.030227201711222</v>
       </c>
       <c r="E13">
-        <v>1.028673290457909</v>
+        <v>1.027862044606148</v>
       </c>
       <c r="F13">
-        <v>1.036725006463382</v>
+        <v>1.035808996952718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05409315945326</v>
+        <v>1.05337598541758</v>
       </c>
       <c r="J13">
-        <v>1.037389251075825</v>
+        <v>1.03665407728422</v>
       </c>
       <c r="K13">
-        <v>1.046127844074661</v>
+        <v>1.044755168512483</v>
       </c>
       <c r="L13">
-        <v>1.04322876660621</v>
+        <v>1.04243192536421</v>
       </c>
       <c r="M13">
-        <v>1.051139097171146</v>
+        <v>1.050239029009189</v>
       </c>
       <c r="N13">
-        <v>1.016282684330917</v>
+        <v>1.017381360504143</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.05012365482552</v>
+        <v>1.049412123750115</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043752947618074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042797653038644</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024313330162044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008816189400912</v>
+        <v>1.007987914313644</v>
       </c>
       <c r="D14">
-        <v>1.032215835927809</v>
+        <v>1.030754980914976</v>
       </c>
       <c r="E14">
-        <v>1.029399590829989</v>
+        <v>1.02852986509199</v>
       </c>
       <c r="F14">
-        <v>1.0374833282821</v>
+        <v>1.036515560816485</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05437577668319</v>
+        <v>1.05361932976082</v>
       </c>
       <c r="J14">
-        <v>1.037861885789239</v>
+        <v>1.037067306349302</v>
       </c>
       <c r="K14">
-        <v>1.046570957059082</v>
+        <v>1.045135550487709</v>
       </c>
       <c r="L14">
-        <v>1.043803855305338</v>
+        <v>1.042949376720275</v>
       </c>
       <c r="M14">
-        <v>1.05174745762369</v>
+        <v>1.050796317921662</v>
       </c>
       <c r="N14">
-        <v>1.016463923488675</v>
+        <v>1.017435056276701</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050776407504437</v>
+        <v>1.050024602924534</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044067644339735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043068131665215</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024406399622253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009246336989537</v>
+        <v>1.008388470240069</v>
       </c>
       <c r="D15">
-        <v>1.032517332196908</v>
+        <v>1.031025838821015</v>
       </c>
       <c r="E15">
-        <v>1.029764811559368</v>
+        <v>1.028866931522344</v>
       </c>
       <c r="F15">
-        <v>1.037837959768227</v>
+        <v>1.036845142642033</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054510183139034</v>
+        <v>1.053734758234654</v>
       </c>
       <c r="J15">
-        <v>1.038090659444882</v>
+        <v>1.037267391585539</v>
       </c>
       <c r="K15">
-        <v>1.046782340942404</v>
+        <v>1.045316634484342</v>
       </c>
       <c r="L15">
-        <v>1.044077484967675</v>
+        <v>1.043195224701428</v>
       </c>
       <c r="M15">
-        <v>1.052011758186331</v>
+        <v>1.051035868935817</v>
       </c>
       <c r="N15">
-        <v>1.016546037172131</v>
+        <v>1.017450185270522</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051022557619302</v>
+        <v>1.050251210461992</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04422289857925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043202532569007</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024446569320892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011484833803398</v>
+        <v>1.01049340776837</v>
       </c>
       <c r="D16">
-        <v>1.034015194733425</v>
+        <v>1.032382367399118</v>
       </c>
       <c r="E16">
-        <v>1.031572237228817</v>
+        <v>1.030546787647605</v>
       </c>
       <c r="F16">
-        <v>1.039477955323866</v>
+        <v>1.038370273537843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055130668147498</v>
+        <v>1.05426809606427</v>
       </c>
       <c r="J16">
-        <v>1.039174727836804</v>
+        <v>1.038221318481808</v>
       </c>
       <c r="K16">
-        <v>1.047761346466651</v>
+        <v>1.046155532418476</v>
       </c>
       <c r="L16">
-        <v>1.045358845808896</v>
+        <v>1.044350451908467</v>
       </c>
       <c r="M16">
-        <v>1.05313452447618</v>
+        <v>1.052044909400918</v>
       </c>
       <c r="N16">
-        <v>1.016905767744967</v>
+        <v>1.017495041100832</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051871588434314</v>
+        <v>1.051010327615166</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044918205051449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043799079777222</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024610935808485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012782252086312</v>
+        <v>1.011727755274336</v>
       </c>
       <c r="D17">
-        <v>1.034855675520469</v>
+        <v>1.03315280530206</v>
       </c>
       <c r="E17">
-        <v>1.032579259816463</v>
+        <v>1.031493020949763</v>
       </c>
       <c r="F17">
-        <v>1.040335868252548</v>
+        <v>1.039172268661342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055456041282248</v>
+        <v>1.054550841773471</v>
       </c>
       <c r="J17">
-        <v>1.039757936768824</v>
+        <v>1.038742595382712</v>
       </c>
       <c r="K17">
-        <v>1.048278965616399</v>
+        <v>1.046603486300533</v>
       </c>
       <c r="L17">
-        <v>1.046039192476697</v>
+        <v>1.044970511546673</v>
       </c>
       <c r="M17">
-        <v>1.053671788169519</v>
+        <v>1.05252664101505</v>
       </c>
       <c r="N17">
-        <v>1.017086437705385</v>
+        <v>1.017529625218166</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052168325217133</v>
+        <v>1.051263081443623</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045286730938239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044118598729241</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024688628562152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013377996750268</v>
+        <v>1.0123072654427</v>
       </c>
       <c r="D18">
-        <v>1.035187160810566</v>
+        <v>1.033463971610767</v>
       </c>
       <c r="E18">
-        <v>1.03296594685515</v>
+        <v>1.031863735503658</v>
       </c>
       <c r="F18">
-        <v>1.040561915444987</v>
+        <v>1.039382445624575</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055546168149151</v>
+        <v>1.054628907007582</v>
       </c>
       <c r="J18">
-        <v>1.039944955299417</v>
+        <v>1.038913248652474</v>
       </c>
       <c r="K18">
-        <v>1.048424954910911</v>
+        <v>1.046729035453781</v>
       </c>
       <c r="L18">
-        <v>1.046238913728904</v>
+        <v>1.045154227853159</v>
       </c>
       <c r="M18">
-        <v>1.05371539488785</v>
+        <v>1.052554332106376</v>
       </c>
       <c r="N18">
-        <v>1.017121137672524</v>
+        <v>1.017514996995623</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051967417893201</v>
+        <v>1.051049404798204</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045378450933372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044194731544311</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024690246241552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013348685128549</v>
+        <v>1.012298332552223</v>
       </c>
       <c r="D19">
-        <v>1.035072509719784</v>
+        <v>1.033369985262622</v>
       </c>
       <c r="E19">
-        <v>1.032799119176554</v>
+        <v>1.031716345955753</v>
       </c>
       <c r="F19">
-        <v>1.04022330478974</v>
+        <v>1.039060170084327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055433619102114</v>
+        <v>1.054529063383983</v>
       </c>
       <c r="J19">
-        <v>1.039784972621319</v>
+        <v>1.038772680903723</v>
       </c>
       <c r="K19">
-        <v>1.048250665090827</v>
+        <v>1.0465749470387</v>
       </c>
       <c r="L19">
-        <v>1.046013094622607</v>
+        <v>1.044947452905118</v>
       </c>
       <c r="M19">
-        <v>1.053321043099884</v>
+        <v>1.052175978826936</v>
       </c>
       <c r="N19">
-        <v>1.017031314558391</v>
+        <v>1.017441486192804</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051333700352287</v>
+        <v>1.050428047105825</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045261544180781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044092733101534</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024627683309565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011559532208392</v>
+        <v>1.010629606757544</v>
       </c>
       <c r="D20">
-        <v>1.033697058134426</v>
+        <v>1.032127350417179</v>
       </c>
       <c r="E20">
-        <v>1.031086965797398</v>
+        <v>1.030120475145929</v>
       </c>
       <c r="F20">
-        <v>1.038332184763626</v>
+        <v>1.037273637058334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054751343612683</v>
+        <v>1.053927214834846</v>
       </c>
       <c r="J20">
-        <v>1.038652012439451</v>
+        <v>1.03775683612391</v>
       </c>
       <c r="K20">
-        <v>1.047172180303879</v>
+        <v>1.045627861861997</v>
       </c>
       <c r="L20">
-        <v>1.044604359681141</v>
+        <v>1.043653591637857</v>
       </c>
       <c r="M20">
-        <v>1.051732910236744</v>
+        <v>1.050691277773177</v>
       </c>
       <c r="N20">
-        <v>1.016591037972266</v>
+        <v>1.017191903266555</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049555808605282</v>
+        <v>1.048731475932756</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044502906199652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043427388484532</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024382994937554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007354135633844</v>
+        <v>1.006699974738029</v>
       </c>
       <c r="D21">
-        <v>1.03084165951818</v>
+        <v>1.02955861122314</v>
       </c>
       <c r="E21">
-        <v>1.027629332385271</v>
+        <v>1.026925557449675</v>
       </c>
       <c r="F21">
-        <v>1.03512662669781</v>
+        <v>1.034303041909688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053539963950843</v>
+        <v>1.052893416558207</v>
       </c>
       <c r="J21">
-        <v>1.036547569142896</v>
+        <v>1.035920219264724</v>
       </c>
       <c r="K21">
-        <v>1.045261373478096</v>
+        <v>1.044000821465328</v>
       </c>
       <c r="L21">
-        <v>1.042105506682141</v>
+        <v>1.041414162576241</v>
       </c>
       <c r="M21">
-        <v>1.049471733233975</v>
+        <v>1.048662426131299</v>
       </c>
       <c r="N21">
-        <v>1.015871867722295</v>
+        <v>1.017113059403858</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047725913289086</v>
+        <v>1.047085407039787</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043155113063619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042280552973937</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024052291241992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004680291672232</v>
+        <v>1.00419968189337</v>
       </c>
       <c r="D22">
-        <v>1.029034338925729</v>
+        <v>1.027931650045151</v>
       </c>
       <c r="E22">
-        <v>1.025449131043518</v>
+        <v>1.024910358521594</v>
       </c>
       <c r="F22">
-        <v>1.033122391946921</v>
+        <v>1.032446700968606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052766045380302</v>
+        <v>1.052230867559035</v>
       </c>
       <c r="J22">
-        <v>1.035216427585461</v>
+        <v>1.034756646893879</v>
       </c>
       <c r="K22">
-        <v>1.044051758480275</v>
+        <v>1.042969366218431</v>
       </c>
       <c r="L22">
-        <v>1.04053274999119</v>
+        <v>1.040003977893436</v>
       </c>
       <c r="M22">
-        <v>1.048065056774377</v>
+        <v>1.047401668430937</v>
       </c>
       <c r="N22">
-        <v>1.015418327831171</v>
+        <v>1.017057812343629</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046612633362868</v>
+        <v>1.046087610184083</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042286523342926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041536626368312</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023841843485027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006093346052723</v>
+        <v>1.005510093259972</v>
       </c>
       <c r="D23">
-        <v>1.02998386251998</v>
+        <v>1.028777740383997</v>
       </c>
       <c r="E23">
-        <v>1.026599109697226</v>
+        <v>1.025963286133415</v>
       </c>
       <c r="F23">
-        <v>1.034179208636079</v>
+        <v>1.033417409072326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053172054490133</v>
+        <v>1.052572303965538</v>
       </c>
       <c r="J23">
-        <v>1.035915880892975</v>
+        <v>1.035357174332612</v>
       </c>
       <c r="K23">
-        <v>1.04468423151612</v>
+        <v>1.043499750227022</v>
       </c>
       <c r="L23">
-        <v>1.041360377193853</v>
+        <v>1.040736051671775</v>
       </c>
       <c r="M23">
-        <v>1.048804812692867</v>
+        <v>1.048056530569074</v>
       </c>
       <c r="N23">
-        <v>1.015655296242863</v>
+        <v>1.01704208950491</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047198095430599</v>
+        <v>1.046605885499598</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042724170077305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041901150253331</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023947707536192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011571811619717</v>
+        <v>1.01064379703219</v>
       </c>
       <c r="D24">
-        <v>1.033683841658174</v>
+        <v>1.032115726167136</v>
       </c>
       <c r="E24">
-        <v>1.031074851793852</v>
+        <v>1.030110157610352</v>
       </c>
       <c r="F24">
-        <v>1.038295558069686</v>
+        <v>1.037238391589266</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054734260998258</v>
+        <v>1.053911194479191</v>
       </c>
       <c r="J24">
-        <v>1.038631577334875</v>
+        <v>1.037738190646796</v>
       </c>
       <c r="K24">
-        <v>1.047144171655084</v>
+        <v>1.045601388074501</v>
       </c>
       <c r="L24">
-        <v>1.04457738300607</v>
+        <v>1.043628362588231</v>
       </c>
       <c r="M24">
-        <v>1.05168195701706</v>
+        <v>1.050641663659303</v>
       </c>
       <c r="N24">
-        <v>1.016577697713433</v>
+        <v>1.017178466451488</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049475137851416</v>
+        <v>1.04865182503916</v>
       </c>
       <c r="Q24">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044456011728395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043378905183803</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024371120455999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017734300820886</v>
+        <v>1.01656770025628</v>
       </c>
       <c r="D25">
-        <v>1.037865113506711</v>
+        <v>1.035997845621391</v>
       </c>
       <c r="E25">
-        <v>1.03613818983859</v>
+        <v>1.03493767660909</v>
       </c>
       <c r="F25">
-        <v>1.042957916308155</v>
+        <v>1.041675852755921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056452988869076</v>
+        <v>1.055455277766221</v>
       </c>
       <c r="J25">
-        <v>1.041679227847415</v>
+        <v>1.040550076233563</v>
       </c>
       <c r="K25">
-        <v>1.049902742559708</v>
+        <v>1.048061908948705</v>
       </c>
       <c r="L25">
-        <v>1.048200262173357</v>
+        <v>1.047016802087504</v>
       </c>
       <c r="M25">
-        <v>1.054924055610764</v>
+        <v>1.053659905779713</v>
       </c>
       <c r="N25">
-        <v>1.017612929035822</v>
+        <v>1.017886950492745</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052041005670409</v>
+        <v>1.051040530859549</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046403590879843</v>
+        <v>1.045115447629743</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024871305829471</v>
       </c>
     </row>
   </sheetData>
